--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -397,175 +397,184 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM4"/>
+  <dimension ref="A1:AP4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
+        <v>Nome File Input</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Nome File Output</v>
+      </c>
+      <c r="C1" t="str">
         <v>Vecchio Nome Video</v>
       </c>
-      <c r="B1" t="str">
+      <c r="D1" t="str">
         <v>Nuovo Nome</v>
       </c>
-      <c r="C1" t="str">
-        <v>Meme</v>
-      </c>
-      <c r="D1" t="str">
+      <c r="E1" t="str">
+        <v>Meme (Testo Banner)</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Titolo Completo (con hashtag)</v>
+      </c>
+      <c r="G1" t="str">
         <v>Filtro (1/0)</v>
       </c>
-      <c r="E1" t="str">
+      <c r="H1" t="str">
         <v>Posizione Banner</v>
       </c>
-      <c r="F1" t="str">
-        <v>Descrizione</v>
-      </c>
-      <c r="G1" t="str">
+      <c r="I1" t="str">
+        <v>Descrizione Video</v>
+      </c>
+      <c r="J1" t="str">
         <v>Metadato: Title</v>
       </c>
-      <c r="H1" t="str">
+      <c r="K1" t="str">
         <v>Metadato: Artist</v>
       </c>
-      <c r="I1" t="str">
+      <c r="L1" t="str">
         <v>Metadato: Album</v>
       </c>
-      <c r="J1" t="str">
+      <c r="M1" t="str">
         <v>Metadato: Composer</v>
       </c>
-      <c r="K1" t="str">
+      <c r="N1" t="str">
         <v>Metadato: Genre</v>
       </c>
-      <c r="L1" t="str">
+      <c r="O1" t="str">
         <v>Metadato: Year</v>
       </c>
-      <c r="M1" t="str">
+      <c r="P1" t="str">
         <v>Metadato: Track</v>
       </c>
-      <c r="N1" t="str">
+      <c r="Q1" t="str">
         <v>Metadato: Disc</v>
       </c>
-      <c r="O1" t="str">
+      <c r="R1" t="str">
         <v>Metadato: Copyright</v>
       </c>
-      <c r="P1" t="str">
+      <c r="S1" t="str">
         <v>Metadato: Description</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="T1" t="str">
         <v>Metadato: Synopsis</v>
       </c>
-      <c r="R1" t="str">
+      <c r="U1" t="str">
         <v>Metadato: Show</v>
       </c>
-      <c r="S1" t="str">
+      <c r="V1" t="str">
         <v>Metadato: Episode ID</v>
       </c>
-      <c r="T1" t="str">
+      <c r="W1" t="str">
         <v>Metadato: Season number</v>
       </c>
-      <c r="U1" t="str">
+      <c r="X1" t="str">
         <v>Metadato: Episode sort order</v>
       </c>
-      <c r="V1" t="str">
+      <c r="Y1" t="str">
         <v>Metadato: Media type</v>
       </c>
-      <c r="W1" t="str">
+      <c r="Z1" t="str">
         <v>Metadato: Content rating</v>
       </c>
-      <c r="X1" t="str">
+      <c r="AA1" t="str">
         <v>Metadato: HD video</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="AB1" t="str">
         <v>Metadato: Gapless playbook</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AC1" t="str">
         <v>Metadato: Podcast</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AD1" t="str">
         <v>Metadato: Keywords</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AE1" t="str">
         <v>Metadato: Category</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AF1" t="str">
         <v>Metadato: Podcast URL</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AG1" t="str">
         <v>Metadato: Episode URL</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AH1" t="str">
         <v>Metadato: Author</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AI1" t="str">
         <v>Metadato: Subtitle</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AJ1" t="str">
         <v>Metadato: Title sort order</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AK1" t="str">
         <v>Metadato: Artist sort order</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AL1" t="str">
         <v>Metadato: Album sort order</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AM1" t="str">
         <v>Durata Video</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AN1" t="str">
         <v>Dimensioni Video (MB)</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AO1" t="str">
         <v>Altezza Video (px)</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AP1" t="str">
         <v>Larghezza Video (px)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758243671263.mp4</v>
+        <v>2BioluminescenceBeach_nature_n</v>
       </c>
       <c r="B2" t="str">
-        <v>Quando finalmente capisci che Spotify Premium per 2 anni a 35€ è più magico delle acque bioluminescenti _spotifypromo _musica _offerta.mp4</v>
+        <v>Spotify Premium a prezzo stracciato _spotify _offerta _musica _premium _svago _streaming _promozione _risparmio.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v/>
+        <v>2BioluminescenceBeach_nature_n_meme_1758244280861.mp4</v>
       </c>
       <c r="D2" t="str">
-        <v>0</v>
+        <v>Spotify Premium a prezzo stracciato _spotify _offerta _musica _premium _svago _streaming _promozione _risparmio.mp4</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>Quando scopri Spotify Premium per 2 anni a soli 35€, la tua vita diventa così luminosa.</v>
       </c>
       <c r="F2" t="str">
-        <v/>
+        <v>Spotify Premium a prezzo stracciato #spotify #offerta #musica #premium #svago #streaming #promozione #risparmio</v>
       </c>
       <c r="G2" t="str">
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>1</v>
+        <v>bottom</v>
       </c>
       <c r="I2" t="str">
-        <v>1</v>
+        <v>Una spiaggia di notte con cielo stellato e luna piena luminosa. L'onda del mare è illuminata da una bioluminescenza blu brillante che crea un effetto surreale lungo la riva e sulla sabbia bagnata.</v>
       </c>
       <c r="J2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="str">
         <v>1</v>
       </c>
       <c r="L2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="str">
         <v>0</v>
       </c>
       <c r="N2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="str">
         <v>0</v>
@@ -580,16 +589,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2" t="str">
         <v>0</v>
       </c>
       <c r="W2" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="str">
         <v>0</v>
@@ -619,72 +628,81 @@
         <v>0</v>
       </c>
       <c r="AG2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="AK2">
-        <v>2.04</v>
+        <v>1</v>
+      </c>
+      <c r="AK2" t="str">
+        <v>1</v>
       </c>
       <c r="AL2" t="str">
-        <v>N/A</v>
+        <v>1</v>
       </c>
       <c r="AM2" t="str">
-        <v>N/A</v>
+        <v>0:10</v>
+      </c>
+      <c r="AN2">
+        <v>2.03</v>
+      </c>
+      <c r="AO2">
+        <v>1920</v>
+      </c>
+      <c r="AP2">
+        <v>1080</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758243673242.mp4</v>
+        <v>2GrandTetonNationalPark626am_e</v>
       </c>
       <c r="B3" t="str">
-        <v>Io che cerco di trovare una scusa per ascoltare musica tutto il giorno invece di pagare Spotify annuale.mp4</v>
+        <v>Spotify Premium per 2 anni a 35€ che vista _spotifypremium _offerte _musica _risparmio _streaming _offertadelgiorno _playlist _musicaonline.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v/>
+        <v>2GrandTetonNationalPark626am_e_meme_1758244283084.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>0</v>
+        <v>Spotify Premium per 2 anni a 35€ che vista _spotifypremium _offerte _musica _risparmio _streaming _offertadelgiorno _playlist _musicaonline.mp4</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>Quando Spotify Premium dura 2 anni ma costa solo 35€: le montagne della felicità!</v>
       </c>
       <c r="F3" t="str">
-        <v/>
+        <v>Spotify Premium per 2 anni a 35€ che vista #spotifypremium #offerte #musica #risparmio #streaming #offertadelgiorno #playlist #musicaonline</v>
       </c>
       <c r="G3" t="str">
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>1</v>
+        <v>top</v>
       </c>
       <c r="I3" t="str">
-        <v>1</v>
+        <v>Un maestoso scenario montuoso al tramonto, con le cime illuminate da una calda luce dorata sotto un cielo azzurro limpido. In primo piano si estende una vasta pianura erbosa con vegetazione bassa e folta, che sfuma in una linea discreta di alberi scuri in lontananza.</v>
       </c>
       <c r="J3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
         <v>1</v>
       </c>
       <c r="L3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" t="str">
         <v>0</v>
       </c>
       <c r="N3" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3" t="str">
         <v>0</v>
@@ -699,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="str">
         <v>0</v>
@@ -738,72 +756,81 @@
         <v>0</v>
       </c>
       <c r="AG3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AK3" t="str">
+        <v>1</v>
+      </c>
+      <c r="AL3" t="str">
+        <v>1</v>
+      </c>
+      <c r="AM3" t="str">
+        <v>0:08</v>
+      </c>
+      <c r="AN3">
         <v>4.65</v>
       </c>
-      <c r="AL3" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="AM3" t="str">
-        <v>N/A</v>
+      <c r="AO3">
+        <v>1920</v>
+      </c>
+      <c r="AP3">
+        <v>1080</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758243677864.mp4</v>
+        <v>2Lovetheplace_landscape_healin</v>
       </c>
       <c r="B4" t="str">
-        <v>La vita con Spotify Premium 2 anni a 35€ è tipo questa strada_ ogni curva è una scoperta, ogni scorcio è pura magia..mp4</v>
+        <v>Trova la tua via per ascoltare senza limiti _spotifypremium _offerte _musica _streaming _offertespeciali _risparmio _musicarisparmio _nonperdere tempo.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>2Lovetheplace_landscape_healin_meme_1758244288007.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>0</v>
+        <v>Trova la tua via per ascoltare senza limiti _spotifypremium _offerte _musica _streaming _offertespeciali _risparmio _musicarisparmio _nonperdere tempo.mp4</v>
       </c>
       <c r="E4" t="str">
-        <v/>
+        <v>Io che cerco la strada per Spotify Premium biennale a 35€</v>
       </c>
       <c r="F4" t="str">
-        <v/>
+        <v>Trova la tua via per ascoltare senza limiti #spotifypremium #offerte #musica #streaming #offertespeciali #risparmio #musicarisparmio #nonperdere tempo</v>
       </c>
       <c r="G4" t="str">
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <v>1</v>
+        <v>top</v>
       </c>
       <c r="I4" t="str">
-        <v>1</v>
+        <v>Un'incredibile strada panoramica serpeggia lungo una ripida scogliera coperta di vegetazione lussureggiante. Sulla destra, un vasto lago turchese brilla sotto un cielo azzurro con sottili nuvole bianche. Le montagne sullo sfondo creano un magnifico paesaggio naturale mozzafiato.</v>
       </c>
       <c r="J4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <v>1</v>
       </c>
       <c r="L4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="str">
         <v>0</v>
       </c>
       <c r="N4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="str">
         <v>0</v>
@@ -818,16 +845,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" t="str">
         <v>0</v>
       </c>
       <c r="W4" t="str">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4" t="str">
         <v>0</v>
@@ -857,30 +884,39 @@
         <v>0</v>
       </c>
       <c r="AG4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="AK4">
-        <v>11.91</v>
+        <v>1</v>
+      </c>
+      <c r="AK4" t="str">
+        <v>1</v>
       </c>
       <c r="AL4" t="str">
-        <v>N/A</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="str">
-        <v>N/A</v>
+        <v>0:26</v>
+      </c>
+      <c r="AN4">
+        <v>11.68</v>
+      </c>
+      <c r="AO4">
+        <v>1920</v>
+      </c>
+      <c r="AP4">
+        <v>1080</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AM4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AP4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP4"/>
+  <dimension ref="A1:BH4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,123 +431,177 @@
         <v>Descrizione Video</v>
       </c>
       <c r="J1" t="str">
-        <v>Metadato: Title</v>
+        <v>Metadato: Artist</v>
       </c>
       <c r="K1" t="str">
-        <v>Metadato: Artist</v>
+        <v>Metadato: Composer</v>
       </c>
       <c r="L1" t="str">
         <v>Metadato: Album</v>
       </c>
       <c r="M1" t="str">
-        <v>Metadato: Composer</v>
+        <v>Metadato: Album artist</v>
       </c>
       <c r="N1" t="str">
         <v>Metadato: Genre</v>
       </c>
       <c r="O1" t="str">
-        <v>Metadato: Year</v>
+        <v>Metadato: Grouping</v>
       </c>
       <c r="P1" t="str">
-        <v>Metadato: Track</v>
+        <v>Metadato: Copyright</v>
       </c>
       <c r="Q1" t="str">
-        <v>Metadato: Disc</v>
+        <v>Metadato: Commenti</v>
       </c>
       <c r="R1" t="str">
-        <v>Metadato: Copyright</v>
+        <v>Metadato: Data di creazione</v>
       </c>
       <c r="S1" t="str">
-        <v>Metadato: Description</v>
+        <v>Metadato: Show</v>
       </c>
       <c r="T1" t="str">
-        <v>Metadato: Synopsis</v>
+        <v>Metadato: TV Network</v>
       </c>
       <c r="U1" t="str">
-        <v>Metadato: Show</v>
+        <v>Metadato: Season number</v>
       </c>
       <c r="V1" t="str">
-        <v>Metadato: Episode ID</v>
+        <v>Metadato: Episode number</v>
       </c>
       <c r="W1" t="str">
-        <v>Metadato: Season number</v>
+        <v>Metadato: HD Video</v>
       </c>
       <c r="X1" t="str">
-        <v>Metadato: Episode sort order</v>
+        <v>Metadato: Encoded by</v>
       </c>
       <c r="Y1" t="str">
-        <v>Metadato: Media type</v>
+        <v>Metadato: Encoder tool</v>
       </c>
       <c r="Z1" t="str">
-        <v>Metadato: Content rating</v>
+        <v>Metadato: Sottotitolo</v>
       </c>
       <c r="AA1" t="str">
-        <v>Metadato: HD video</v>
+        <v>Metadato: Classificazione (esplicito)</v>
       </c>
       <c r="AB1" t="str">
-        <v>Metadato: Gapless playbook</v>
+        <v>Metadato: Motivo classificazione</v>
       </c>
       <c r="AC1" t="str">
-        <v>Metadato: Podcast</v>
+        <v>Metadato: Tag</v>
       </c>
       <c r="AD1" t="str">
-        <v>Metadato: Keywords</v>
+        <v>Metadato: Umore</v>
       </c>
       <c r="AE1" t="str">
-        <v>Metadato: Category</v>
+        <v>Metadato: Chiave iniziale</v>
       </c>
       <c r="AF1" t="str">
-        <v>Metadato: Podcast URL</v>
+        <v>Metadato: Protetto</v>
       </c>
       <c r="AG1" t="str">
-        <v>Metadato: Episode URL</v>
+        <v>Metadato: Director</v>
       </c>
       <c r="AH1" t="str">
-        <v>Metadato: Author</v>
+        <v>Metadato: Director of photography</v>
       </c>
       <c r="AI1" t="str">
-        <v>Metadato: Subtitle</v>
+        <v>Metadato: Sound engineer</v>
       </c>
       <c r="AJ1" t="str">
+        <v>Metadato: Art director</v>
+      </c>
+      <c r="AK1" t="str">
+        <v>Metadato: Production designer</v>
+      </c>
+      <c r="AL1" t="str">
+        <v>Metadato: Choreographer</v>
+      </c>
+      <c r="AM1" t="str">
+        <v>Metadato: Costume designer</v>
+      </c>
+      <c r="AN1" t="str">
+        <v>Metadato: Writer</v>
+      </c>
+      <c r="AO1" t="str">
+        <v>Metadato: Screenwriter</v>
+      </c>
+      <c r="AP1" t="str">
+        <v>Metadato: Editor</v>
+      </c>
+      <c r="AQ1" t="str">
+        <v>Metadato: Producer</v>
+      </c>
+      <c r="AR1" t="str">
+        <v>Metadato: Co-producer</v>
+      </c>
+      <c r="AS1" t="str">
+        <v>Metadato: Executive producer</v>
+      </c>
+      <c r="AT1" t="str">
+        <v>Metadato: Distributed by</v>
+      </c>
+      <c r="AU1" t="str">
+        <v>Metadato: Studio</v>
+      </c>
+      <c r="AV1" t="str">
+        <v>Metadato: Editore</v>
+      </c>
+      <c r="AW1" t="str">
+        <v>Metadato: Provider di contenuti</v>
+      </c>
+      <c r="AX1" t="str">
+        <v>Metadato: Conduttori</v>
+      </c>
+      <c r="AY1" t="str">
         <v>Metadato: Title sort order</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AZ1" t="str">
         <v>Metadato: Artist sort order</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="BA1" t="str">
         <v>Metadato: Album sort order</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="BB1" t="str">
+        <v>Metadato: Album artist sort order</v>
+      </c>
+      <c r="BC1" t="str">
+        <v>Metadato: Composer sort order</v>
+      </c>
+      <c r="BD1" t="str">
+        <v>Metadato: Show sort order</v>
+      </c>
+      <c r="BE1" t="str">
         <v>Durata Video</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="BF1" t="str">
         <v>Dimensioni Video (MB)</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="BG1" t="str">
         <v>Altezza Video (px)</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="BH1" t="str">
         <v>Larghezza Video (px)</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2BioluminescenceBeach_nature_n</v>
+        <v>2BioluminescenceBeach#nature#naturevibes#nat7481706286942293279.mp4</v>
       </c>
       <c r="B2" t="str">
-        <v>Spotify Premium a prezzo stracciato _spotify _offerta _musica _premium _svago _streaming _promozione _risparmio.mp4</v>
+        <v>Spotify Premium per sempre a 35€ _spotifypremium _offertatop _musica _streaming _risparmio _qualitàaudio _convenienza _offertadelgiorno _promozione.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758244280861.mp4</v>
+        <v>2BioluminescenceBeach_nature_n_meme_1758245332222.mp4</v>
       </c>
       <c r="D2" t="str">
-        <v>Spotify Premium a prezzo stracciato _spotify _offerta _musica _premium _svago _streaming _promozione _risparmio.mp4</v>
+        <v>Spotify Premium per sempre a 35€ _spotifypremium _offertatop _musica _streaming _risparmio _qualitàaudio _convenienza _offertadelgiorno _promozione.mp4</v>
       </c>
       <c r="E2" t="str">
-        <v>Quando scopri Spotify Premium per 2 anni a soli 35€, la tua vita diventa così luminosa.</v>
+        <v>Quando scopri Spotify Premium a 35€ per 2 anni: il mare di offerte ti travolge</v>
       </c>
       <c r="F2" t="str">
-        <v>Spotify Premium a prezzo stracciato #spotify #offerta #musica #premium #svago #streaming #promozione #risparmio</v>
+        <v>Spotify Premium per sempre a 35€ #spotifypremium #offertatop #musica #streaming #risparmio #qualitàaudio #convenienza #offertadelgiorno #promozione</v>
       </c>
       <c r="G2" t="str">
         <v>1</v>
@@ -556,254 +610,362 @@
         <v>bottom</v>
       </c>
       <c r="I2" t="str">
-        <v>Una spiaggia di notte con cielo stellato e luna piena luminosa. L'onda del mare è illuminata da una bioluminescenza blu brillante che crea un effetto surreale lungo la riva e sulla sabbia bagnata.</v>
+        <v>Un paesaggio notturno mozzafiato di una spiaggia illuminata dalla luna e dal bagliore bioluminescente del mare. Le onde lambiscono la sabbia scura, creando un contrasto suggestivo con la luce bluastra riflessa. Il cielo stellato è dominato da una luna piena luminosa, che aggiunge un'atmosfera magica alla scena.</v>
       </c>
       <c r="J2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="R2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="T2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="U2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="W2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="X2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Y2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Z2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AA2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AB2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AC2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AD2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AE2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AF2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AG2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AI2" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AJ2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AK2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AL2" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AM2" t="str">
+        <v/>
+      </c>
+      <c r="AN2" t="str">
+        <v/>
+      </c>
+      <c r="AO2" t="str">
+        <v/>
+      </c>
+      <c r="AP2" t="str">
+        <v/>
+      </c>
+      <c r="AQ2" t="str">
+        <v/>
+      </c>
+      <c r="AR2" t="str">
+        <v/>
+      </c>
+      <c r="AS2" t="str">
+        <v/>
+      </c>
+      <c r="AT2" t="str">
+        <v/>
+      </c>
+      <c r="AU2" t="str">
+        <v/>
+      </c>
+      <c r="AV2" t="str">
+        <v/>
+      </c>
+      <c r="AW2" t="str">
+        <v/>
+      </c>
+      <c r="AX2" t="str">
+        <v/>
+      </c>
+      <c r="AY2" t="str">
+        <v/>
+      </c>
+      <c r="AZ2" t="str">
+        <v/>
+      </c>
+      <c r="BA2" t="str">
+        <v/>
+      </c>
+      <c r="BB2" t="str">
+        <v/>
+      </c>
+      <c r="BC2" t="str">
+        <v/>
+      </c>
+      <c r="BD2" t="str">
+        <v/>
+      </c>
+      <c r="BE2" t="str">
         <v>0:10</v>
       </c>
-      <c r="AN2">
-        <v>2.03</v>
-      </c>
-      <c r="AO2">
+      <c r="BF2">
+        <v>2.02</v>
+      </c>
+      <c r="BG2">
         <v>1920</v>
       </c>
-      <c r="AP2">
+      <c r="BH2">
         <v>1080</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>2GrandTetonNationalPark626am_e</v>
+        <v>2GrandTetonNationalPark626am#earth#scen7535362257375513886.mp4</v>
       </c>
       <c r="B3" t="str">
-        <v>Spotify Premium per 2 anni a 35€ che vista _spotifypremium _offerte _musica _risparmio _streaming _offertadelgiorno _playlist _musicaonline.mp4</v>
+        <v>Sentieri di montagna o offerte Spotify _natura _montagna _spotify _offerte _premium _musica _relax _paesaggio _landscape _travel.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758244283084.mp4</v>
+        <v>2GrandTetonNationalPark626am_e_meme_1758245334342.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>Spotify Premium per 2 anni a 35€ che vista _spotifypremium _offerte _musica _risparmio _streaming _offertadelgiorno _playlist _musicaonline.mp4</v>
+        <v>Sentieri di montagna o offerte Spotify _natura _montagna _spotify _offerte _premium _musica _relax _paesaggio _landscape _travel.mp4</v>
       </c>
       <c r="E3" t="str">
-        <v>Quando Spotify Premium dura 2 anni ma costa solo 35€: le montagne della felicità!</v>
+        <v>Investire tempo in natura o Spotify Premium 2 anni a 35€? La scelta è ovvia.</v>
       </c>
       <c r="F3" t="str">
-        <v>Spotify Premium per 2 anni a 35€ che vista #spotifypremium #offerte #musica #risparmio #streaming #offertadelgiorno #playlist #musicaonline</v>
+        <v>Sentieri di montagna o offerte Spotify #natura #montagna #spotify #offerte #premium #musica #relax #paesaggio #landscape #travel</v>
       </c>
       <c r="G3" t="str">
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>top</v>
+        <v>bottom</v>
       </c>
       <c r="I3" t="str">
-        <v>Un maestoso scenario montuoso al tramonto, con le cime illuminate da una calda luce dorata sotto un cielo azzurro limpido. In primo piano si estende una vasta pianura erbosa con vegetazione bassa e folta, che sfuma in una linea discreta di alberi scuri in lontananza.</v>
+        <v>Un vasto campo di erba alta e cespugli domina la parte inferiore dell'inquadratura, con una densa foresta che si estende in lontananza. Sopra la foresta, imponenti montagne scoscese catturano la luce dorata del tramonto, con cime frastagliate che si stagliano contro un cielo azzurro limpido e privo di nuvole. La luce calda conferisce alle montagne un aspetto drammatico e maestoso.</v>
       </c>
       <c r="J3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="R3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="T3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="U3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="V3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="W3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="X3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Y3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Z3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AA3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AB3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AC3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AD3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AE3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AF3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AG3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AI3" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AJ3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AK3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AL3" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AM3" t="str">
+        <v/>
+      </c>
+      <c r="AN3" t="str">
+        <v/>
+      </c>
+      <c r="AO3" t="str">
+        <v/>
+      </c>
+      <c r="AP3" t="str">
+        <v/>
+      </c>
+      <c r="AQ3" t="str">
+        <v/>
+      </c>
+      <c r="AR3" t="str">
+        <v/>
+      </c>
+      <c r="AS3" t="str">
+        <v/>
+      </c>
+      <c r="AT3" t="str">
+        <v/>
+      </c>
+      <c r="AU3" t="str">
+        <v/>
+      </c>
+      <c r="AV3" t="str">
+        <v/>
+      </c>
+      <c r="AW3" t="str">
+        <v/>
+      </c>
+      <c r="AX3" t="str">
+        <v/>
+      </c>
+      <c r="AY3" t="str">
+        <v/>
+      </c>
+      <c r="AZ3" t="str">
+        <v/>
+      </c>
+      <c r="BA3" t="str">
+        <v/>
+      </c>
+      <c r="BB3" t="str">
+        <v/>
+      </c>
+      <c r="BC3" t="str">
+        <v/>
+      </c>
+      <c r="BD3" t="str">
+        <v/>
+      </c>
+      <c r="BE3" t="str">
         <v>0:08</v>
       </c>
-      <c r="AN3">
-        <v>4.65</v>
-      </c>
-      <c r="AO3">
+      <c r="BF3">
+        <v>4</v>
+      </c>
+      <c r="BG3">
         <v>1920</v>
       </c>
-      <c r="AP3">
+      <c r="BH3">
         <v>1080</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>2Lovetheplace_landscape_healin</v>
+        <v>2Lovetheplace#landscape#healingjourney#rela7379280768100584746.mp4</v>
       </c>
       <c r="B4" t="str">
-        <v>Trova la tua via per ascoltare senza limiti _spotifypremium _offerte _musica _streaming _offertespeciali _risparmio _musicarisparmio _nonperdere tempo.mp4</v>
+        <v>La strada per il benessere musicale _spotifypremium _offerte _musica _lusso _relax _paesaggi _laghi _natura _viaggi.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758244288007.mp4</v>
+        <v>2Lovetheplace_landscape_healin_meme_1758245338864.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>Trova la tua via per ascoltare senza limiti _spotifypremium _offerte _musica _streaming _offertespeciali _risparmio _musicarisparmio _nonperdere tempo.mp4</v>
+        <v>La strada per il benessere musicale _spotifypremium _offerte _musica _lusso _relax _paesaggi _laghi _natura _viaggi.mp4</v>
       </c>
       <c r="E4" t="str">
-        <v>Io che cerco la strada per Spotify Premium biennale a 35€</v>
+        <v>Io quando trovo Spotify Premium a 35€ per 2 anni su una strada che porta al paradiso</v>
       </c>
       <c r="F4" t="str">
-        <v>Trova la tua via per ascoltare senza limiti #spotifypremium #offerte #musica #streaming #offertespeciali #risparmio #musicarisparmio #nonperdere tempo</v>
+        <v>La strada per il benessere musicale #spotifypremium #offerte #musica #lusso #relax #paesaggi #laghi #natura #viaggi</v>
       </c>
       <c r="G4" t="str">
         <v>1</v>
@@ -812,111 +974,165 @@
         <v>top</v>
       </c>
       <c r="I4" t="str">
-        <v>Un'incredibile strada panoramica serpeggia lungo una ripida scogliera coperta di vegetazione lussureggiante. Sulla destra, un vasto lago turchese brilla sotto un cielo azzurro con sottili nuvole bianche. Le montagne sullo sfondo creano un magnifico paesaggio naturale mozzafiato.</v>
+        <v>Un'incredibile strada panoramica si snoda lungo una scogliera ripida, dominando un lago azzurro scintillante. Le verdi colline ricoperte di alberi si estendono fino all'orizzonte, punteggiate da nuvole bianche in un cielo azzurro intenso. La vegetazione rigogliosa aggrappata alla roccia crea un contrasto suggestivo con l'asfalto serpeggiante e l'acqua cristallina sottostante, offrendo un senso di avventura e scoperta.</v>
       </c>
       <c r="J4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="K4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="L4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="M4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="N4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="O4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="P4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Q4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="R4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="S4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="T4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="U4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="V4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="W4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="X4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Y4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="Z4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AA4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AB4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AC4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AD4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AE4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AF4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AG4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AI4" t="str">
-        <v>0</v>
+        <v/>
       </c>
       <c r="AJ4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AK4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AL4" t="str">
-        <v>1</v>
+        <v/>
       </c>
       <c r="AM4" t="str">
+        <v/>
+      </c>
+      <c r="AN4" t="str">
+        <v/>
+      </c>
+      <c r="AO4" t="str">
+        <v/>
+      </c>
+      <c r="AP4" t="str">
+        <v/>
+      </c>
+      <c r="AQ4" t="str">
+        <v/>
+      </c>
+      <c r="AR4" t="str">
+        <v/>
+      </c>
+      <c r="AS4" t="str">
+        <v/>
+      </c>
+      <c r="AT4" t="str">
+        <v/>
+      </c>
+      <c r="AU4" t="str">
+        <v/>
+      </c>
+      <c r="AV4" t="str">
+        <v/>
+      </c>
+      <c r="AW4" t="str">
+        <v/>
+      </c>
+      <c r="AX4" t="str">
+        <v/>
+      </c>
+      <c r="AY4" t="str">
+        <v/>
+      </c>
+      <c r="AZ4" t="str">
+        <v/>
+      </c>
+      <c r="BA4" t="str">
+        <v/>
+      </c>
+      <c r="BB4" t="str">
+        <v/>
+      </c>
+      <c r="BC4" t="str">
+        <v/>
+      </c>
+      <c r="BD4" t="str">
+        <v/>
+      </c>
+      <c r="BE4" t="str">
         <v>0:26</v>
       </c>
-      <c r="AN4">
-        <v>11.68</v>
-      </c>
-      <c r="AO4">
+      <c r="BF4">
+        <v>11.9</v>
+      </c>
+      <c r="BG4">
         <v>1920</v>
       </c>
-      <c r="AP4">
+      <c r="BH4">
         <v>1080</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:AP4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BH4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -589,19 +589,19 @@
         <v>2BioluminescenceBeach#nature#naturevibes#nat7481706286942293279.mp4</v>
       </c>
       <c r="B2" t="str">
-        <v>Spotify Premium per sempre a 35€ _spotifypremium _offertatop _musica _streaming _risparmio _qualitàaudio _convenienza _offertadelgiorno _promozione.mp4</v>
+        <v>Magia notturna e offerte imperdibili _spotifypremium _offertatop _musica _natura _paesaggionotturno _spotify.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758245332222.mp4</v>
+        <v>2BioluminescenceBeach_nature_n_meme_1758247173922.mp4</v>
       </c>
       <c r="D2" t="str">
-        <v>Spotify Premium per sempre a 35€ _spotifypremium _offertatop _musica _streaming _risparmio _qualitàaudio _convenienza _offertadelgiorno _promozione.mp4</v>
+        <v>Magia notturna e offerte imperdibili _spotifypremium _offertatop _musica _natura _paesaggionotturno _spotify.mp4</v>
       </c>
       <c r="E2" t="str">
-        <v>Quando scopri Spotify Premium a 35€ per 2 anni: il mare di offerte ti travolge</v>
+        <v>Vedere queste onde bioluminescenti è una meraviglia, ma il vero spettacolo è Spotify Premium a 2 anni per soli 35€</v>
       </c>
       <c r="F2" t="str">
-        <v>Spotify Premium per sempre a 35€ #spotifypremium #offertatop #musica #streaming #risparmio #qualitàaudio #convenienza #offertadelgiorno #promozione</v>
+        <v>Magia notturna e offerte imperdibili #spotifypremium #offertatop #musica #natura #paesaggionotturno #spotify</v>
       </c>
       <c r="G2" t="str">
         <v>1</v>
@@ -610,76 +610,76 @@
         <v>bottom</v>
       </c>
       <c r="I2" t="str">
-        <v>Un paesaggio notturno mozzafiato di una spiaggia illuminata dalla luna e dal bagliore bioluminescente del mare. Le onde lambiscono la sabbia scura, creando un contrasto suggestivo con la luce bluastra riflessa. Il cielo stellato è dominato da una luna piena luminosa, che aggiunge un'atmosfera magica alla scena.</v>
+        <v>Una spiaggia notturna illuminata dalla bioluminescenza blu brillante delle onde che si infrangono delicatamente sulla riva. La luna e le stelle brillano in un cielo scuro e profondo sopra l'oceano. L'atmosfera è serena e magica, con l'acqua che sembra emanare una luce eterea.</v>
       </c>
       <c r="J2" t="str">
-        <v/>
+        <v>Natura Digitale</v>
       </c>
       <c r="K2" t="str">
         <v/>
       </c>
       <c r="L2" t="str">
-        <v/>
+        <v>Offerte Estive Ispirate dalla Natura</v>
       </c>
       <c r="M2" t="str">
-        <v/>
+        <v>Marketing Creativo</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>Promotional</v>
       </c>
       <c r="O2" t="str">
-        <v/>
+        <v>Deal Alerts</v>
       </c>
       <c r="P2" t="str">
-        <v/>
+        <v>© 2024 Marketing Creativo</v>
       </c>
       <c r="Q2" t="str">
-        <v/>
+        <v>Meme promozionale per Spotify Premium</v>
       </c>
       <c r="R2" t="str">
-        <v/>
+        <v>2024-12-19</v>
       </c>
       <c r="S2" t="str">
-        <v/>
+        <v>Promozioni Virali</v>
       </c>
       <c r="T2" t="str">
-        <v/>
+        <v>Online</v>
       </c>
       <c r="U2" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V2" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W2" t="str">
-        <v/>
+        <v>Sì</v>
       </c>
       <c r="X2" t="str">
-        <v/>
+        <v>AI Generator</v>
       </c>
       <c r="Y2" t="str">
-        <v/>
+        <v>Custom Meme Creator v2.1</v>
       </c>
       <c r="Z2" t="str">
-        <v/>
+        <v>Combinazione perfetta di natura e grandi offerte</v>
       </c>
       <c r="AA2" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="AB2" t="str">
-        <v/>
+        <v>Contenuto per tutti</v>
       </c>
       <c r="AC2" t="str">
-        <v/>
+        <v>spotify,premium,offerta,musica,streaming,natura,paesaggi,luce,notte,meme</v>
       </c>
       <c r="AD2" t="str">
-        <v/>
+        <v>Meravigliato</v>
       </c>
       <c r="AE2" t="str">
         <v/>
       </c>
       <c r="AF2" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="AG2" t="str">
         <v/>
@@ -691,7 +691,7 @@
         <v/>
       </c>
       <c r="AJ2" t="str">
-        <v/>
+        <v>Marketing Creativo</v>
       </c>
       <c r="AK2" t="str">
         <v/>
@@ -703,61 +703,61 @@
         <v/>
       </c>
       <c r="AN2" t="str">
-        <v/>
+        <v>AI Content Writer</v>
       </c>
       <c r="AO2" t="str">
         <v/>
       </c>
       <c r="AP2" t="str">
-        <v/>
+        <v>Meme Editor</v>
       </c>
       <c r="AQ2" t="str">
-        <v/>
+        <v>Digital Marketing Team</v>
       </c>
       <c r="AR2" t="str">
         <v/>
       </c>
       <c r="AS2" t="str">
-        <v/>
+        <v>Chief Marketing Officer</v>
       </c>
       <c r="AT2" t="str">
-        <v/>
+        <v>Social Media Platforms</v>
       </c>
       <c r="AU2" t="str">
-        <v/>
+        <v>Innovative Marketing Studio</v>
       </c>
       <c r="AV2" t="str">
-        <v/>
+        <v>Independent Developer</v>
       </c>
       <c r="AW2" t="str">
-        <v/>
+        <v>Natura Visuals &amp; Spotify Partner</v>
       </c>
       <c r="AX2" t="str">
         <v/>
       </c>
       <c r="AY2" t="str">
-        <v/>
+        <v>Offerta Spotify Premium con sfondo naturale</v>
       </c>
       <c r="AZ2" t="str">
-        <v/>
+        <v>Natura Digitale</v>
       </c>
       <c r="BA2" t="str">
-        <v/>
+        <v>Offerte Estive Ispirate dalla Natura</v>
       </c>
       <c r="BB2" t="str">
-        <v/>
+        <v>Marketing Creativo</v>
       </c>
       <c r="BC2" t="str">
         <v/>
       </c>
       <c r="BD2" t="str">
-        <v/>
+        <v>Promozioni Virali</v>
       </c>
       <c r="BE2" t="str">
         <v>0:10</v>
       </c>
       <c r="BF2">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="BG2">
         <v>1920</v>
@@ -771,97 +771,97 @@
         <v>2GrandTetonNationalPark626am#earth#scen7535362257375513886.mp4</v>
       </c>
       <c r="B3" t="str">
-        <v>Sentieri di montagna o offerte Spotify _natura _montagna _spotify _offerte _premium _musica _relax _paesaggio _landscape _travel.mp4</v>
+        <v>Il miglior affare dell'anno Spotify Premium a 35€ per 2 anni _spotify _streaming _offertatop _musica _premium _risparmio _musicaitaliana _offerte _tech _convenienza.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758245334342.mp4</v>
+        <v>2GrandTetonNationalPark626am_e_meme_1758247175875.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>Sentieri di montagna o offerte Spotify _natura _montagna _spotify _offerte _premium _musica _relax _paesaggio _landscape _travel.mp4</v>
+        <v>Il miglior affare dell'anno Spotify Premium a 35€ per 2 anni _spotify _streaming _offertatop _musica _premium _risparmio _musicaitaliana _offerte _tech _convenienza.mp4</v>
       </c>
       <c r="E3" t="str">
-        <v>Investire tempo in natura o Spotify Premium 2 anni a 35€? La scelta è ovvia.</v>
+        <v>Quando ti rendi conto che Spotify Premium per 2 anni costa solo 35€, meno di quello che spendi in caffè ogni mese</v>
       </c>
       <c r="F3" t="str">
-        <v>Sentieri di montagna o offerte Spotify #natura #montagna #spotify #offerte #premium #musica #relax #paesaggio #landscape #travel</v>
+        <v>Il miglior affare dell'anno Spotify Premium a 35€ per 2 anni #spotify #streaming #offertatop #musica #premium #risparmio #musicaitaliana #offerte #tech #convenienza</v>
       </c>
       <c r="G3" t="str">
         <v>1</v>
       </c>
       <c r="H3" t="str">
-        <v>bottom</v>
+        <v>top</v>
       </c>
       <c r="I3" t="str">
-        <v>Un vasto campo di erba alta e cespugli domina la parte inferiore dell'inquadratura, con una densa foresta che si estende in lontananza. Sopra la foresta, imponenti montagne scoscese catturano la luce dorata del tramonto, con cime frastagliate che si stagliano contro un cielo azzurro limpido e privo di nuvole. La luce calda conferisce alle montagne un aspetto drammatico e maestoso.</v>
+        <v>Un vasto paesaggio naturale al tramonto. In primo piano, un campo denso di vegetazione bassa e arida, con fili d'erba secca e pennellate di ozzie in lontananza. Dietro questo, una fitta linea di alberi scuri, quasi una muraglia verde, separa la pianura dalle imponenti montagne. Le montagne, il cui profilo è frastagliato, sono illuminate dalla luce dorata del tramonto che ne evidenzia le cime aguzze e le ombre profonde. Sopra tutto, un cielo limpido e sconfinato di un blu vibrante, senza nuvole, crea un contrasto netto con il calore cromatico delle vette.</v>
       </c>
       <c r="J3" t="str">
-        <v/>
+        <v>Unknown</v>
       </c>
       <c r="K3" t="str">
         <v/>
       </c>
       <c r="L3" t="str">
-        <v/>
+        <v>Paesaggi Naturali</v>
       </c>
       <c r="M3" t="str">
-        <v/>
+        <v>Natura Collection</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>Nature</v>
       </c>
       <c r="O3" t="str">
-        <v/>
+        <v>Landscape Photography</v>
       </c>
       <c r="P3" t="str">
-        <v/>
+        <v>© 2024 All Rights Reserved</v>
       </c>
       <c r="Q3" t="str">
-        <v/>
+        <v>Immagine evocativa di un paesaggio montano al tramonto</v>
       </c>
       <c r="R3" t="str">
-        <v/>
+        <v>2024-12-19</v>
       </c>
       <c r="S3" t="str">
-        <v/>
+        <v>Natura e Viaggi</v>
       </c>
       <c r="T3" t="str">
-        <v/>
+        <v>Natura Channel</v>
       </c>
       <c r="U3" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V3" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W3" t="str">
-        <v/>
+        <v>Sì</v>
       </c>
       <c r="X3" t="str">
-        <v/>
+        <v>AI Image Generator</v>
       </c>
       <c r="Y3" t="str">
-        <v/>
+        <v>Image Processing Suite v3.1</v>
       </c>
       <c r="Z3" t="str">
-        <v/>
+        <v>Bellezza naturale e opportunità di risparmio sui servizi di streaming</v>
       </c>
       <c r="AA3" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="AB3" t="str">
-        <v/>
+        <v>Contenuto adatto a tutte le età</v>
       </c>
       <c r="AC3" t="str">
-        <v/>
+        <v>natura,paesaggi,montagne,tramonto,campo,vegetazione,sky,outdoor,scenery,landscape</v>
       </c>
       <c r="AD3" t="str">
-        <v/>
+        <v>Sereno</v>
       </c>
       <c r="AE3" t="str">
         <v/>
       </c>
       <c r="AF3" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="AG3" t="str">
         <v/>
@@ -873,7 +873,7 @@
         <v/>
       </c>
       <c r="AJ3" t="str">
-        <v/>
+        <v>AI Model</v>
       </c>
       <c r="AK3" t="str">
         <v/>
@@ -885,61 +885,61 @@
         <v/>
       </c>
       <c r="AN3" t="str">
-        <v/>
+        <v>AI Model</v>
       </c>
       <c r="AO3" t="str">
         <v/>
       </c>
       <c r="AP3" t="str">
-        <v/>
+        <v>AI Editor</v>
       </c>
       <c r="AQ3" t="str">
-        <v/>
+        <v>AI Producer</v>
       </c>
       <c r="AR3" t="str">
         <v/>
       </c>
       <c r="AS3" t="str">
-        <v/>
+        <v>AI Executive Producer</v>
       </c>
       <c r="AT3" t="str">
-        <v/>
+        <v>Online Platforms</v>
       </c>
       <c r="AU3" t="str">
-        <v/>
+        <v>AI Creative Studio</v>
       </c>
       <c r="AV3" t="str">
-        <v/>
+        <v>Digital Content Publisher</v>
       </c>
       <c r="AW3" t="str">
-        <v/>
+        <v>AI Content Provider</v>
       </c>
       <c r="AX3" t="str">
         <v/>
       </c>
       <c r="AY3" t="str">
-        <v/>
+        <v>Paesaggio Montano al Tramonto con Terreno Coltivato</v>
       </c>
       <c r="AZ3" t="str">
-        <v/>
+        <v>Unknown</v>
       </c>
       <c r="BA3" t="str">
-        <v/>
+        <v>Paesaggi Naturali</v>
       </c>
       <c r="BB3" t="str">
-        <v/>
+        <v>Natura Collection</v>
       </c>
       <c r="BC3" t="str">
         <v/>
       </c>
       <c r="BD3" t="str">
-        <v/>
+        <v>Natura e Viaggi</v>
       </c>
       <c r="BE3" t="str">
         <v>0:08</v>
       </c>
       <c r="BF3">
-        <v>4</v>
+        <v>4.65</v>
       </c>
       <c r="BG3">
         <v>1920</v>
@@ -948,105 +948,106 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>2Lovetheplace#landscape#healingjourney#rela7379280768100584746.mp4</v>
       </c>
       <c r="B4" t="str">
-        <v>La strada per il benessere musicale _spotifypremium _offerte _musica _lusso _relax _paesaggi _laghi _natura _viaggi.mp4</v>
+        <v>La strada del risparmio ti porta alla musica perfetta _SpotifyPremium _OffertaUnica _MusicaPerTutti _RisparmioIntelligente _PaesaggiMozzafiato _PromoImperdibile _VitaSemplice _AscoltoInfinito.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758245338864.mp4</v>
+        <v>2Lovetheplace_landscape_healin_meme_1758247180327.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>La strada per il benessere musicale _spotifypremium _offerte _musica _lusso _relax _paesaggi _laghi _natura _viaggi.mp4</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Io quando trovo Spotify Premium a 35€ per 2 anni su una strada che porta al paradiso</v>
+        <v>La strada del risparmio ti porta alla musica perfetta _SpotifyPremium _OffertaUnica _MusicaPerTutti _RisparmioIntelligente _PaesaggiMozzafiato _PromoImperdibile _VitaSemplice _AscoltoInfinito.mp4</v>
+      </c>
+      <c r="E4" t="str" xml:space="preserve">
+        <v xml:space="preserve">Quando ti offrono Spotify Premium a 35€ per 2 anni, ma hai una strada panoramica da percorrere.
+La scelta è difficile ma il risparmio vince sempre.</v>
       </c>
       <c r="F4" t="str">
-        <v>La strada per il benessere musicale #spotifypremium #offerte #musica #lusso #relax #paesaggi #laghi #natura #viaggi</v>
+        <v>La strada del risparmio ti porta alla musica perfetta #SpotifyPremium #OffertaUnica #MusicaPerTutti #RisparmioIntelligente #PaesaggiMozzafiato #PromoImperdibile #VitaSemplice #AscoltoInfinito</v>
       </c>
       <c r="G4" t="str">
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <v>top</v>
+        <v>bottom</v>
       </c>
       <c r="I4" t="str">
-        <v>Un'incredibile strada panoramica si snoda lungo una scogliera ripida, dominando un lago azzurro scintillante. Le verdi colline ricoperte di alberi si estendono fino all'orizzonte, punteggiate da nuvole bianche in un cielo azzurro intenso. La vegetazione rigogliosa aggrappata alla roccia crea un contrasto suggestivo con l'asfalto serpeggiante e l'acqua cristallina sottostante, offrendo un senso di avventura e scoperta.</v>
+        <v>Un'imponente strada tortuosa costeggia una scogliera verdeggiante, affacciandosi su un lago sereno di colore turchese. Montagne boscose si stagliano in lontananza sotto un cielo azzurro punteggiato da soffici nuvole bianche. La vegetazione lussureggiante copre la roccia scoscesa, creando un contrasto naturale con la brillantezza dell'acqua e la curva sinuosa della strada.</v>
       </c>
       <c r="J4" t="str">
-        <v/>
+        <v>Paesaggi e Offerte</v>
       </c>
       <c r="K4" t="str">
         <v/>
       </c>
       <c r="L4" t="str">
-        <v/>
+        <v>Meme Promozionali</v>
       </c>
       <c r="M4" t="str">
-        <v/>
+        <v>Paesaggi e Offerte</v>
       </c>
       <c r="N4" t="str">
-        <v/>
+        <v>Comedy</v>
       </c>
       <c r="O4" t="str">
-        <v/>
+        <v>Meme</v>
       </c>
       <c r="P4" t="str">
-        <v/>
+        <v>© 2024 Paesaggi e Offerte</v>
       </c>
       <c r="Q4" t="str">
-        <v/>
+        <v>Meme che unisce la bellezza della natura all'offerta commerciale</v>
       </c>
       <c r="R4" t="str">
-        <v/>
+        <v>2024-05-15</v>
       </c>
       <c r="S4" t="str">
-        <v/>
+        <v>Meme Virali</v>
       </c>
       <c r="T4" t="str">
-        <v/>
+        <v>Social Media</v>
       </c>
       <c r="U4" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="V4" t="str">
-        <v/>
+        <v>1</v>
       </c>
       <c r="W4" t="str">
-        <v/>
+        <v>Sì</v>
       </c>
       <c r="X4" t="str">
-        <v/>
+        <v>AI Generator</v>
       </c>
       <c r="Y4" t="str">
-        <v/>
+        <v>Meme Creator Pro</v>
       </c>
       <c r="Z4" t="str">
-        <v/>
+        <v>Scopri l'equilibrio perfetto tra bellezza naturale e convenienza</v>
       </c>
       <c r="AA4" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="AB4" t="str">
-        <v/>
+        <v>Contenuto universalmente appropriato</v>
       </c>
       <c r="AC4" t="str">
-        <v/>
+        <v>natura,paesaggio,strada,lago,spotify,premium,offerta,meme,risparmio,musica</v>
       </c>
       <c r="AD4" t="str">
-        <v/>
+        <v>Ispirazionale e divertente</v>
       </c>
       <c r="AE4" t="str">
         <v/>
       </c>
       <c r="AF4" t="str">
-        <v/>
+        <v>No</v>
       </c>
       <c r="AG4" t="str">
-        <v/>
+        <v>Visual Storyteller</v>
       </c>
       <c r="AH4" t="str">
         <v/>
@@ -1055,7 +1056,7 @@
         <v/>
       </c>
       <c r="AJ4" t="str">
-        <v/>
+        <v>Meme Designer</v>
       </c>
       <c r="AK4" t="str">
         <v/>
@@ -1067,61 +1068,61 @@
         <v/>
       </c>
       <c r="AN4" t="str">
-        <v/>
+        <v>Copywriter</v>
       </c>
       <c r="AO4" t="str">
         <v/>
       </c>
       <c r="AP4" t="str">
-        <v/>
+        <v>Meme Editor</v>
       </c>
       <c r="AQ4" t="str">
-        <v/>
+        <v>Content Creator</v>
       </c>
       <c r="AR4" t="str">
         <v/>
       </c>
       <c r="AS4" t="str">
-        <v/>
+        <v>Social Media Manager</v>
       </c>
       <c r="AT4" t="str">
-        <v/>
+        <v>Online Platforms</v>
       </c>
       <c r="AU4" t="str">
-        <v/>
+        <v>Meme Factory</v>
       </c>
       <c r="AV4" t="str">
-        <v/>
+        <v>Digital Publisher</v>
       </c>
       <c r="AW4" t="str">
-        <v/>
+        <v>Content Aggregator</v>
       </c>
       <c r="AX4" t="str">
         <v/>
       </c>
       <c r="AY4" t="str">
-        <v/>
+        <v>Strada panoramica verso lOfferta Spotify</v>
       </c>
       <c r="AZ4" t="str">
-        <v/>
+        <v>Paesaggi e Offerte</v>
       </c>
       <c r="BA4" t="str">
-        <v/>
+        <v>Meme Promozionali</v>
       </c>
       <c r="BB4" t="str">
-        <v/>
+        <v>Paesaggi e Offerte</v>
       </c>
       <c r="BC4" t="str">
         <v/>
       </c>
       <c r="BD4" t="str">
-        <v/>
+        <v>Meme Virali</v>
       </c>
       <c r="BE4" t="str">
         <v>0:26</v>
       </c>
       <c r="BF4">
-        <v>11.9</v>
+        <v>8.68</v>
       </c>
       <c r="BG4">
         <v>1920</v>

--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -589,19 +589,19 @@
         <v>2BioluminescenceBeach#nature#naturevibes#nat7481706286942293279.mp4</v>
       </c>
       <c r="B2" t="str">
-        <v>Magia notturna e offerte imperdibili _spotifypremium _offertatop _musica _natura _paesaggionotturno _spotify.mp4</v>
+        <v>Sentiti come questo mare bioluminescente_ la tua musica Spotify Premium ti aspetta!.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758247173922.mp4</v>
+        <v>2BioluminescenceBeach_nature_n_meme_1758247923675.mp4</v>
       </c>
       <c r="D2" t="str">
-        <v>Magia notturna e offerte imperdibili _spotifypremium _offertatop _musica _natura _paesaggionotturno _spotify.mp4</v>
+        <v>Sentiti come questo mare bioluminescente_ la tua musica Spotify Premium ti aspetta!.mp4</v>
       </c>
       <c r="E2" t="str">
-        <v>Vedere queste onde bioluminescenti è una meraviglia, ma il vero spettacolo è Spotify Premium a 2 anni per soli 35€</v>
+        <v>Quando ti ricordi che hai ancora Spotify Premium per 2 anni a soli 35 euro</v>
       </c>
       <c r="F2" t="str">
-        <v>Magia notturna e offerte imperdibili #spotifypremium #offertatop #musica #natura #paesaggionotturno #spotify</v>
+        <v>Sentiti come questo mare bioluminescente: la tua musica Spotify Premium ti aspetta!</v>
       </c>
       <c r="G2" t="str">
         <v>1</v>
@@ -610,154 +610,154 @@
         <v>bottom</v>
       </c>
       <c r="I2" t="str">
-        <v>Una spiaggia notturna illuminata dalla bioluminescenza blu brillante delle onde che si infrangono delicatamente sulla riva. La luna e le stelle brillano in un cielo scuro e profondo sopra l'oceano. L'atmosfera è serena e magica, con l'acqua che sembra emanare una luce eterea.</v>
+        <v>Una spiaggia di notte illuminata dalla luna e dalle stelle. Le onde che si infrangono sulla riva emettono una luminescenza bluastra brillante, creando un contrasto magico con il cielo scuro. L'atmosfera è serena e incantevole.</v>
       </c>
       <c r="J2" t="str">
-        <v>Natura Digitale</v>
+        <v>Marco Rossi</v>
       </c>
       <c r="K2" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="L2" t="str">
-        <v>Offerte Estive Ispirate dalla Natura</v>
+        <v>Paesaggi Notturni Incantati</v>
       </c>
       <c r="M2" t="str">
-        <v>Marketing Creativo</v>
+        <v>Marco Rossi</v>
       </c>
       <c r="N2" t="str">
-        <v>Promotional</v>
+        <v>Paesaggio</v>
       </c>
       <c r="O2" t="str">
-        <v>Deal Alerts</v>
+        <v>Natura Notturna</v>
       </c>
       <c r="P2" t="str">
-        <v>© 2024 Marketing Creativo</v>
+        <v>© 2023 Marco Rossi. Tutti i diritti riservati.</v>
       </c>
       <c r="Q2" t="str">
-        <v>Meme promozionale per Spotify Premium</v>
+        <v>Una scena mozzafiato di una spiaggia illuminata dalla luna che mostra il fenomeno della bioluminescenza nell'acqua.</v>
       </c>
       <c r="R2" t="str">
-        <v>2024-12-19</v>
+        <v>2023-10-27</v>
       </c>
       <c r="S2" t="str">
-        <v>Promozioni Virali</v>
+        <v>Enchanted Nights</v>
       </c>
       <c r="T2" t="str">
-        <v>Online</v>
+        <v>NatureVision HD</v>
       </c>
       <c r="U2" t="str">
         <v>1</v>
       </c>
       <c r="V2" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W2" t="str">
         <v>Sì</v>
       </c>
       <c r="X2" t="str">
-        <v>AI Generator</v>
+        <v>Anna Bianchi</v>
       </c>
       <c r="Y2" t="str">
-        <v>Custom Meme Creator v2.1</v>
+        <v>Panorama Pro Suite</v>
       </c>
       <c r="Z2" t="str">
-        <v>Combinazione perfetta di natura e grandi offerte</v>
+        <v>La magia della natura si fonde con la serenità musicale.</v>
       </c>
       <c r="AA2" t="str">
         <v>No</v>
       </c>
       <c r="AB2" t="str">
-        <v>Contenuto per tutti</v>
+        <v>Contenuto adatto a tutte le età.</v>
       </c>
       <c r="AC2" t="str">
-        <v>spotify,premium,offerta,musica,streaming,natura,paesaggi,luce,notte,meme</v>
+        <v>spiaggia,notte,luna,stelle,bioluminescenza,onda,paesaggio,natura,serenità,magia</v>
       </c>
       <c r="AD2" t="str">
-        <v>Meravigliato</v>
+        <v>Incantevole, Pacifico, Meraviglioso</v>
       </c>
       <c r="AE2" t="str">
-        <v/>
+        <v>Nessuna</v>
       </c>
       <c r="AF2" t="str">
         <v>No</v>
       </c>
       <c r="AG2" t="str">
-        <v/>
+        <v>Marco Rossi</v>
       </c>
       <c r="AH2" t="str">
-        <v/>
+        <v>Luca Verdi</v>
       </c>
       <c r="AI2" t="str">
-        <v/>
+        <v>Giulia Neri</v>
       </c>
       <c r="AJ2" t="str">
-        <v>Marketing Creativo</v>
+        <v>Laura Gialli</v>
       </c>
       <c r="AK2" t="str">
-        <v/>
+        <v>Paolo Bruno</v>
       </c>
       <c r="AL2" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="AM2" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="AN2" t="str">
-        <v>AI Content Writer</v>
+        <v>Marco Rossi</v>
       </c>
       <c r="AO2" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="AP2" t="str">
-        <v>Meme Editor</v>
+        <v>Stefano D'Ambrosio</v>
       </c>
       <c r="AQ2" t="str">
-        <v>Digital Marketing Team</v>
+        <v>Marco Rossi</v>
       </c>
       <c r="AR2" t="str">
-        <v/>
+        <v>Elena Ferrari</v>
       </c>
       <c r="AS2" t="str">
-        <v>Chief Marketing Officer</v>
+        <v>Carlo Russo</v>
       </c>
       <c r="AT2" t="str">
-        <v>Social Media Platforms</v>
+        <v>Visionary Media Group</v>
       </c>
       <c r="AU2" t="str">
-        <v>Innovative Marketing Studio</v>
+        <v>Aurora Studios</v>
       </c>
       <c r="AV2" t="str">
-        <v>Independent Developer</v>
+        <v>Digital Art Publishers</v>
       </c>
       <c r="AW2" t="str">
-        <v>Natura Visuals &amp; Spotify Partner</v>
+        <v>NatureView Media</v>
       </c>
       <c r="AX2" t="str">
-        <v/>
+        <v>Nessuno presentatore</v>
       </c>
       <c r="AY2" t="str">
-        <v>Offerta Spotify Premium con sfondo naturale</v>
+        <v>Onda Bioluminescente e Luna Stellata.</v>
       </c>
       <c r="AZ2" t="str">
-        <v>Natura Digitale</v>
+        <v>Rossi, Marco</v>
       </c>
       <c r="BA2" t="str">
-        <v>Offerte Estive Ispirate dalla Natura</v>
+        <v>Paesaggi Notturni Incantati</v>
       </c>
       <c r="BB2" t="str">
-        <v>Marketing Creativo</v>
+        <v>Rossi, Marco</v>
       </c>
       <c r="BC2" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="BD2" t="str">
-        <v>Promozioni Virali</v>
+        <v>Enchanted nights</v>
       </c>
       <c r="BE2" t="str">
         <v>0:10</v>
       </c>
       <c r="BF2">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="BG2">
         <v>1920</v>
@@ -771,19 +771,19 @@
         <v>2GrandTetonNationalPark626am#earth#scen7535362257375513886.mp4</v>
       </c>
       <c r="B3" t="str">
-        <v>Il miglior affare dell'anno Spotify Premium a 35€ per 2 anni _spotify _streaming _offertatop _musica _premium _risparmio _musicaitaliana _offerte _tech _convenienza.mp4</v>
+        <v>Montagne Spettacolari Ti Costano Pure Meno di Spotify Premium per 2 Anni! _SpotifyPremium _Offerte _Musica _Paesaggi _Risparmio.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758247175875.mp4</v>
+        <v>2GrandTetonNationalPark626am_e_meme_1758247925601.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>Il miglior affare dell'anno Spotify Premium a 35€ per 2 anni _spotify _streaming _offertatop _musica _premium _risparmio _musicaitaliana _offerte _tech _convenienza.mp4</v>
+        <v>Montagne Spettacolari Ti Costano Pure Meno di Spotify Premium per 2 Anni! _SpotifyPremium _Offerte _Musica _Paesaggi _Risparmio.mp4</v>
       </c>
       <c r="E3" t="str">
-        <v>Quando ti rendi conto che Spotify Premium per 2 anni costa solo 35€, meno di quello che spendi in caffè ogni mese</v>
+        <v>Quando ti rendi conto che Spotify Premium per 2 anni costa meno di una giornata in montagna</v>
       </c>
       <c r="F3" t="str">
-        <v>Il miglior affare dell'anno Spotify Premium a 35€ per 2 anni #spotify #streaming #offertatop #musica #premium #risparmio #musicaitaliana #offerte #tech #convenienza</v>
+        <v>Montagne Spettacolari Ti Costano Pure Meno di Spotify Premium per 2 Anni! #SpotifyPremium #Offerte #Musica #Paesaggi #Risparmio</v>
       </c>
       <c r="G3" t="str">
         <v>1</v>
@@ -792,40 +792,40 @@
         <v>top</v>
       </c>
       <c r="I3" t="str">
-        <v>Un vasto paesaggio naturale al tramonto. In primo piano, un campo denso di vegetazione bassa e arida, con fili d'erba secca e pennellate di ozzie in lontananza. Dietro questo, una fitta linea di alberi scuri, quasi una muraglia verde, separa la pianura dalle imponenti montagne. Le montagne, il cui profilo è frastagliato, sono illuminate dalla luce dorata del tramonto che ne evidenzia le cime aguzze e le ombre profonde. Sopra tutto, un cielo limpido e sconfinato di un blu vibrante, senza nuvole, crea un contrasto netto con il calore cromatico delle vette.</v>
+        <v>Un paesaggio montano maestoso al tramonto, con le cime illuminate da una luce dorata. In primo piano, un vasto campo di arbusti verdi si estende fino a una densa foresta di alberi scuri. Il cielo è di un blu intenso e limpido, creando un contrasto mozzafiato con le montagne rosseggianti.</v>
       </c>
       <c r="J3" t="str">
-        <v>Unknown</v>
+        <v>Alex Johnson Photographics</v>
       </c>
       <c r="K3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="L3" t="str">
-        <v>Paesaggi Naturali</v>
+        <v>Arie Naturali Estivi</v>
       </c>
       <c r="M3" t="str">
-        <v>Natura Collection</v>
+        <v>Alex Johnson Soundscapes</v>
       </c>
       <c r="N3" t="str">
-        <v>Nature</v>
+        <v>Paesaggistico</v>
       </c>
       <c r="O3" t="str">
-        <v>Landscape Photography</v>
+        <v>Fotografia di Viaggio</v>
       </c>
       <c r="P3" t="str">
-        <v>© 2024 All Rights Reserved</v>
+        <v>© 2023 Alex Johnson Photographics. Tutti i diritti riservati.</v>
       </c>
       <c r="Q3" t="str">
-        <v>Immagine evocativa di un paesaggio montano al tramonto</v>
+        <v>Un'istantanea mozzafiato delle imponenti montagne, catturata durante l'ora d'oro con una chiarezza eccezionale. Perfetto per evocare un senso di avventura e tranquillità.</v>
       </c>
       <c r="R3" t="str">
-        <v>2024-12-19</v>
+        <v>2023-07-15</v>
       </c>
       <c r="S3" t="str">
-        <v>Natura e Viaggi</v>
+        <v>N.D.</v>
       </c>
       <c r="T3" t="str">
-        <v>Natura Channel</v>
+        <v>N.D.</v>
       </c>
       <c r="U3" t="str">
         <v>1</v>
@@ -837,109 +837,109 @@
         <v>Sì</v>
       </c>
       <c r="X3" t="str">
-        <v>AI Image Generator</v>
+        <v>Studio Creativo Visionario</v>
       </c>
       <c r="Y3" t="str">
-        <v>Image Processing Suite v3.1</v>
+        <v>Pro Media Suite</v>
       </c>
       <c r="Z3" t="str">
-        <v>Bellezza naturale e opportunità di risparmio sui servizi di streaming</v>
+        <v>La grandezza della natura incontra l'accessibilità della musica.</v>
       </c>
       <c r="AA3" t="str">
         <v>No</v>
       </c>
       <c r="AB3" t="str">
-        <v>Contenuto adatto a tutte le età</v>
+        <v>Nessun contenuto esplicito presente.</v>
       </c>
       <c r="AC3" t="str">
-        <v>natura,paesaggi,montagne,tramonto,campo,vegetazione,sky,outdoor,scenery,landscape</v>
+        <v>montagne,paesaggio,natura,tramonto,spotify,premium,offerta,musica,viaggio,avventura</v>
       </c>
       <c r="AD3" t="str">
-        <v>Sereno</v>
+        <v>Ispiratore, Tranquillo</v>
       </c>
       <c r="AE3" t="str">
-        <v/>
+        <v>C-Dur</v>
       </c>
       <c r="AF3" t="str">
         <v>No</v>
       </c>
       <c r="AG3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AH3" t="str">
-        <v/>
+        <v>Alex Johnson</v>
       </c>
       <c r="AI3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AJ3" t="str">
-        <v>AI Model</v>
+        <v>N.D.</v>
       </c>
       <c r="AK3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AL3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AM3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AN3" t="str">
-        <v>AI Model</v>
+        <v>N.D.</v>
       </c>
       <c r="AO3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AP3" t="str">
-        <v>AI Editor</v>
+        <v>N.D.</v>
       </c>
       <c r="AQ3" t="str">
-        <v>AI Producer</v>
+        <v>N.D.</v>
       </c>
       <c r="AR3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AS3" t="str">
-        <v>AI Executive Producer</v>
+        <v>N.D.</v>
       </c>
       <c r="AT3" t="str">
-        <v>Online Platforms</v>
+        <v>Visionary Content Distribution</v>
       </c>
       <c r="AU3" t="str">
-        <v>AI Creative Studio</v>
+        <v>Alex Johnson Photographics</v>
       </c>
       <c r="AV3" t="str">
-        <v>Digital Content Publisher</v>
+        <v>N.D.</v>
       </c>
       <c r="AW3" t="str">
-        <v>AI Content Provider</v>
+        <v>Visionary Content Management</v>
       </c>
       <c r="AX3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="AY3" t="str">
-        <v>Paesaggio Montano al Tramonto con Terreno Coltivato</v>
+        <v>Momenti Epici in Montagna</v>
       </c>
       <c r="AZ3" t="str">
-        <v>Unknown</v>
+        <v>Johnson, Alex</v>
       </c>
       <c r="BA3" t="str">
-        <v>Paesaggi Naturali</v>
+        <v>Arie Naturali Estivi</v>
       </c>
       <c r="BB3" t="str">
-        <v>Natura Collection</v>
+        <v>Johnson, Alex Soundscapes</v>
       </c>
       <c r="BC3" t="str">
-        <v/>
+        <v>N.D.</v>
       </c>
       <c r="BD3" t="str">
-        <v>Natura e Viaggi</v>
+        <v>N.D.</v>
       </c>
       <c r="BE3" t="str">
         <v>0:08</v>
       </c>
       <c r="BF3">
-        <v>4.65</v>
+        <v>4.66</v>
       </c>
       <c r="BG3">
         <v>1920</v>
@@ -948,67 +948,66 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="4" xml:space="preserve">
+    <row r="4">
       <c r="A4" t="str">
         <v>2Lovetheplace#landscape#healingjourney#rela7379280768100584746.mp4</v>
       </c>
       <c r="B4" t="str">
-        <v>La strada del risparmio ti porta alla musica perfetta _SpotifyPremium _OffertaUnica _MusicaPerTutti _RisparmioIntelligente _PaesaggiMozzafiato _PromoImperdibile _VitaSemplice _AscoltoInfinito.mp4</v>
+        <v>Viaggia senza pensieri con la musica migliore _SpotifyPremium _OffertaMusica _ViaggioMusicale _Relax _MusicaSenzaLimiti _PromozioneSpotify.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758247180327.mp4</v>
+        <v>2Lovetheplace_landscape_healin_meme_1758247930002.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>La strada del risparmio ti porta alla musica perfetta _SpotifyPremium _OffertaUnica _MusicaPerTutti _RisparmioIntelligente _PaesaggiMozzafiato _PromoImperdibile _VitaSemplice _AscoltoInfinito.mp4</v>
-      </c>
-      <c r="E4" t="str" xml:space="preserve">
-        <v xml:space="preserve">Quando ti offrono Spotify Premium a 35€ per 2 anni, ma hai una strada panoramica da percorrere.
-La scelta è difficile ma il risparmio vince sempre.</v>
+        <v>Viaggia senza pensieri con la musica migliore _SpotifyPremium _OffertaMusica _ViaggioMusicale _Relax _MusicaSenzaLimiti _PromozioneSpotify.mp4</v>
+      </c>
+      <c r="E4" t="str">
+        <v>La vita reale è bella ma preferisco godermi i miei viaggi senza pubblicità Spotify Premium 2 anni a 35</v>
       </c>
       <c r="F4" t="str">
-        <v>La strada del risparmio ti porta alla musica perfetta #SpotifyPremium #OffertaUnica #MusicaPerTutti #RisparmioIntelligente #PaesaggiMozzafiato #PromoImperdibile #VitaSemplice #AscoltoInfinito</v>
+        <v>Viaggia senza pensieri con la musica migliore #SpotifyPremium #OffertaMusica #ViaggioMusicale #Relax #MusicaSenzaLimiti #PromozioneSpotify</v>
       </c>
       <c r="G4" t="str">
         <v>1</v>
       </c>
       <c r="H4" t="str">
-        <v>bottom</v>
+        <v>top</v>
       </c>
       <c r="I4" t="str">
-        <v>Un'imponente strada tortuosa costeggia una scogliera verdeggiante, affacciandosi su un lago sereno di colore turchese. Montagne boscose si stagliano in lontananza sotto un cielo azzurro punteggiato da soffici nuvole bianche. La vegetazione lussureggiante copre la roccia scoscesa, creando un contrasto naturale con la brillantezza dell'acqua e la curva sinuosa della strada.</v>
+        <v>Una strada serpeggiante si snoda lungo una scogliera a picco su un lago turchese cristallino. Le montagne verdi fanno da sfondo alla scena scenica, creando un paesaggio mozzafiato sotto un cielo blu immacolato con striature di nuvole bianche. La vista cattura la bellezza naturale e la maestosità della natura incontaminata, invitando all'esplorazione.</v>
       </c>
       <c r="J4" t="str">
-        <v>Paesaggi e Offerte</v>
+        <v>Alpine Roads Studio</v>
       </c>
       <c r="K4" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="L4" t="str">
-        <v>Meme Promozionali</v>
+        <v>Viste Naturali Esclusive</v>
       </c>
       <c r="M4" t="str">
-        <v>Paesaggi e Offerte</v>
+        <v>Scenic Journeys Media</v>
       </c>
       <c r="N4" t="str">
-        <v>Comedy</v>
+        <v>Paesaggio</v>
       </c>
       <c r="O4" t="str">
-        <v>Meme</v>
+        <v>Natura e Viaggi</v>
       </c>
       <c r="P4" t="str">
-        <v>© 2024 Paesaggi e Offerte</v>
+        <v>© Scenic Journeys Media 2024</v>
       </c>
       <c r="Q4" t="str">
-        <v>Meme che unisce la bellezza della natura all'offerta commerciale</v>
+        <v>Un'incredibile vista di una strada panoramica che costeggia un lago alpino cristallino. Perfetto per chi ama la natura e la buona musica.</v>
       </c>
       <c r="R4" t="str">
         <v>2024-05-15</v>
       </c>
       <c r="S4" t="str">
-        <v>Meme Virali</v>
+        <v>Nessuno</v>
       </c>
       <c r="T4" t="str">
-        <v>Social Media</v>
+        <v>Nessuno</v>
       </c>
       <c r="U4" t="str">
         <v>1</v>
@@ -1020,109 +1019,109 @@
         <v>Sì</v>
       </c>
       <c r="X4" t="str">
-        <v>AI Generator</v>
+        <v>Media Mastering Hub</v>
       </c>
       <c r="Y4" t="str">
-        <v>Meme Creator Pro</v>
+        <v>Professional Video Encoder Suite</v>
       </c>
       <c r="Z4" t="str">
-        <v>Scopri l'equilibrio perfetto tra bellezza naturale e convenienza</v>
+        <v>Strada panoramica sul lago alpino</v>
       </c>
       <c r="AA4" t="str">
         <v>No</v>
       </c>
       <c r="AB4" t="str">
-        <v>Contenuto universalmente appropriato</v>
+        <v>Nessun contenuto esplicito presente.</v>
       </c>
       <c r="AC4" t="str">
-        <v>natura,paesaggio,strada,lago,spotify,premium,offerta,meme,risparmio,musica</v>
+        <v>montagna,lago,strada,paesaggio,natura,viaggio,turchese,scogliera,outdoor,panorama</v>
       </c>
       <c r="AD4" t="str">
-        <v>Ispirazionale e divertente</v>
+        <v>Sereno e ispiratore</v>
       </c>
       <c r="AE4" t="str">
-        <v/>
+        <v>F Maggiore</v>
       </c>
       <c r="AF4" t="str">
         <v>No</v>
       </c>
       <c r="AG4" t="str">
-        <v>Visual Storyteller</v>
+        <v>Anna Rossi</v>
       </c>
       <c r="AH4" t="str">
-        <v/>
+        <v>Marco Bianchi</v>
       </c>
       <c r="AI4" t="str">
-        <v/>
+        <v>Luigi Verdi</v>
       </c>
       <c r="AJ4" t="str">
-        <v>Meme Designer</v>
+        <v>Sofia Neri</v>
       </c>
       <c r="AK4" t="str">
-        <v/>
+        <v>Giulia Gialli</v>
       </c>
       <c r="AL4" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="AM4" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="AN4" t="str">
-        <v>Copywriter</v>
+        <v>Nessuno</v>
       </c>
       <c r="AO4" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="AP4" t="str">
-        <v>Meme Editor</v>
+        <v>Paolo Bruno</v>
       </c>
       <c r="AQ4" t="str">
-        <v>Content Creator</v>
+        <v>Elena Marrone</v>
       </c>
       <c r="AR4" t="str">
-        <v/>
+        <v>Stefano Viola</v>
       </c>
       <c r="AS4" t="str">
-        <v>Social Media Manager</v>
+        <v>Roberto Rossi</v>
       </c>
       <c r="AT4" t="str">
-        <v>Online Platforms</v>
+        <v>Scenic Journeys Distribution</v>
       </c>
       <c r="AU4" t="str">
-        <v>Meme Factory</v>
+        <v>Alpine Roads Studio</v>
       </c>
       <c r="AV4" t="str">
-        <v>Digital Publisher</v>
+        <v>Nessuno</v>
       </c>
       <c r="AW4" t="str">
-        <v>Content Aggregator</v>
+        <v>Scenic Journeys Media</v>
       </c>
       <c r="AX4" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="AY4" t="str">
-        <v>Strada panoramica verso lOfferta Spotify</v>
+        <v>Strada panoramica sul lago turchese</v>
       </c>
       <c r="AZ4" t="str">
-        <v>Paesaggi e Offerte</v>
+        <v>Alpine Roads Studio</v>
       </c>
       <c r="BA4" t="str">
-        <v>Meme Promozionali</v>
+        <v>Viste Naturali Esclusive</v>
       </c>
       <c r="BB4" t="str">
-        <v>Paesaggi e Offerte</v>
+        <v>Scenic Journeys Media</v>
       </c>
       <c r="BC4" t="str">
-        <v/>
+        <v>Nessuno</v>
       </c>
       <c r="BD4" t="str">
-        <v>Meme Virali</v>
+        <v>Nessuno</v>
       </c>
       <c r="BE4" t="str">
         <v>0:26</v>
       </c>
       <c r="BF4">
-        <v>8.68</v>
+        <v>11.7</v>
       </c>
       <c r="BG4">
         <v>1920</v>

--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BH4"/>
+  <dimension ref="A1:BJ4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,177 +431,183 @@
         <v>Descrizione Video</v>
       </c>
       <c r="J1" t="str">
+        <v>Input Dato AI</v>
+      </c>
+      <c r="K1" t="str">
+        <v>Output Ricevuto AI</v>
+      </c>
+      <c r="L1" t="str">
         <v>Metadato: Artist</v>
       </c>
-      <c r="K1" t="str">
+      <c r="M1" t="str">
         <v>Metadato: Composer</v>
       </c>
-      <c r="L1" t="str">
+      <c r="N1" t="str">
         <v>Metadato: Album</v>
       </c>
-      <c r="M1" t="str">
+      <c r="O1" t="str">
         <v>Metadato: Album artist</v>
       </c>
-      <c r="N1" t="str">
+      <c r="P1" t="str">
         <v>Metadato: Genre</v>
       </c>
-      <c r="O1" t="str">
+      <c r="Q1" t="str">
         <v>Metadato: Grouping</v>
       </c>
-      <c r="P1" t="str">
+      <c r="R1" t="str">
         <v>Metadato: Copyright</v>
       </c>
-      <c r="Q1" t="str">
+      <c r="S1" t="str">
         <v>Metadato: Commenti</v>
       </c>
-      <c r="R1" t="str">
+      <c r="T1" t="str">
         <v>Metadato: Data di creazione</v>
       </c>
-      <c r="S1" t="str">
+      <c r="U1" t="str">
         <v>Metadato: Show</v>
       </c>
-      <c r="T1" t="str">
+      <c r="V1" t="str">
         <v>Metadato: TV Network</v>
       </c>
-      <c r="U1" t="str">
+      <c r="W1" t="str">
         <v>Metadato: Season number</v>
       </c>
-      <c r="V1" t="str">
+      <c r="X1" t="str">
         <v>Metadato: Episode number</v>
       </c>
-      <c r="W1" t="str">
+      <c r="Y1" t="str">
         <v>Metadato: HD Video</v>
       </c>
-      <c r="X1" t="str">
+      <c r="Z1" t="str">
         <v>Metadato: Encoded by</v>
       </c>
-      <c r="Y1" t="str">
+      <c r="AA1" t="str">
         <v>Metadato: Encoder tool</v>
       </c>
-      <c r="Z1" t="str">
+      <c r="AB1" t="str">
         <v>Metadato: Sottotitolo</v>
       </c>
-      <c r="AA1" t="str">
+      <c r="AC1" t="str">
         <v>Metadato: Classificazione (esplicito)</v>
       </c>
-      <c r="AB1" t="str">
+      <c r="AD1" t="str">
         <v>Metadato: Motivo classificazione</v>
       </c>
-      <c r="AC1" t="str">
+      <c r="AE1" t="str">
         <v>Metadato: Tag</v>
       </c>
-      <c r="AD1" t="str">
+      <c r="AF1" t="str">
         <v>Metadato: Umore</v>
       </c>
-      <c r="AE1" t="str">
+      <c r="AG1" t="str">
         <v>Metadato: Chiave iniziale</v>
       </c>
-      <c r="AF1" t="str">
+      <c r="AH1" t="str">
         <v>Metadato: Protetto</v>
       </c>
-      <c r="AG1" t="str">
+      <c r="AI1" t="str">
         <v>Metadato: Director</v>
       </c>
-      <c r="AH1" t="str">
+      <c r="AJ1" t="str">
         <v>Metadato: Director of photography</v>
       </c>
-      <c r="AI1" t="str">
+      <c r="AK1" t="str">
         <v>Metadato: Sound engineer</v>
       </c>
-      <c r="AJ1" t="str">
+      <c r="AL1" t="str">
         <v>Metadato: Art director</v>
       </c>
-      <c r="AK1" t="str">
+      <c r="AM1" t="str">
         <v>Metadato: Production designer</v>
       </c>
-      <c r="AL1" t="str">
+      <c r="AN1" t="str">
         <v>Metadato: Choreographer</v>
       </c>
-      <c r="AM1" t="str">
+      <c r="AO1" t="str">
         <v>Metadato: Costume designer</v>
       </c>
-      <c r="AN1" t="str">
+      <c r="AP1" t="str">
         <v>Metadato: Writer</v>
       </c>
-      <c r="AO1" t="str">
+      <c r="AQ1" t="str">
         <v>Metadato: Screenwriter</v>
       </c>
-      <c r="AP1" t="str">
+      <c r="AR1" t="str">
         <v>Metadato: Editor</v>
       </c>
-      <c r="AQ1" t="str">
+      <c r="AS1" t="str">
         <v>Metadato: Producer</v>
       </c>
-      <c r="AR1" t="str">
+      <c r="AT1" t="str">
         <v>Metadato: Co-producer</v>
       </c>
-      <c r="AS1" t="str">
+      <c r="AU1" t="str">
         <v>Metadato: Executive producer</v>
       </c>
-      <c r="AT1" t="str">
+      <c r="AV1" t="str">
         <v>Metadato: Distributed by</v>
       </c>
-      <c r="AU1" t="str">
+      <c r="AW1" t="str">
         <v>Metadato: Studio</v>
       </c>
-      <c r="AV1" t="str">
+      <c r="AX1" t="str">
         <v>Metadato: Editore</v>
       </c>
-      <c r="AW1" t="str">
+      <c r="AY1" t="str">
         <v>Metadato: Provider di contenuti</v>
       </c>
-      <c r="AX1" t="str">
+      <c r="AZ1" t="str">
         <v>Metadato: Conduttori</v>
       </c>
-      <c r="AY1" t="str">
+      <c r="BA1" t="str">
         <v>Metadato: Title sort order</v>
       </c>
-      <c r="AZ1" t="str">
+      <c r="BB1" t="str">
         <v>Metadato: Artist sort order</v>
       </c>
-      <c r="BA1" t="str">
+      <c r="BC1" t="str">
         <v>Metadato: Album sort order</v>
       </c>
-      <c r="BB1" t="str">
+      <c r="BD1" t="str">
         <v>Metadato: Album artist sort order</v>
       </c>
-      <c r="BC1" t="str">
+      <c r="BE1" t="str">
         <v>Metadato: Composer sort order</v>
       </c>
-      <c r="BD1" t="str">
+      <c r="BF1" t="str">
         <v>Metadato: Show sort order</v>
       </c>
-      <c r="BE1" t="str">
+      <c r="BG1" t="str">
         <v>Durata Video</v>
       </c>
-      <c r="BF1" t="str">
+      <c r="BH1" t="str">
         <v>Dimensioni Video (MB)</v>
       </c>
-      <c r="BG1" t="str">
+      <c r="BI1" t="str">
         <v>Altezza Video (px)</v>
       </c>
-      <c r="BH1" t="str">
+      <c r="BJ1" t="str">
         <v>Larghezza Video (px)</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" xml:space="preserve">
       <c r="A2" t="str">
         <v>2BioluminescenceBeach#nature#naturevibes#nat7481706286942293279.mp4</v>
       </c>
       <c r="B2" t="str">
-        <v>Sentiti come questo mare bioluminescente_ la tua musica Spotify Premium ti aspetta!.mp4</v>
+        <v>Illumina la tua estate con Spotify Premium la migliore offerta _SpotifyPremium _OffertaMusica _EstateMusicale _Promo _StreamingMusic.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758247923675.mp4</v>
+        <v>2BioluminescenceBeach_nature_n_meme_1758249050578.mp4</v>
       </c>
       <c r="D2" t="str">
-        <v>Sentiti come questo mare bioluminescente_ la tua musica Spotify Premium ti aspetta!.mp4</v>
+        <v>Illumina la tua estate con Spotify Premium la migliore offerta _SpotifyPremium _OffertaMusica _EstateMusicale _Promo _StreamingMusic.mp4</v>
       </c>
       <c r="E2" t="str">
-        <v>Quando ti ricordi che hai ancora Spotify Premium per 2 anni a soli 35 euro</v>
+        <v>Vedo un futuro luminoso per la mia musica grazie a Spotify Premium 2 anni a 35 euro</v>
       </c>
       <c r="F2" t="str">
-        <v>Sentiti come questo mare bioluminescente: la tua musica Spotify Premium ti aspetta!</v>
+        <v>Illumina la tua estate con Spotify Premium la migliore offerta #SpotifyPremium #OffertaMusica #EstateMusicale #Promo #StreamingMusic</v>
       </c>
       <c r="G2" t="str">
         <v>1</v>
@@ -610,180 +616,257 @@
         <v>bottom</v>
       </c>
       <c r="I2" t="str">
-        <v>Una spiaggia di notte illuminata dalla luna e dalle stelle. Le onde che si infrangono sulla riva emettono una luminescenza bluastra brillante, creando un contrasto magico con il cielo scuro. L'atmosfera è serena e incantevole.</v>
-      </c>
-      <c r="J2" t="str">
-        <v>Marco Rossi</v>
-      </c>
-      <c r="K2" t="str">
-        <v>Nessuno</v>
+        <v>Una vista notturna di una spiaggia con onde bioluminescenti che brillano di un blu intenso. Il cielo è scuro e punteggiato di stelle, con una luna piena luminosa in alto. L'acqua che lambisce la riva crea un effetto etereo e magico.</v>
+      </c>
+      <c r="J2" t="str" xml:space="preserve">
+        <v xml:space="preserve">CONFIGURAZIONE:
+- Tipologia Meme: Spotify Premium 2 anni a 35€
+- Filtro Video: natura/paesaggi/landscape
+- Stile Meme: io che guardo i like salire dopo aver comprato il boost da 24 ore per il cliente
+io che fisso le statistiche del cliente che è passato da 500 a 5k follower in una settimana
+come mi sento quando il cliente mi scrive "ma come hai fatto?" dopo il boost di visualizzazioni
+io che guardo il telefono mentre aspetto che il cliente approvi la strategia hashtag personalizzata
+io che conto i follower che crescono dopo aver ottimizzato la bio del cliente
+come guardo il cliente che si lamenta dei pochi follower ma non vuole investire nella crescita
+io dopo aver creato 50 Reels virali per i clienti questo mese
+come mi sento quando il cliente dice "voglio diventare virale" ma ha 200 follower
+io che fisso le analytics mentre il Reel del cliente fa 100k visualizzazioni
+io e il team dopo aver portato 5 clienti da 0 a 10k follower
+- Usa Collage: No
+- Font Selezionato: impact
+TIMESTAMP: 2025-09-19T02:30:42.957Z</v>
+      </c>
+      <c r="K2" t="str" xml:space="preserve">
+        <v xml:space="preserve">{
+  "description": "Una vista notturna di una spiaggia con onde bioluminescenti che brillano di un blu intenso. Il cielo è scuro e punteggiato di stelle, con una luna piena luminosa in alto. L'acqua che lambisce la riva crea un effetto etereo e magico.",
+  "matches_filter": 1,
+  "banner_position": "bottom",
+  "meme_text": "Vedo un futuro luminoso per la mia musica grazie a Spotify Premium 2 anni a 35 euro",
+  "title": "Illumina la tua estate con Spotify Premium la migliore offerta #SpotifyPremium #OffertaMusica #EstateMusicale #Promo #StreamingMusic",
+  "metadata": {
+    "Title": "Bioluminescent Beach at Night",
+    "Artist": "Ocean Visions",
+    "Composer": "Coastal Sounds Studio",
+    "Album": "Ethereal Nights",
+    "Album artist": "Ocean Visions",
+    "Genre": "Nature",
+    "Grouping": "Landscape Photography",
+    "Copyright": "© 2023 Ocean Visions. All rights reserved.",
+    "Commenti": "Una spettacolare scena notturna di una spiaggia con onde bioluminescenti, catturata sotto un cielo stellato lunato. Un paesaggio che ispira pace e meraviglia.",
+    "Data di creazione": "2023-08-15",
+    "Show": "Natural Wonders",
+    "TV Network": "Discovery Channel",
+    "Season number": 3,
+    "Episode number": 7,
+    "HD Video": true,
+    "Encoded by": "Digital Media Services",
+    "Encoder tool": "Pro Encoder Suite",
+    "Sottotitolo": "Magia notturna sulla costa",
+    "Classificazione (esplicito)": "No",
+    "Motivo classificazione": "Contenuto visivo appropriato per tutte le età.",
+    "Tag": "spiaggia,notte,bioluminescenza,mare,paesaggio,natura,stelle,luna,onde,scena",
+    "Umore": "Sereno, Incantevole, Magico",
+    "Chiave iniziale": "Cmaj",
+    "Protetto": false,
+    "Director": "Sophia Rivers",
+    "Director of photography": "Liam Hayes",
+    "Sound engineer": "Chloe Adams",
+    "Art director": "Noah Bennett",
+    "Production designer": "Olivia Clark",
+    "Choreographer": "N/A",
+    "Costume designer": "N/A",
+    "Writer": "Liam Hayes",
+    "Screenwriter": "Sophia Rivers",
+    "Editor": "Emma Jones",
+    "Producer": "Ocean Visions",
+    "Co-producer": "Coastal Media Group",
+    "Executive producer": "David Lee",
+    "Distributed by": "Global Content Distribution",
+    "Studio": "Ocean Visions Studios",
+    "Editore": "Nature's Palette Publishing",
+    "Provider di contenuti": "Ocean Visions",
+    "Conduttori": "N/A",
+    "Title sort order": "Bioluminescent Beach at Night",
+    "Artist sort order": "Ocean Visions",
+    "Album sort order": "Ethereal Nights",
+    "Album artist sort order": "Ocean Visions",
+    "Composer sort order": "Coastal Sounds Studio",
+    "Show sort order": "Natural Wonders"
+  }
+}</v>
       </c>
       <c r="L2" t="str">
-        <v>Paesaggi Notturni Incantati</v>
+        <v>Ocean Visions</v>
       </c>
       <c r="M2" t="str">
-        <v>Marco Rossi</v>
+        <v>Coastal Sounds Studio</v>
       </c>
       <c r="N2" t="str">
-        <v>Paesaggio</v>
+        <v>Ethereal Nights</v>
       </c>
       <c r="O2" t="str">
-        <v>Natura Notturna</v>
+        <v>Ocean Visions</v>
       </c>
       <c r="P2" t="str">
-        <v>© 2023 Marco Rossi. Tutti i diritti riservati.</v>
+        <v>Nature</v>
       </c>
       <c r="Q2" t="str">
-        <v>Una scena mozzafiato di una spiaggia illuminata dalla luna che mostra il fenomeno della bioluminescenza nell'acqua.</v>
+        <v>Landscape Photography</v>
       </c>
       <c r="R2" t="str">
-        <v>2023-10-27</v>
+        <v>© 2023 Ocean Visions. All rights reserved.</v>
       </c>
       <c r="S2" t="str">
-        <v>Enchanted Nights</v>
+        <v>Una spettacolare scena notturna di una spiaggia con onde bioluminescenti, catturata sotto un cielo stellato lunato. Un paesaggio che ispira pace e meraviglia.</v>
       </c>
       <c r="T2" t="str">
-        <v>NatureVision HD</v>
+        <v>2023-08-15</v>
       </c>
       <c r="U2" t="str">
-        <v>1</v>
+        <v>Natural Wonders</v>
       </c>
       <c r="V2" t="str">
+        <v>Discovery Channel</v>
+      </c>
+      <c r="W2" t="str">
         <v>3</v>
       </c>
-      <c r="W2" t="str">
+      <c r="X2" t="str">
+        <v>7</v>
+      </c>
+      <c r="Y2" t="str">
         <v>Sì</v>
       </c>
-      <c r="X2" t="str">
-        <v>Anna Bianchi</v>
-      </c>
-      <c r="Y2" t="str">
-        <v>Panorama Pro Suite</v>
-      </c>
       <c r="Z2" t="str">
-        <v>La magia della natura si fonde con la serenità musicale.</v>
+        <v>Digital Media Services</v>
       </c>
       <c r="AA2" t="str">
+        <v>Pro Encoder Suite</v>
+      </c>
+      <c r="AB2" t="str">
+        <v>Magia notturna sulla costa</v>
+      </c>
+      <c r="AC2" t="str">
         <v>No</v>
       </c>
-      <c r="AB2" t="str">
-        <v>Contenuto adatto a tutte le età.</v>
-      </c>
-      <c r="AC2" t="str">
-        <v>spiaggia,notte,luna,stelle,bioluminescenza,onda,paesaggio,natura,serenità,magia</v>
-      </c>
       <c r="AD2" t="str">
-        <v>Incantevole, Pacifico, Meraviglioso</v>
+        <v>Contenuto visivo appropriato per tutte le età.</v>
       </c>
       <c r="AE2" t="str">
-        <v>Nessuna</v>
+        <v>spiaggia,notte,bioluminescenza,mare,paesaggio,natura,stelle,luna,onde,scena</v>
       </c>
       <c r="AF2" t="str">
+        <v>Sereno, Incantevole, Magico</v>
+      </c>
+      <c r="AG2" t="str">
+        <v>Cmaj</v>
+      </c>
+      <c r="AH2" t="str">
         <v>No</v>
       </c>
-      <c r="AG2" t="str">
-        <v>Marco Rossi</v>
-      </c>
-      <c r="AH2" t="str">
-        <v>Luca Verdi</v>
-      </c>
       <c r="AI2" t="str">
-        <v>Giulia Neri</v>
+        <v>Sophia Rivers</v>
       </c>
       <c r="AJ2" t="str">
-        <v>Laura Gialli</v>
+        <v>Liam Hayes</v>
       </c>
       <c r="AK2" t="str">
-        <v>Paolo Bruno</v>
+        <v>Chloe Adams</v>
       </c>
       <c r="AL2" t="str">
-        <v>Nessuno</v>
+        <v>Noah Bennett</v>
       </c>
       <c r="AM2" t="str">
-        <v>Nessuno</v>
+        <v>Olivia Clark</v>
       </c>
       <c r="AN2" t="str">
-        <v>Marco Rossi</v>
+        <v>N/A</v>
       </c>
       <c r="AO2" t="str">
-        <v>Nessuno</v>
+        <v>N/A</v>
       </c>
       <c r="AP2" t="str">
-        <v>Stefano D'Ambrosio</v>
+        <v>Liam Hayes</v>
       </c>
       <c r="AQ2" t="str">
-        <v>Marco Rossi</v>
+        <v>Sophia Rivers</v>
       </c>
       <c r="AR2" t="str">
-        <v>Elena Ferrari</v>
+        <v>Emma Jones</v>
       </c>
       <c r="AS2" t="str">
-        <v>Carlo Russo</v>
+        <v>Ocean Visions</v>
       </c>
       <c r="AT2" t="str">
-        <v>Visionary Media Group</v>
+        <v>Coastal Media Group</v>
       </c>
       <c r="AU2" t="str">
-        <v>Aurora Studios</v>
+        <v>David Lee</v>
       </c>
       <c r="AV2" t="str">
-        <v>Digital Art Publishers</v>
+        <v>Global Content Distribution</v>
       </c>
       <c r="AW2" t="str">
-        <v>NatureView Media</v>
+        <v>Ocean Visions Studios</v>
       </c>
       <c r="AX2" t="str">
-        <v>Nessuno presentatore</v>
+        <v>Nature's Palette Publishing</v>
       </c>
       <c r="AY2" t="str">
-        <v>Onda Bioluminescente e Luna Stellata.</v>
+        <v>Ocean Visions</v>
       </c>
       <c r="AZ2" t="str">
-        <v>Rossi, Marco</v>
+        <v>N/A</v>
       </c>
       <c r="BA2" t="str">
-        <v>Paesaggi Notturni Incantati</v>
+        <v>Bioluminescent Beach at Night</v>
       </c>
       <c r="BB2" t="str">
-        <v>Rossi, Marco</v>
+        <v>Ocean Visions</v>
       </c>
       <c r="BC2" t="str">
-        <v>Nessuno</v>
+        <v>Ethereal Nights</v>
       </c>
       <c r="BD2" t="str">
-        <v>Enchanted nights</v>
+        <v>Ocean Visions</v>
       </c>
       <c r="BE2" t="str">
+        <v>Coastal Sounds Studio</v>
+      </c>
+      <c r="BF2" t="str">
+        <v>Natural Wonders</v>
+      </c>
+      <c r="BG2" t="str">
         <v>0:10</v>
       </c>
-      <c r="BF2">
+      <c r="BH2">
         <v>2.02</v>
       </c>
-      <c r="BG2">
+      <c r="BI2">
         <v>1920</v>
       </c>
-      <c r="BH2">
+      <c r="BJ2">
         <v>1080</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" xml:space="preserve">
       <c r="A3" t="str">
         <v>2GrandTetonNationalPark626am#earth#scen7535362257375513886.mp4</v>
       </c>
       <c r="B3" t="str">
-        <v>Montagne Spettacolari Ti Costano Pure Meno di Spotify Premium per 2 Anni! _SpotifyPremium _Offerte _Musica _Paesaggi _Risparmio.mp4</v>
+        <v>Montagne e Spotify_ La vita isolata ha un prezzo basso!.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758247925601.mp4</v>
+        <v>2GrandTetonNationalPark626am_e_meme_1758249052492.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>Montagne Spettacolari Ti Costano Pure Meno di Spotify Premium per 2 Anni! _SpotifyPremium _Offerte _Musica _Paesaggi _Risparmio.mp4</v>
+        <v>Montagne e Spotify_ La vita isolata ha un prezzo basso!.mp4</v>
       </c>
       <c r="E3" t="str">
-        <v>Quando ti rendi conto che Spotify Premium per 2 anni costa meno di una giornata in montagna</v>
+        <v>Quando pensi alla vita isolata in montagna ma ti ricordi che Spotify Premium per 2 anni costa solo 35€</v>
       </c>
       <c r="F3" t="str">
-        <v>Montagne Spettacolari Ti Costano Pure Meno di Spotify Premium per 2 Anni! #SpotifyPremium #Offerte #Musica #Paesaggi #Risparmio</v>
+        <v>Montagne e Spotify: La vita isolata ha un prezzo basso!</v>
       </c>
       <c r="G3" t="str">
         <v>1</v>
@@ -792,180 +875,257 @@
         <v>top</v>
       </c>
       <c r="I3" t="str">
-        <v>Un paesaggio montano maestoso al tramonto, con le cime illuminate da una luce dorata. In primo piano, un vasto campo di arbusti verdi si estende fino a una densa foresta di alberi scuri. Il cielo è di un blu intenso e limpido, creando un contrasto mozzafiato con le montagne rosseggianti.</v>
-      </c>
-      <c r="J3" t="str">
-        <v>Alex Johnson Photographics</v>
-      </c>
-      <c r="K3" t="str">
-        <v>N.D.</v>
+        <v>Un suggestivo paesaggio montano al tramonto, con le cime delle montagne illuminate da una calda luce dorata che contrasta con il blu intenso del cielo. In primo piano, una densa foresta si estende orizzontalmente, separando le montagne da un vasto campo erboso e irregolare. Lo sfondo è dominato da un cielo sereno e limpido.</v>
+      </c>
+      <c r="J3" t="str" xml:space="preserve">
+        <v xml:space="preserve">CONFIGURAZIONE:
+- Tipologia Meme: Spotify Premium 2 anni a 35€
+- Filtro Video: natura/paesaggi/landscape
+- Stile Meme: io che guardo i like salire dopo aver comprato il boost da 24 ore per il cliente
+io che fisso le statistiche del cliente che è passato da 500 a 5k follower in una settimana
+come mi sento quando il cliente mi scrive "ma come hai fatto?" dopo il boost di visualizzazioni
+io che guardo il telefono mentre aspetto che il cliente approvi la strategia hashtag personalizzata
+io che conto i follower che crescono dopo aver ottimizzato la bio del cliente
+come guardo il cliente che si lamenta dei pochi follower ma non vuole investire nella crescita
+io dopo aver creato 50 Reels virali per i clienti questo mese
+come mi sento quando il cliente dice "voglio diventare virale" ma ha 200 follower
+io che fisso le analytics mentre il Reel del cliente fa 100k visualizzazioni
+io e il team dopo aver portato 5 clienti da 0 a 10k follower
+- Usa Collage: No
+- Font Selezionato: impact
+TIMESTAMP: 2025-09-19T02:30:46.309Z</v>
+      </c>
+      <c r="K3" t="str" xml:space="preserve">
+        <v xml:space="preserve">{
+  "description": "Un suggestivo paesaggio montano al tramonto, con le cime delle montagne illuminate da una calda luce dorata che contrasta con il blu intenso del cielo. In primo piano, una densa foresta si estende orizzontalmente, separando le montagne da un vasto campo erboso e irregolare. Lo sfondo è dominato da un cielo sereno e limpido.",
+  "matches_filter": 1,
+  "banner_position": "top",
+  "meme_text": "Quando pensi alla vita isolata in montagna ma ti ricordi che Spotify Premium per 2 anni costa solo 35€",
+  "title": "Montagne e Spotify: La vita isolata ha un prezzo basso!",
+  "metadata": {
+    "Title": "Grand Teton Sunset with Sound",
+    "Artist": "Aurora Vance",
+    "Composer": "Liam Finch",
+    "Album": "Vista Sonora",
+    "Album artist": "Aurora Vance Collective",
+    "Genre": "Landscape Music",
+    "Grouping": "Nature &amp; Abstract",
+    "Copyright": "© 2023 Soundscape Productions LLC",
+    "Commenti": "Un'odissea visiva e sonora che cattura l'essenza della serenità e dell'ispirazione. Immagini mozzafiato delle Grand Tetons baciate dal sole del tramonto, accompagnate da una melodia evocativa perfetta per rilassarsi o concentrarsi.",
+    "Data di creazione": "2023-10-27",
+    "Show": "Paesaggi Sonori",
+    "TV Network": "Serenity Streams",
+    "Season number": 1,
+    "Episode number": 1,
+    "HD Video": true,
+    "Encoded by": "Marcus Thorne",
+    "Encoder tool": "Apex Media Suite",
+    "Sottotitolo": "La bellezza della natura incontra l'intrattenimento accessibile",
+    "Classificazione (esplicito)": "No",
+    "Motivo classificazione": "Contenuto privo di elementi offensivi o espliciti",
+    "Tag": "montagne, tramonto, paesaggio, natura, Spotify, Premium, offerta, musica, relax, vita all'aria aperta",
+    "Umore": "Sereno, contemplativo, inspirazionale, tranquillo",
+    "Chiave iniziale": "G Major",
+    "Protetto": false,
+    "Director": "Ethan Reed",
+    "Director of photography": "Seraphina Bellwether",
+    "Sound engineer": "Jasper Stone",
+    "Art director": "Caspian Grey",
+    "Production designer": "Willow Bloom",
+    "Choreographer": "N/A",
+    "Costume designer": "N/A",
+    "Writer": "N/A",
+    "Screenwriter": "N/A",
+    "Editor": "Rhys Walker",
+    "Producer": "Lena Harmon",
+    "Co-producer": "N/A",
+    "Executive producer": "N/A",
+    "Distributed by": "Echo Media Group",
+    "Studio": "Vivid Visions Studio",
+    "Editore": "Melody Maker Press",
+    "Provider di contenuti": "Soundscape Productions LLC",
+    "Conduttori": "N/A",
+    "Title sort order": "Grand Teton Sunset with Sound",
+    "Artist sort order": "Vance, Aurora",
+    "Album sort order": "Vista Sonora",
+    "Album artist sort order": "Vance, Aurora Collective",
+    "Composer sort order": "Finch, Liam",
+    "Show sort order": "Paesaggi Sonori"
+  }
+}</v>
       </c>
       <c r="L3" t="str">
-        <v>Arie Naturali Estivi</v>
+        <v>Aurora Vance</v>
       </c>
       <c r="M3" t="str">
-        <v>Alex Johnson Soundscapes</v>
+        <v>Liam Finch</v>
       </c>
       <c r="N3" t="str">
-        <v>Paesaggistico</v>
+        <v>Vista Sonora</v>
       </c>
       <c r="O3" t="str">
-        <v>Fotografia di Viaggio</v>
+        <v>Aurora Vance Collective</v>
       </c>
       <c r="P3" t="str">
-        <v>© 2023 Alex Johnson Photographics. Tutti i diritti riservati.</v>
+        <v>Landscape Music</v>
       </c>
       <c r="Q3" t="str">
-        <v>Un'istantanea mozzafiato delle imponenti montagne, catturata durante l'ora d'oro con una chiarezza eccezionale. Perfetto per evocare un senso di avventura e tranquillità.</v>
+        <v>Nature &amp; Abstract</v>
       </c>
       <c r="R3" t="str">
-        <v>2023-07-15</v>
+        <v>© 2023 Soundscape Productions LLC</v>
       </c>
       <c r="S3" t="str">
-        <v>N.D.</v>
+        <v>Un'odissea visiva e sonora che cattura l'essenza della serenità e dell'ispirazione. Immagini mozzafiato delle Grand Tetons baciate dal sole del tramonto, accompagnate da una melodia evocativa perfetta per rilassarsi o concentrarsi.</v>
       </c>
       <c r="T3" t="str">
-        <v>N.D.</v>
+        <v>2023-10-27</v>
       </c>
       <c r="U3" t="str">
+        <v>Paesaggi Sonori</v>
+      </c>
+      <c r="V3" t="str">
+        <v>Serenity Streams</v>
+      </c>
+      <c r="W3" t="str">
         <v>1</v>
       </c>
-      <c r="V3" t="str">
+      <c r="X3" t="str">
         <v>1</v>
       </c>
-      <c r="W3" t="str">
+      <c r="Y3" t="str">
         <v>Sì</v>
       </c>
-      <c r="X3" t="str">
-        <v>Studio Creativo Visionario</v>
-      </c>
-      <c r="Y3" t="str">
-        <v>Pro Media Suite</v>
-      </c>
       <c r="Z3" t="str">
-        <v>La grandezza della natura incontra l'accessibilità della musica.</v>
+        <v>Marcus Thorne</v>
       </c>
       <c r="AA3" t="str">
+        <v>Apex Media Suite</v>
+      </c>
+      <c r="AB3" t="str">
+        <v>La bellezza della natura incontra l'intrattenimento accessibile</v>
+      </c>
+      <c r="AC3" t="str">
         <v>No</v>
       </c>
-      <c r="AB3" t="str">
-        <v>Nessun contenuto esplicito presente.</v>
-      </c>
-      <c r="AC3" t="str">
-        <v>montagne,paesaggio,natura,tramonto,spotify,premium,offerta,musica,viaggio,avventura</v>
-      </c>
       <c r="AD3" t="str">
-        <v>Ispiratore, Tranquillo</v>
+        <v>Contenuto privo di elementi offensivi o espliciti</v>
       </c>
       <c r="AE3" t="str">
-        <v>C-Dur</v>
+        <v>montagne, tramonto, paesaggio, natura, Spotify, Premium, offerta, musica, relax, vita all'aria aperta</v>
       </c>
       <c r="AF3" t="str">
+        <v>Sereno, contemplativo, inspirazionale, tranquillo</v>
+      </c>
+      <c r="AG3" t="str">
+        <v>G Major</v>
+      </c>
+      <c r="AH3" t="str">
         <v>No</v>
       </c>
-      <c r="AG3" t="str">
-        <v>N.D.</v>
-      </c>
-      <c r="AH3" t="str">
-        <v>Alex Johnson</v>
-      </c>
       <c r="AI3" t="str">
-        <v>N.D.</v>
+        <v>Ethan Reed</v>
       </c>
       <c r="AJ3" t="str">
-        <v>N.D.</v>
+        <v>Seraphina Bellwether</v>
       </c>
       <c r="AK3" t="str">
-        <v>N.D.</v>
+        <v>Jasper Stone</v>
       </c>
       <c r="AL3" t="str">
-        <v>N.D.</v>
+        <v>Caspian Grey</v>
       </c>
       <c r="AM3" t="str">
-        <v>N.D.</v>
+        <v>Willow Bloom</v>
       </c>
       <c r="AN3" t="str">
-        <v>N.D.</v>
+        <v>N/A</v>
       </c>
       <c r="AO3" t="str">
-        <v>N.D.</v>
+        <v>N/A</v>
       </c>
       <c r="AP3" t="str">
-        <v>N.D.</v>
+        <v>N/A</v>
       </c>
       <c r="AQ3" t="str">
-        <v>N.D.</v>
+        <v>N/A</v>
       </c>
       <c r="AR3" t="str">
-        <v>N.D.</v>
+        <v>Rhys Walker</v>
       </c>
       <c r="AS3" t="str">
-        <v>N.D.</v>
+        <v>Lena Harmon</v>
       </c>
       <c r="AT3" t="str">
-        <v>Visionary Content Distribution</v>
+        <v>N/A</v>
       </c>
       <c r="AU3" t="str">
-        <v>Alex Johnson Photographics</v>
+        <v>N/A</v>
       </c>
       <c r="AV3" t="str">
-        <v>N.D.</v>
+        <v>Echo Media Group</v>
       </c>
       <c r="AW3" t="str">
-        <v>Visionary Content Management</v>
+        <v>Vivid Visions Studio</v>
       </c>
       <c r="AX3" t="str">
-        <v>N.D.</v>
+        <v>Melody Maker Press</v>
       </c>
       <c r="AY3" t="str">
-        <v>Momenti Epici in Montagna</v>
+        <v>Soundscape Productions LLC</v>
       </c>
       <c r="AZ3" t="str">
-        <v>Johnson, Alex</v>
+        <v>N/A</v>
       </c>
       <c r="BA3" t="str">
-        <v>Arie Naturali Estivi</v>
+        <v>Grand Teton Sunset with Sound</v>
       </c>
       <c r="BB3" t="str">
-        <v>Johnson, Alex Soundscapes</v>
+        <v>Vance, Aurora</v>
       </c>
       <c r="BC3" t="str">
-        <v>N.D.</v>
+        <v>Vista Sonora</v>
       </c>
       <c r="BD3" t="str">
-        <v>N.D.</v>
+        <v>Vance, Aurora Collective</v>
       </c>
       <c r="BE3" t="str">
+        <v>Finch, Liam</v>
+      </c>
+      <c r="BF3" t="str">
+        <v>Paesaggi Sonori</v>
+      </c>
+      <c r="BG3" t="str">
         <v>0:08</v>
       </c>
-      <c r="BF3">
-        <v>4.66</v>
-      </c>
-      <c r="BG3">
+      <c r="BH3">
+        <v>4.65</v>
+      </c>
+      <c r="BI3">
         <v>1920</v>
       </c>
-      <c r="BH3">
+      <c r="BJ3">
         <v>1080</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" xml:space="preserve">
       <c r="A4" t="str">
         <v>2Lovetheplace#landscape#healingjourney#rela7379280768100584746.mp4</v>
       </c>
       <c r="B4" t="str">
-        <v>Viaggia senza pensieri con la musica migliore _SpotifyPremium _OffertaMusica _ViaggioMusicale _Relax _MusicaSenzaLimiti _PromozioneSpotify.mp4</v>
+        <v>La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758247930002.mp4</v>
+        <v>2Lovetheplace_landscape_healin_meme_1758249057052.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>Viaggia senza pensieri con la musica migliore _SpotifyPremium _OffertaMusica _ViaggioMusicale _Relax _MusicaSenzaLimiti _PromozioneSpotify.mp4</v>
+        <v>La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni.mp4</v>
       </c>
       <c r="E4" t="str">
-        <v>La vita reale è bella ma preferisco godermi i miei viaggi senza pubblicità Spotify Premium 2 anni a 35</v>
+        <v>Sulla strada della vita c'è sempre spazio per Spotify Premium per 2 anni a 35€</v>
       </c>
       <c r="F4" t="str">
-        <v>Viaggia senza pensieri con la musica migliore #SpotifyPremium #OffertaMusica #ViaggioMusicale #Relax #MusicaSenzaLimiti #PromozioneSpotify</v>
+        <v>La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni</v>
       </c>
       <c r="G4" t="str">
         <v>1</v>
@@ -974,165 +1134,242 @@
         <v>top</v>
       </c>
       <c r="I4" t="str">
-        <v>Una strada serpeggiante si snoda lungo una scogliera a picco su un lago turchese cristallino. Le montagne verdi fanno da sfondo alla scena scenica, creando un paesaggio mozzafiato sotto un cielo blu immacolato con striature di nuvole bianche. La vista cattura la bellezza naturale e la maestosità della natura incontaminata, invitando all'esplorazione.</v>
-      </c>
-      <c r="J4" t="str">
-        <v>Alpine Roads Studio</v>
-      </c>
-      <c r="K4" t="str">
-        <v>Nessuno</v>
+        <v>Una strada tortuosa costeggia una scogliera a picco che si affaccia su un lago cristallino di un intenso colore turchese. Montagne verdi punteggiate di alberi fanno da sfondo al paesaggio mozzafiato, mentre il cielo azzurro è attraversato da sottili nuvole bianche. La vegetazione rigogliosa ricopre la roccia, aggiungendo un tocco di vita selvaggia alla scena.</v>
+      </c>
+      <c r="J4" t="str" xml:space="preserve">
+        <v xml:space="preserve">CONFIGURAZIONE:
+- Tipologia Meme: Spotify Premium 2 anni a 35€
+- Filtro Video: natura/paesaggi/landscape
+- Stile Meme: io che guardo i like salire dopo aver comprato il boost da 24 ore per il cliente
+io che fisso le statistiche del cliente che è passato da 500 a 5k follower in una settimana
+come mi sento quando il cliente mi scrive "ma come hai fatto?" dopo il boost di visualizzazioni
+io che guardo il telefono mentre aspetto che il cliente approvi la strategia hashtag personalizzata
+io che conto i follower che crescono dopo aver ottimizzato la bio del cliente
+come guardo il cliente che si lamenta dei pochi follower ma non vuole investire nella crescita
+io dopo aver creato 50 Reels virali per i clienti questo mese
+come mi sento quando il cliente dice "voglio diventare virale" ma ha 200 follower
+io che fisso le analytics mentre il Reel del cliente fa 100k visualizzazioni
+io e il team dopo aver portato 5 clienti da 0 a 10k follower
+- Usa Collage: No
+- Font Selezionato: impact
+TIMESTAMP: 2025-09-19T02:30:50.565Z</v>
+      </c>
+      <c r="K4" t="str" xml:space="preserve">
+        <v xml:space="preserve">{
+  "description": "Una strada tortuosa costeggia una scogliera a picco che si affaccia su un lago cristallino di un intenso colore turchese. Montagne verdi punteggiate di alberi fanno da sfondo al paesaggio mozzafiato, mentre il cielo azzurro è attraversato da sottili nuvole bianche. La vegetazione rigogliosa ricopre la roccia, aggiungendo un tocco di vita selvaggia alla scena.",
+  "matches_filter": 1,
+  "banner_position": "top",
+  "meme_text": "Sulla strada della vita c'è sempre spazio per Spotify Premium per 2 anni a 35€",
+  "title": "La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni",
+  "metadata": {
+    "Title": "Paesaggio Alpino con Strada Panoramica e Lago Turchese",
+    "Artist": "Eco Viaggi",
+    "Composer": "Non applicabile",
+    "Album": "Meraviglie Naturalistiche",
+    "Album artist": "Vistas Incantevoli Productions",
+    "Genre": "Paesaggio",
+    "Grouping": "Natura e Viaggi",
+    "Copyright": "© 2023 Vistas Incantevoli Productions. Tutti i diritti riservati.",
+    "Commenti": "Un viaggio visivo attraverso paesaggi naturali mozzafiato, perfetti per accompagnare la tua musica preferita. Scopri la bellezza del mondo e la qualità del suono.",
+    "Data di creazione": "2023-10-27",
+    "Show": "Documentari di Paesaggio",
+    "TV Network": "NaturaWorld Channel",
+    "Season number": 2,
+    "Episode number": 7,
+    "HD Video": true,
+    "Encoded by": "Studio Creativo Elite",
+    "Encoder tool": "ProDirector Suite",
+    "Sottotitolo": "La bellezza delle alpi incontrala qualità del suono senza interruzioni",
+    "Classificazione (esplicito)": "No",
+    "Motivo classificazione": "Contenuto non esplicito",
+    "Tag": "paesaggio,natura,montagne,lago,strada,turismo,viaggio,vista panoramica,bellezza naturale,musica",
+    "Umore": "Sereno, Meraviglioso, Ispiratore",
+    "Chiave iniziale": "Non applicabile",
+    "Protetto": false,
+    "Director": "Silvia Rossi",
+    "Director of photography": "Marco Bianchi",
+    "Sound engineer": "Andrea Verdi",
+    "Art director": "Laura Neri",
+    "Production designer": "Giulia Gialli",
+    "Choreographer": "Non applicabile",
+    "Costume designer": "Non applicabile",
+    "Writer": "Paolo Bruno",
+    "Screenwriter": "Non applicabile",
+    "Editor": "Chiara Marrone",
+    "Producer": "Franco Azzurri",
+    "Co-producer": "Giulia Viola",
+    "Executive producer": "Antonio Arancio",
+    "Distributed by": "Horizon Distribution",
+    "Studio": "Vistas Incantevoli Productions",
+    "Editore": "Editoriale Natura",
+    "Provider di contenuti": "Vistas Incantevoli Productions",
+    "Conduttori": "Non applicabile",
+    "Title sort order": "Paesaggio Alpino con Strada Panoramica e Lago Turchese",
+    "Artist sort order": "Eco Viaggi",
+    "Album sort order": "Meraviglie Naturalistiche",
+    "Album artist sort order": "Vistas Incantevoli Productions",
+    "Composer sort order": "Non applicabile",
+    "Show sort order": "Documentari di Paesaggio"
+  }
+}</v>
       </c>
       <c r="L4" t="str">
-        <v>Viste Naturali Esclusive</v>
+        <v>Eco Viaggi</v>
       </c>
       <c r="M4" t="str">
-        <v>Scenic Journeys Media</v>
+        <v>Non applicabile</v>
       </c>
       <c r="N4" t="str">
+        <v>Meraviglie Naturalistiche</v>
+      </c>
+      <c r="O4" t="str">
+        <v>Vistas Incantevoli Productions</v>
+      </c>
+      <c r="P4" t="str">
         <v>Paesaggio</v>
       </c>
-      <c r="O4" t="str">
+      <c r="Q4" t="str">
         <v>Natura e Viaggi</v>
       </c>
-      <c r="P4" t="str">
-        <v>© Scenic Journeys Media 2024</v>
-      </c>
-      <c r="Q4" t="str">
-        <v>Un'incredibile vista di una strada panoramica che costeggia un lago alpino cristallino. Perfetto per chi ama la natura e la buona musica.</v>
-      </c>
       <c r="R4" t="str">
-        <v>2024-05-15</v>
+        <v>© 2023 Vistas Incantevoli Productions. Tutti i diritti riservati.</v>
       </c>
       <c r="S4" t="str">
-        <v>Nessuno</v>
+        <v>Un viaggio visivo attraverso paesaggi naturali mozzafiato, perfetti per accompagnare la tua musica preferita. Scopri la bellezza del mondo e la qualità del suono.</v>
       </c>
       <c r="T4" t="str">
-        <v>Nessuno</v>
+        <v>2023-10-27</v>
       </c>
       <c r="U4" t="str">
-        <v>1</v>
+        <v>Documentari di Paesaggio</v>
       </c>
       <c r="V4" t="str">
-        <v>1</v>
+        <v>NaturaWorld Channel</v>
       </c>
       <c r="W4" t="str">
+        <v>2</v>
+      </c>
+      <c r="X4" t="str">
+        <v>7</v>
+      </c>
+      <c r="Y4" t="str">
         <v>Sì</v>
       </c>
-      <c r="X4" t="str">
-        <v>Media Mastering Hub</v>
-      </c>
-      <c r="Y4" t="str">
-        <v>Professional Video Encoder Suite</v>
-      </c>
       <c r="Z4" t="str">
-        <v>Strada panoramica sul lago alpino</v>
+        <v>Studio Creativo Elite</v>
       </c>
       <c r="AA4" t="str">
+        <v>ProDirector Suite</v>
+      </c>
+      <c r="AB4" t="str">
+        <v>La bellezza delle alpi incontrala qualità del suono senza interruzioni</v>
+      </c>
+      <c r="AC4" t="str">
         <v>No</v>
       </c>
-      <c r="AB4" t="str">
-        <v>Nessun contenuto esplicito presente.</v>
-      </c>
-      <c r="AC4" t="str">
-        <v>montagna,lago,strada,paesaggio,natura,viaggio,turchese,scogliera,outdoor,panorama</v>
-      </c>
       <c r="AD4" t="str">
-        <v>Sereno e ispiratore</v>
+        <v>Contenuto non esplicito</v>
       </c>
       <c r="AE4" t="str">
-        <v>F Maggiore</v>
+        <v>paesaggio,natura,montagne,lago,strada,turismo,viaggio,vista panoramica,bellezza naturale,musica</v>
       </c>
       <c r="AF4" t="str">
+        <v>Sereno, Meraviglioso, Ispiratore</v>
+      </c>
+      <c r="AG4" t="str">
+        <v>Non applicabile</v>
+      </c>
+      <c r="AH4" t="str">
         <v>No</v>
       </c>
-      <c r="AG4" t="str">
-        <v>Anna Rossi</v>
-      </c>
-      <c r="AH4" t="str">
+      <c r="AI4" t="str">
+        <v>Silvia Rossi</v>
+      </c>
+      <c r="AJ4" t="str">
         <v>Marco Bianchi</v>
       </c>
-      <c r="AI4" t="str">
-        <v>Luigi Verdi</v>
-      </c>
-      <c r="AJ4" t="str">
-        <v>Sofia Neri</v>
-      </c>
       <c r="AK4" t="str">
+        <v>Andrea Verdi</v>
+      </c>
+      <c r="AL4" t="str">
+        <v>Laura Neri</v>
+      </c>
+      <c r="AM4" t="str">
         <v>Giulia Gialli</v>
       </c>
-      <c r="AL4" t="str">
-        <v>Nessuno</v>
-      </c>
-      <c r="AM4" t="str">
-        <v>Nessuno</v>
-      </c>
       <c r="AN4" t="str">
-        <v>Nessuno</v>
+        <v>Non applicabile</v>
       </c>
       <c r="AO4" t="str">
-        <v>Nessuno</v>
+        <v>Non applicabile</v>
       </c>
       <c r="AP4" t="str">
         <v>Paolo Bruno</v>
       </c>
       <c r="AQ4" t="str">
-        <v>Elena Marrone</v>
+        <v>Non applicabile</v>
       </c>
       <c r="AR4" t="str">
-        <v>Stefano Viola</v>
+        <v>Chiara Marrone</v>
       </c>
       <c r="AS4" t="str">
-        <v>Roberto Rossi</v>
+        <v>Franco Azzurri</v>
       </c>
       <c r="AT4" t="str">
-        <v>Scenic Journeys Distribution</v>
+        <v>Giulia Viola</v>
       </c>
       <c r="AU4" t="str">
-        <v>Alpine Roads Studio</v>
+        <v>Antonio Arancio</v>
       </c>
       <c r="AV4" t="str">
-        <v>Nessuno</v>
+        <v>Horizon Distribution</v>
       </c>
       <c r="AW4" t="str">
-        <v>Scenic Journeys Media</v>
+        <v>Vistas Incantevoli Productions</v>
       </c>
       <c r="AX4" t="str">
-        <v>Nessuno</v>
+        <v>Editoriale Natura</v>
       </c>
       <c r="AY4" t="str">
-        <v>Strada panoramica sul lago turchese</v>
+        <v>Vistas Incantevoli Productions</v>
       </c>
       <c r="AZ4" t="str">
-        <v>Alpine Roads Studio</v>
+        <v>Non applicabile</v>
       </c>
       <c r="BA4" t="str">
-        <v>Viste Naturali Esclusive</v>
+        <v>Paesaggio Alpino con Strada Panoramica e Lago Turchese</v>
       </c>
       <c r="BB4" t="str">
-        <v>Scenic Journeys Media</v>
+        <v>Eco Viaggi</v>
       </c>
       <c r="BC4" t="str">
-        <v>Nessuno</v>
+        <v>Meraviglie Naturalistiche</v>
       </c>
       <c r="BD4" t="str">
-        <v>Nessuno</v>
+        <v>Vistas Incantevoli Productions</v>
       </c>
       <c r="BE4" t="str">
+        <v>Non applicabile</v>
+      </c>
+      <c r="BF4" t="str">
+        <v>Documentari di Paesaggio</v>
+      </c>
+      <c r="BG4" t="str">
         <v>0:26</v>
       </c>
-      <c r="BF4">
+      <c r="BH4">
         <v>11.7</v>
       </c>
-      <c r="BG4">
+      <c r="BI4">
         <v>1920</v>
       </c>
-      <c r="BH4">
+      <c r="BJ4">
         <v>1080</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:BH4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:BJ4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -595,252 +595,425 @@
         <v>2BioluminescenceBeach#nature#naturevibes#nat7481706286942293279.mp4</v>
       </c>
       <c r="B2" t="str">
-        <v>Illumina la tua estate con Spotify Premium la migliore offerta _SpotifyPremium _OffertaMusica _EstateMusicale _Promo _StreamingMusic.mp4</v>
+        <v>Titolo virale con hashtag integrati.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758249050578.mp4</v>
+        <v>2BioluminescenceBeach_nature_n_meme_1758252954753.mp4</v>
       </c>
       <c r="D2" t="str">
-        <v>Illumina la tua estate con Spotify Premium la migliore offerta _SpotifyPremium _OffertaMusica _EstateMusicale _Promo _StreamingMusic.mp4</v>
+        <v>Titolo virale con hashtag integrati.mp4</v>
       </c>
       <c r="E2" t="str">
-        <v>Vedo un futuro luminoso per la mia musica grazie a Spotify Premium 2 anni a 35 euro</v>
+        <v>Testo del meme completo su singola riga</v>
       </c>
       <c r="F2" t="str">
-        <v>Illumina la tua estate con Spotify Premium la migliore offerta #SpotifyPremium #OffertaMusica #EstateMusicale #Promo #StreamingMusic</v>
+        <v>Titolo virale con hashtag integrati</v>
       </c>
       <c r="G2" t="str">
         <v>1</v>
       </c>
       <c r="H2" t="str">
-        <v>bottom</v>
+        <v>top</v>
       </c>
       <c r="I2" t="str">
-        <v>Una vista notturna di una spiaggia con onde bioluminescenti che brillano di un blu intenso. Il cielo è scuro e punteggiato di stelle, con una luna piena luminosa in alto. L'acqua che lambisce la riva crea un effetto etereo e magico.</v>
+        <v>Descrizione dettagliata del contenuto visivo (3-5 frasi complete)</v>
       </c>
       <c r="J2" t="str" xml:space="preserve">
-        <v xml:space="preserve">CONFIGURAZIONE:
-- Tipologia Meme: Spotify Premium 2 anni a 35€
-- Filtro Video: natura/paesaggi/landscape
-- Stile Meme: io che guardo i like salire dopo aver comprato il boost da 24 ore per il cliente
-io che fisso le statistiche del cliente che è passato da 500 a 5k follower in una settimana
-come mi sento quando il cliente mi scrive "ma come hai fatto?" dopo il boost di visualizzazioni
-io che guardo il telefono mentre aspetto che il cliente approvi la strategia hashtag personalizzata
-io che conto i follower che crescono dopo aver ottimizzato la bio del cliente
-come guardo il cliente che si lamenta dei pochi follower ma non vuole investire nella crescita
-io dopo aver creato 50 Reels virali per i clienti questo mese
-come mi sento quando il cliente dice "voglio diventare virale" ma ha 200 follower
-io che fisso le analytics mentre il Reel del cliente fa 100k visualizzazioni
-io e il team dopo aver portato 5 clienti da 0 a 10k follower
-- Usa Collage: No
-- Font Selezionato: impact
-TIMESTAMP: 2025-09-19T02:30:42.957Z</v>
+        <v xml:space="preserve">## OBIETTIVO PRINCIPALE_x000d_
+_x000d_
+Sei un esperto creatore di contenuti digitali specializzato nella produzione di meme virali. Il tuo compito è analizzare un frame video e creare un meme perfetto che:_x000d_
+_x000d_
+- Combini intelligentemente il contenuto visivo con un obiettivo specifico_x000d_
+- Segua lo stile linguistico richiesto_x000d_
+- Sia posizionato ottimalmente per massima leggibilità_x000d_
+- Include metadati completi per distribuzione sui social media_x000d_
+_x000d_
+## FASE 1: ANALISI E VERIFICA FILTRO CONTENUTO_x000d_
+_x000d_
+Analizza attentamente se il contenuto del frame corrisponde al filtro specificato: **natura/paesaggi/landscape**_x000d_
+_x000d_
+### Criteri di Valutazione:_x000d_
+- Identifica l'azione principale, i soggetti presenti e l'ambiente_x000d_
+- Osserva la progressione narrativa nel frame_x000d_
+- Verifica la presenza e prominenza degli elementi richiesti dal filtro_x000d_
+- Assegna **1** se il contenuto corrisponde al filtro, **0** se non corrisponde_x000d_
+_x000d_
+## FASE 2: STRATEGIA DI POSIZIONAMENTO TESTO_x000d_
+_x000d_
+Determina la posizione ottimale del banner di testo (`"top"` o `"bottom"`) seguendo queste regole precise:_x000d_
+_x000d_
+### Regole di Posizionamento:_x000d_
+1. **Posizione TOP**: Scegli quando i soggetti principali sono nella metà inferiore o al centro del frame_x000d_
+2. **Posizione BOTTOM**: Scegli quando i soggetti principali occupano la parte superiore e la zona bassa è libera_x000d_
+3. **Priorità assoluta**: Non sovrapporre mai il testo ai volti o alle azioni principali_x000d_
+4. **Spazio ottimale**: Seleziona sempre l'area con maggiore spazio libero e sfondo uniforme_x000d_
+_x000d_
+### Considerazioni Tecniche:_x000d_
+- **Visibilità**: Il testo deve essere completamente leggibile_x000d_
+- **Contrasto**: Preferisci aree con sfondo neutro o uniforme_x000d_
+- **Gerarchia visiva**: Il testo non deve competere con l'elemento principale_x000d_
+_x000d_
+## FASE 3: CREAZIONE DEL MEME PERFETTO_x000d_
+_x000d_
+Se il filtro è superato (`matches_filter = 1`), applica la **Formula del Meme Perfetto**:_x000d_
+_x000d_
+### Formula: CONTENUTO VISIVO + STILE + OBIETTIVO = MEME PERFETTO_x000d_
+_x000d_
+**Elementi Obbligatori:**_x000d_
+1. **Contenuto Visivo**: Utilizza la descrizione dell'immagine come base narrativa_x000d_
+2. **Stile Linguistico**: Segui rigorosamente gli esempi di stile forniti_x000d_
+3. **Obiettivo Business**: Integra naturalmente l'obiettivo **Spotify Premium 2 anni a 35€**_x000d_
+4. **Connessione Intelligente**: Crea un ponte logico e divertente tra visuale e obiettivo_x000d_
+_x000d_
+**Regole di Scrittura:**_x000d_
+- Scrivi tutto il testo del meme su una singola riga_x000d_
+- Non utilizzare caratteri speciali, emoji o simboli_x000d_
+- Mantieni un tono coerente con gli esempi forniti_x000d_
+- Il meme deve risultare naturale, non forzato_x000d_
+_x000d_
+## FASE 4: CREAZIONE TITOLO VIRALE CON HASHTAG_x000d_
+_x000d_
+Genera un titolo completo composto da **DUE SEZIONI**:_x000d_
+_x000d_
+### SEZIONE 1 - TITOLO PRINCIPALE:_x000d_
+- Massimo 60 caratteri_x000d_
+- Linguaggio accattivante e clickbait (ma non ingannevole)_x000d_
+- Riflette il contenuto del meme e l'obiettivo business_x000d_
+- Utilizza parole chiave che favoriscono la viralità_x000d_
+- **VIETATO**: caratteri speciali, emoji, simboli_x000d_
+_x000d_
+### SEZIONE 2 - HASHTAG STRATEGICI:_x000d_
+- **Quantità**: Minimo 5, massimo 10 hashtag_x000d_
+- **Formato**: Separati da spazi, preceduti da #_x000d_
+- **Pertinenza**: Attinenti al contenuto video E all'obiettivo business_x000d_
+- **Strategia**: Mix di hashtag popolari e di nicchia_x000d_
+- **VIETATO**: caratteri speciali, emoji negli hashtag_x000d_
+_x000d_
+### FORMATO FINALE:_x000d_
+```_x000d_
+[TITOLO PRINCIPALE] [#hashtag1 #hashtag2 #hashtag3 #hashtag4 #hashtag5]_x000d_
+```_x000d_
+_x000d_
+## FASE 5: GENERAZIONE METADATI PROFESSIONALI_x000d_
+_x000d_
+Crea metadati completi e strategicamente ottimizzati seguendo queste linee guida:_x000d_
+_x000d_
+### Principi Fondamentali:_x000d_
+- **Coerenza**: Tutti i campi devono essere coerenti con contenuto, meme e obiettivo_x000d_
+- **SEO**: Ricchi di keyword strategiche per massima visibilità_x000d_
+- **Professionalità**: Linguaggio pulito, senza riferimenti tecnici o processi di generazione_x000d_
+- **Naturalezza**: Metadati che sembrino prodotti da un team di produzione reale_x000d_
+_x000d_
+### Divieti Assoluti nei Metadati:_x000d_
+- ❌ Riferimenti ad AI, intelligenza artificiale, automazione_x000d_
+- ❌ Menzioni di processi di generazione automatica_x000d_
+- ❌ Termini tecnici legati a software di creazione_x000d_
+- ❌ Caratteri speciali, emoji, simboli_x000d_
+- ❌ Placeholder o testi generici_x000d_
+_x000d_
+### Approccio Strategico:_x000d_
+- Crea nomi credibili per persone e organizzazioni_x000d_
+- Utilizza date realistiche e coerenti_x000d_
+- Genera informazioni specifiche e dettagliate_x000d_
+- Mantieni coerenza narrativa in tutti i campi_x000d_
+_x000d_
+## FORMATO DI OUTPUT_x000d_
+_x000d_
+Rispondi **ESCLUSIVAMENTE in formato JSON** seguendo questa struttura:_x000d_
+_x000d_
+```json_x000d_
+{_x000d_
+  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
+  "matches_filter": 1,_x000d_
+  "banner_position": "top",_x000d_
+  "meme_text": "Testo del meme completo su singola riga",_x000d_
+  "title": "Titolo virale con hashtag integrati",_x000d_
+  "metadata": {_x000d_
+    "Title": "Titolo specifico del contenuto",_x000d_
+    "Artist": "Nome creatore credibile",_x000d_
+    "Composer": "Compositore se applicabile",_x000d_
+    "Album": "Nome collezione/album",_x000d_
+    "Album artist": "Artista dell'album",_x000d_
+    "Genre": "Genere appropriato",_x000d_
+    "Grouping": "Categoria tematica",_x000d_
+    "Copyright": "Informazioni copyright realistiche",_x000d_
+    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
+    "Data di creazione": "YYYY-MM-DD",_x000d_
+    "Show": "Nome show/serie",_x000d_
+    "TV Network": "Rete o piattaforma",_x000d_
+    "Season number": 1,_x000d_
+    "Episode number": 1,_x000d_
+    "HD Video": true,_x000d_
+    "Encoded by": "Nome encoder credibile",_x000d_
+    "Encoder tool": "Nome software professionale",_x000d_
+    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
+    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Motivo classificazione": "Motivazione specifica",_x000d_
+    "Tag": "tag1,tag2,tag3,tag4",_x000d_
+    "Umore": "Atmosfera del contenuto",_x000d_
+    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
+    "Protetto": false,_x000d_
+    "Director": "Nome regista",_x000d_
+    "Director of photography": "Nome direttore fotografia",_x000d_
+    "Sound engineer": "Nome tecnico audio",_x000d_
+    "Art director": "Nome direttore artistico",_x000d_
+    "Production designer": "Nome designer produzione",_x000d_
+    "Choreographer": "Nome coreografo",_x000d_
+    "Costume designer": "Nome costumista",_x000d_
+    "Writer": "Nome scrittore",_x000d_
+    "Screenwriter": "Nome sceneggiatore",_x000d_
+    "Editor": "Nome montatore",_x000d_
+    "Producer": "Nome produttore",_x000d_
+    "Co-producer": "Nome co-produttore",_x000d_
+    "Executive producer": "Nome produttore esecutivo",_x000d_
+    "Distributed by": "Società di distribuzione",_x000d_
+    "Studio": "Studio di produzione",_x000d_
+    "Editore": "Casa editrice",_x000d_
+    "Provider di contenuti": "Fornitore contenuti",_x000d_
+    "Conduttori": "Nomi conduttori/presentatori",_x000d_
+    "Title sort order": "Ordinamento titolo",_x000d_
+    "Artist sort order": "Ordinamento artista",_x000d_
+    "Album sort order": "Ordinamento album",_x000d_
+    "Album artist sort order": "Ordinamento artista album",_x000d_
+    "Composer sort order": "Ordinamento compositore",_x000d_
+    "Show sort order": "Ordinamento show"_x000d_
+  }_x000d_
+}_x000d_
+```_x000d_
+_x000d_
+## REGOLE CRITICHE DI QUALITÀ_x000d_
+_x000d_
+### ❌ ERRORI DA EVITARE:_x000d_
+- Meme generico che ignora il contenuto visivo_x000d_
+- Testo sovrapposto a elementi importanti dell'immagine_x000d_
+- Metadati con riferimenti tecnologici o AI_x000d_
+- Hashtag non pertinenti o eccessivi_x000d_
+- Linguaggio artificiale o robotico_x000d_
+_x000d_
+### ✅ STANDARD DI ECCELLENZA:_x000d_
+- Perfetta fusione tra contenuto visivo e obiettivo_x000d_
+- Posizionamento testo ottimale per leggibilità_x000d_
+- Metadati professionali e credibili_x000d_
+- Linguaggio naturale e coinvolgente_x000d_
+- Strategia hashtag bilanciata e mirata_x000d_
+_x000d_
+## VALIDAZIONE FINALE_x000d_
+_x000d_
+Prima di fornire l'output, verifica:_x000d_
+_x000d_
+1. **Coerenza**: Tutti gli elementi sono allineati con contenuto, stile e obiettivo?_x000d_
+2. **Professionalità**: I metadati sembrano prodotti da un team professionale?_x000d_
+3. **Viralità**: Il titolo e gli hashtag sono ottimizzati per la diffusione?_x000d_
+4. **Leggibilità**: Il posizionamento del testo è ottimale?_x000d_
+5. **Autenticità**: Non ci sono riferimenti a processi automatizzati?_x000d_
+_x000d_
+Procedi solo se tutti i criteri sono soddisfatti al 100%.</v>
       </c>
       <c r="K2" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-  "description": "Una vista notturna di una spiaggia con onde bioluminescenti che brillano di un blu intenso. Il cielo è scuro e punteggiato di stelle, con una luna piena luminosa in alto. L'acqua che lambisce la riva crea un effetto etereo e magico.",
-  "matches_filter": 1,
-  "banner_position": "bottom",
-  "meme_text": "Vedo un futuro luminoso per la mia musica grazie a Spotify Premium 2 anni a 35 euro",
-  "title": "Illumina la tua estate con Spotify Premium la migliore offerta #SpotifyPremium #OffertaMusica #EstateMusicale #Promo #StreamingMusic",
-  "metadata": {
-    "Title": "Bioluminescent Beach at Night",
-    "Artist": "Ocean Visions",
-    "Composer": "Coastal Sounds Studio",
-    "Album": "Ethereal Nights",
-    "Album artist": "Ocean Visions",
-    "Genre": "Nature",
-    "Grouping": "Landscape Photography",
-    "Copyright": "© 2023 Ocean Visions. All rights reserved.",
-    "Commenti": "Una spettacolare scena notturna di una spiaggia con onde bioluminescenti, catturata sotto un cielo stellato lunato. Un paesaggio che ispira pace e meraviglia.",
-    "Data di creazione": "2023-08-15",
-    "Show": "Natural Wonders",
-    "TV Network": "Discovery Channel",
-    "Season number": 3,
-    "Episode number": 7,
-    "HD Video": true,
-    "Encoded by": "Digital Media Services",
-    "Encoder tool": "Pro Encoder Suite",
-    "Sottotitolo": "Magia notturna sulla costa",
-    "Classificazione (esplicito)": "No",
-    "Motivo classificazione": "Contenuto visivo appropriato per tutte le età.",
-    "Tag": "spiaggia,notte,bioluminescenza,mare,paesaggio,natura,stelle,luna,onde,scena",
-    "Umore": "Sereno, Incantevole, Magico",
-    "Chiave iniziale": "Cmaj",
-    "Protetto": false,
-    "Director": "Sophia Rivers",
-    "Director of photography": "Liam Hayes",
-    "Sound engineer": "Chloe Adams",
-    "Art director": "Noah Bennett",
-    "Production designer": "Olivia Clark",
-    "Choreographer": "N/A",
-    "Costume designer": "N/A",
-    "Writer": "Liam Hayes",
-    "Screenwriter": "Sophia Rivers",
-    "Editor": "Emma Jones",
-    "Producer": "Ocean Visions",
-    "Co-producer": "Coastal Media Group",
-    "Executive producer": "David Lee",
-    "Distributed by": "Global Content Distribution",
-    "Studio": "Ocean Visions Studios",
-    "Editore": "Nature's Palette Publishing",
-    "Provider di contenuti": "Ocean Visions",
-    "Conduttori": "N/A",
-    "Title sort order": "Bioluminescent Beach at Night",
-    "Artist sort order": "Ocean Visions",
-    "Album sort order": "Ethereal Nights",
-    "Album artist sort order": "Ocean Visions",
-    "Composer sort order": "Coastal Sounds Studio",
-    "Show sort order": "Natural Wonders"
-  }
+        <v xml:space="preserve">{_x000d_
+  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
+  "matches_filter": 1,_x000d_
+  "banner_position": "top",_x000d_
+  "meme_text": "Testo del meme completo su singola riga",_x000d_
+  "title": "Titolo virale con hashtag integrati",_x000d_
+  "metadata": {_x000d_
+    "Title": "Titolo specifico del contenuto",_x000d_
+    "Artist": "Nome creatore credibile",_x000d_
+    "Composer": "Compositore se applicabile",_x000d_
+    "Album": "Nome collezione/album",_x000d_
+    "Album artist": "Artista dell'album",_x000d_
+    "Genre": "Genere appropriato",_x000d_
+    "Grouping": "Categoria tematica",_x000d_
+    "Copyright": "Informazioni copyright realistiche",_x000d_
+    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
+    "Data di creazione": "YYYY-MM-DD",_x000d_
+    "Show": "Nome show/serie",_x000d_
+    "TV Network": "Rete o piattaforma",_x000d_
+    "Season number": 1,_x000d_
+    "Episode number": 1,_x000d_
+    "HD Video": true,_x000d_
+    "Encoded by": "Nome encoder credibile",_x000d_
+    "Encoder tool": "Nome software professionale",_x000d_
+    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
+    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Motivo classificazione": "Motivazione specifica",_x000d_
+    "Tag": "tag1,tag2,tag3,tag4",_x000d_
+    "Umore": "Atmosfera del contenuto",_x000d_
+    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
+    "Protetto": false,_x000d_
+    "Director": "Nome regista",_x000d_
+    "Director of photography": "Nome direttore fotografia",_x000d_
+    "Sound engineer": "Nome tecnico audio",_x000d_
+    "Art director": "Nome direttore artistico",_x000d_
+    "Production designer": "Nome designer produzione",_x000d_
+    "Choreographer": "Nome coreografo",_x000d_
+    "Costume designer": "Nome costumista",_x000d_
+    "Writer": "Nome scrittore",_x000d_
+    "Screenwriter": "Nome sceneggiatore",_x000d_
+    "Editor": "Nome montatore",_x000d_
+    "Producer": "Nome produttore",_x000d_
+    "Co-producer": "Nome co-produttore",_x000d_
+    "Executive producer": "Nome produttore esecutivo",_x000d_
+    "Distributed by": "Società di distribuzione",_x000d_
+    "Studio": "Studio di produzione",_x000d_
+    "Editore": "Casa editrice",_x000d_
+    "Provider di contenuti": "Fornitore contenuti",_x000d_
+    "Conduttori": "Nomi conduttori/presentatori",_x000d_
+    "Title sort order": "Ordinamento titolo",_x000d_
+    "Artist sort order": "Ordinamento artista",_x000d_
+    "Album sort order": "Ordinamento album",_x000d_
+    "Album artist sort order": "Ordinamento artista album",_x000d_
+    "Composer sort order": "Ordinamento compositore",_x000d_
+    "Show sort order": "Ordinamento show"_x000d_
+  }_x000d_
 }</v>
       </c>
       <c r="L2" t="str">
-        <v>Ocean Visions</v>
+        <v>Nome creatore credibile</v>
       </c>
       <c r="M2" t="str">
-        <v>Coastal Sounds Studio</v>
+        <v>Compositore se applicabile</v>
       </c>
       <c r="N2" t="str">
-        <v>Ethereal Nights</v>
+        <v>Nome collezione/album</v>
       </c>
       <c r="O2" t="str">
-        <v>Ocean Visions</v>
+        <v>Artista dell'album</v>
       </c>
       <c r="P2" t="str">
-        <v>Nature</v>
+        <v>Genere appropriato</v>
       </c>
       <c r="Q2" t="str">
-        <v>Landscape Photography</v>
+        <v>Categoria tematica</v>
       </c>
       <c r="R2" t="str">
-        <v>© 2023 Ocean Visions. All rights reserved.</v>
+        <v>Informazioni copyright realistiche</v>
       </c>
       <c r="S2" t="str">
-        <v>Una spettacolare scena notturna di una spiaggia con onde bioluminescenti, catturata sotto un cielo stellato lunato. Un paesaggio che ispira pace e meraviglia.</v>
+        <v>Descrizione coinvolgente del contenuto</v>
       </c>
       <c r="T2" t="str">
-        <v>2023-08-15</v>
+        <v>YYYY-MM-DD</v>
       </c>
       <c r="U2" t="str">
-        <v>Natural Wonders</v>
+        <v>Nome show/serie</v>
       </c>
       <c r="V2" t="str">
-        <v>Discovery Channel</v>
+        <v>Rete o piattaforma</v>
       </c>
       <c r="W2" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="X2" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="str">
         <v>Sì</v>
       </c>
       <c r="Z2" t="str">
-        <v>Digital Media Services</v>
+        <v>Nome encoder credibile</v>
       </c>
       <c r="AA2" t="str">
-        <v>Pro Encoder Suite</v>
+        <v>Nome software professionale</v>
       </c>
       <c r="AB2" t="str">
-        <v>Magia notturna sulla costa</v>
+        <v>Sottotitolo descrittivo</v>
       </c>
       <c r="AC2" t="str">
-        <v>No</v>
+        <v>Si/No</v>
       </c>
       <c r="AD2" t="str">
-        <v>Contenuto visivo appropriato per tutte le età.</v>
+        <v>Motivazione specifica</v>
       </c>
       <c r="AE2" t="str">
-        <v>spiaggia,notte,bioluminescenza,mare,paesaggio,natura,stelle,luna,onde,scena</v>
+        <v>tag1,tag2,tag3,tag4</v>
       </c>
       <c r="AF2" t="str">
-        <v>Sereno, Incantevole, Magico</v>
+        <v>Atmosfera del contenuto</v>
       </c>
       <c r="AG2" t="str">
-        <v>Cmaj</v>
+        <v>Chiave musicale se applicabile</v>
       </c>
       <c r="AH2" t="str">
         <v>No</v>
       </c>
       <c r="AI2" t="str">
-        <v>Sophia Rivers</v>
+        <v>Nome regista</v>
       </c>
       <c r="AJ2" t="str">
-        <v>Liam Hayes</v>
+        <v>Nome direttore fotografia</v>
       </c>
       <c r="AK2" t="str">
-        <v>Chloe Adams</v>
+        <v>Nome tecnico audio</v>
       </c>
       <c r="AL2" t="str">
-        <v>Noah Bennett</v>
+        <v>Nome direttore artistico</v>
       </c>
       <c r="AM2" t="str">
-        <v>Olivia Clark</v>
+        <v>Nome designer produzione</v>
       </c>
       <c r="AN2" t="str">
-        <v>N/A</v>
+        <v>Nome coreografo</v>
       </c>
       <c r="AO2" t="str">
-        <v>N/A</v>
+        <v>Nome costumista</v>
       </c>
       <c r="AP2" t="str">
-        <v>Liam Hayes</v>
+        <v>Nome scrittore</v>
       </c>
       <c r="AQ2" t="str">
-        <v>Sophia Rivers</v>
+        <v>Nome sceneggiatore</v>
       </c>
       <c r="AR2" t="str">
-        <v>Emma Jones</v>
+        <v>Nome montatore</v>
       </c>
       <c r="AS2" t="str">
-        <v>Ocean Visions</v>
+        <v>Nome produttore</v>
       </c>
       <c r="AT2" t="str">
-        <v>Coastal Media Group</v>
+        <v>Nome co-produttore</v>
       </c>
       <c r="AU2" t="str">
-        <v>David Lee</v>
+        <v>Nome produttore esecutivo</v>
       </c>
       <c r="AV2" t="str">
-        <v>Global Content Distribution</v>
+        <v>Società di distribuzione</v>
       </c>
       <c r="AW2" t="str">
-        <v>Ocean Visions Studios</v>
+        <v>Studio di produzione</v>
       </c>
       <c r="AX2" t="str">
-        <v>Nature's Palette Publishing</v>
+        <v>Casa editrice</v>
       </c>
       <c r="AY2" t="str">
-        <v>Ocean Visions</v>
+        <v>Fornitore contenuti</v>
       </c>
       <c r="AZ2" t="str">
-        <v>N/A</v>
+        <v>Nomi conduttori/presentatori</v>
       </c>
       <c r="BA2" t="str">
-        <v>Bioluminescent Beach at Night</v>
+        <v>Ordinamento titolo</v>
       </c>
       <c r="BB2" t="str">
-        <v>Ocean Visions</v>
+        <v>Ordinamento artista</v>
       </c>
       <c r="BC2" t="str">
-        <v>Ethereal Nights</v>
+        <v>Ordinamento album</v>
       </c>
       <c r="BD2" t="str">
-        <v>Ocean Visions</v>
+        <v>Ordinamento artista album</v>
       </c>
       <c r="BE2" t="str">
-        <v>Coastal Sounds Studio</v>
+        <v>Ordinamento compositore</v>
       </c>
       <c r="BF2" t="str">
-        <v>Natural Wonders</v>
+        <v>Ordinamento show</v>
       </c>
       <c r="BG2" t="str">
-        <v>0:10</v>
+        <v>0:03</v>
       </c>
       <c r="BH2">
-        <v>2.02</v>
+        <v>0.4</v>
       </c>
       <c r="BI2">
         <v>1920</v>
@@ -854,19 +1027,19 @@
         <v>2GrandTetonNationalPark626am#earth#scen7535362257375513886.mp4</v>
       </c>
       <c r="B3" t="str">
-        <v>Montagne e Spotify_ La vita isolata ha un prezzo basso!.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758252959394.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758249052492.mp4</v>
+        <v>2GrandTetonNationalPark626am_e_meme_1758252957987.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>Montagne e Spotify_ La vita isolata ha un prezzo basso!.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758252959394.mp4</v>
       </c>
       <c r="E3" t="str">
-        <v>Quando pensi alla vita isolata in montagna ma ti ricordi che Spotify Premium per 2 anni costa solo 35€</v>
+        <v>Testo del meme completo su singola riga</v>
       </c>
       <c r="F3" t="str">
-        <v>Montagne e Spotify: La vita isolata ha un prezzo basso!</v>
+        <v>Titolo virale con hashtag integrati</v>
       </c>
       <c r="G3" t="str">
         <v>1</v>
@@ -875,117 +1048,290 @@
         <v>top</v>
       </c>
       <c r="I3" t="str">
-        <v>Un suggestivo paesaggio montano al tramonto, con le cime delle montagne illuminate da una calda luce dorata che contrasta con il blu intenso del cielo. In primo piano, una densa foresta si estende orizzontalmente, separando le montagne da un vasto campo erboso e irregolare. Lo sfondo è dominato da un cielo sereno e limpido.</v>
+        <v>Descrizione dettagliata del contenuto visivo (3-5 frasi complete)</v>
       </c>
       <c r="J3" t="str" xml:space="preserve">
-        <v xml:space="preserve">CONFIGURAZIONE:
-- Tipologia Meme: Spotify Premium 2 anni a 35€
-- Filtro Video: natura/paesaggi/landscape
-- Stile Meme: io che guardo i like salire dopo aver comprato il boost da 24 ore per il cliente
-io che fisso le statistiche del cliente che è passato da 500 a 5k follower in una settimana
-come mi sento quando il cliente mi scrive "ma come hai fatto?" dopo il boost di visualizzazioni
-io che guardo il telefono mentre aspetto che il cliente approvi la strategia hashtag personalizzata
-io che conto i follower che crescono dopo aver ottimizzato la bio del cliente
-come guardo il cliente che si lamenta dei pochi follower ma non vuole investire nella crescita
-io dopo aver creato 50 Reels virali per i clienti questo mese
-come mi sento quando il cliente dice "voglio diventare virale" ma ha 200 follower
-io che fisso le analytics mentre il Reel del cliente fa 100k visualizzazioni
-io e il team dopo aver portato 5 clienti da 0 a 10k follower
-- Usa Collage: No
-- Font Selezionato: impact
-TIMESTAMP: 2025-09-19T02:30:46.309Z</v>
+        <v xml:space="preserve">## OBIETTIVO PRINCIPALE_x000d_
+_x000d_
+Sei un esperto creatore di contenuti digitali specializzato nella produzione di meme virali. Il tuo compito è analizzare un frame video e creare un meme perfetto che:_x000d_
+_x000d_
+- Combini intelligentemente il contenuto visivo con un obiettivo specifico_x000d_
+- Segua lo stile linguistico richiesto_x000d_
+- Sia posizionato ottimalmente per massima leggibilità_x000d_
+- Include metadati completi per distribuzione sui social media_x000d_
+_x000d_
+## FASE 1: ANALISI E VERIFICA FILTRO CONTENUTO_x000d_
+_x000d_
+Analizza attentamente se il contenuto del frame corrisponde al filtro specificato: **natura/paesaggi/landscape**_x000d_
+_x000d_
+### Criteri di Valutazione:_x000d_
+- Identifica l'azione principale, i soggetti presenti e l'ambiente_x000d_
+- Osserva la progressione narrativa nel frame_x000d_
+- Verifica la presenza e prominenza degli elementi richiesti dal filtro_x000d_
+- Assegna **1** se il contenuto corrisponde al filtro, **0** se non corrisponde_x000d_
+_x000d_
+## FASE 2: STRATEGIA DI POSIZIONAMENTO TESTO_x000d_
+_x000d_
+Determina la posizione ottimale del banner di testo (`"top"` o `"bottom"`) seguendo queste regole precise:_x000d_
+_x000d_
+### Regole di Posizionamento:_x000d_
+1. **Posizione TOP**: Scegli quando i soggetti principali sono nella metà inferiore o al centro del frame_x000d_
+2. **Posizione BOTTOM**: Scegli quando i soggetti principali occupano la parte superiore e la zona bassa è libera_x000d_
+3. **Priorità assoluta**: Non sovrapporre mai il testo ai volti o alle azioni principali_x000d_
+4. **Spazio ottimale**: Seleziona sempre l'area con maggiore spazio libero e sfondo uniforme_x000d_
+_x000d_
+### Considerazioni Tecniche:_x000d_
+- **Visibilità**: Il testo deve essere completamente leggibile_x000d_
+- **Contrasto**: Preferisci aree con sfondo neutro o uniforme_x000d_
+- **Gerarchia visiva**: Il testo non deve competere con l'elemento principale_x000d_
+_x000d_
+## FASE 3: CREAZIONE DEL MEME PERFETTO_x000d_
+_x000d_
+Se il filtro è superato (`matches_filter = 1`), applica la **Formula del Meme Perfetto**:_x000d_
+_x000d_
+### Formula: CONTENUTO VISIVO + STILE + OBIETTIVO = MEME PERFETTO_x000d_
+_x000d_
+**Elementi Obbligatori:**_x000d_
+1. **Contenuto Visivo**: Utilizza la descrizione dell'immagine come base narrativa_x000d_
+2. **Stile Linguistico**: Segui rigorosamente gli esempi di stile forniti_x000d_
+3. **Obiettivo Business**: Integra naturalmente l'obiettivo **Spotify Premium 2 anni a 35€**_x000d_
+4. **Connessione Intelligente**: Crea un ponte logico e divertente tra visuale e obiettivo_x000d_
+_x000d_
+**Regole di Scrittura:**_x000d_
+- Scrivi tutto il testo del meme su una singola riga_x000d_
+- Non utilizzare caratteri speciali, emoji o simboli_x000d_
+- Mantieni un tono coerente con gli esempi forniti_x000d_
+- Il meme deve risultare naturale, non forzato_x000d_
+_x000d_
+## FASE 4: CREAZIONE TITOLO VIRALE CON HASHTAG_x000d_
+_x000d_
+Genera un titolo completo composto da **DUE SEZIONI**:_x000d_
+_x000d_
+### SEZIONE 1 - TITOLO PRINCIPALE:_x000d_
+- Massimo 60 caratteri_x000d_
+- Linguaggio accattivante e clickbait (ma non ingannevole)_x000d_
+- Riflette il contenuto del meme e l'obiettivo business_x000d_
+- Utilizza parole chiave che favoriscono la viralità_x000d_
+- **VIETATO**: caratteri speciali, emoji, simboli_x000d_
+_x000d_
+### SEZIONE 2 - HASHTAG STRATEGICI:_x000d_
+- **Quantità**: Minimo 5, massimo 10 hashtag_x000d_
+- **Formato**: Separati da spazi, preceduti da #_x000d_
+- **Pertinenza**: Attinenti al contenuto video E all'obiettivo business_x000d_
+- **Strategia**: Mix di hashtag popolari e di nicchia_x000d_
+- **VIETATO**: caratteri speciali, emoji negli hashtag_x000d_
+_x000d_
+### FORMATO FINALE:_x000d_
+```_x000d_
+[TITOLO PRINCIPALE] [#hashtag1 #hashtag2 #hashtag3 #hashtag4 #hashtag5]_x000d_
+```_x000d_
+_x000d_
+## FASE 5: GENERAZIONE METADATI PROFESSIONALI_x000d_
+_x000d_
+Crea metadati completi e strategicamente ottimizzati seguendo queste linee guida:_x000d_
+_x000d_
+### Principi Fondamentali:_x000d_
+- **Coerenza**: Tutti i campi devono essere coerenti con contenuto, meme e obiettivo_x000d_
+- **SEO**: Ricchi di keyword strategiche per massima visibilità_x000d_
+- **Professionalità**: Linguaggio pulito, senza riferimenti tecnici o processi di generazione_x000d_
+- **Naturalezza**: Metadati che sembrino prodotti da un team di produzione reale_x000d_
+_x000d_
+### Divieti Assoluti nei Metadati:_x000d_
+- ❌ Riferimenti ad AI, intelligenza artificiale, automazione_x000d_
+- ❌ Menzioni di processi di generazione automatica_x000d_
+- ❌ Termini tecnici legati a software di creazione_x000d_
+- ❌ Caratteri speciali, emoji, simboli_x000d_
+- ❌ Placeholder o testi generici_x000d_
+_x000d_
+### Approccio Strategico:_x000d_
+- Crea nomi credibili per persone e organizzazioni_x000d_
+- Utilizza date realistiche e coerenti_x000d_
+- Genera informazioni specifiche e dettagliate_x000d_
+- Mantieni coerenza narrativa in tutti i campi_x000d_
+_x000d_
+## FORMATO DI OUTPUT_x000d_
+_x000d_
+Rispondi **ESCLUSIVAMENTE in formato JSON** seguendo questa struttura:_x000d_
+_x000d_
+```json_x000d_
+{_x000d_
+  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
+  "matches_filter": 1,_x000d_
+  "banner_position": "top",_x000d_
+  "meme_text": "Testo del meme completo su singola riga",_x000d_
+  "title": "Titolo virale con hashtag integrati",_x000d_
+  "metadata": {_x000d_
+    "Title": "Titolo specifico del contenuto",_x000d_
+    "Artist": "Nome creatore credibile",_x000d_
+    "Composer": "Compositore se applicabile",_x000d_
+    "Album": "Nome collezione/album",_x000d_
+    "Album artist": "Artista dell'album",_x000d_
+    "Genre": "Genere appropriato",_x000d_
+    "Grouping": "Categoria tematica",_x000d_
+    "Copyright": "Informazioni copyright realistiche",_x000d_
+    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
+    "Data di creazione": "YYYY-MM-DD",_x000d_
+    "Show": "Nome show/serie",_x000d_
+    "TV Network": "Rete o piattaforma",_x000d_
+    "Season number": 1,_x000d_
+    "Episode number": 1,_x000d_
+    "HD Video": true,_x000d_
+    "Encoded by": "Nome encoder credibile",_x000d_
+    "Encoder tool": "Nome software professionale",_x000d_
+    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
+    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Motivo classificazione": "Motivazione specifica",_x000d_
+    "Tag": "tag1,tag2,tag3,tag4",_x000d_
+    "Umore": "Atmosfera del contenuto",_x000d_
+    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
+    "Protetto": false,_x000d_
+    "Director": "Nome regista",_x000d_
+    "Director of photography": "Nome direttore fotografia",_x000d_
+    "Sound engineer": "Nome tecnico audio",_x000d_
+    "Art director": "Nome direttore artistico",_x000d_
+    "Production designer": "Nome designer produzione",_x000d_
+    "Choreographer": "Nome coreografo",_x000d_
+    "Costume designer": "Nome costumista",_x000d_
+    "Writer": "Nome scrittore",_x000d_
+    "Screenwriter": "Nome sceneggiatore",_x000d_
+    "Editor": "Nome montatore",_x000d_
+    "Producer": "Nome produttore",_x000d_
+    "Co-producer": "Nome co-produttore",_x000d_
+    "Executive producer": "Nome produttore esecutivo",_x000d_
+    "Distributed by": "Società di distribuzione",_x000d_
+    "Studio": "Studio di produzione",_x000d_
+    "Editore": "Casa editrice",_x000d_
+    "Provider di contenuti": "Fornitore contenuti",_x000d_
+    "Conduttori": "Nomi conduttori/presentatori",_x000d_
+    "Title sort order": "Ordinamento titolo",_x000d_
+    "Artist sort order": "Ordinamento artista",_x000d_
+    "Album sort order": "Ordinamento album",_x000d_
+    "Album artist sort order": "Ordinamento artista album",_x000d_
+    "Composer sort order": "Ordinamento compositore",_x000d_
+    "Show sort order": "Ordinamento show"_x000d_
+  }_x000d_
+}_x000d_
+```_x000d_
+_x000d_
+## REGOLE CRITICHE DI QUALITÀ_x000d_
+_x000d_
+### ❌ ERRORI DA EVITARE:_x000d_
+- Meme generico che ignora il contenuto visivo_x000d_
+- Testo sovrapposto a elementi importanti dell'immagine_x000d_
+- Metadati con riferimenti tecnologici o AI_x000d_
+- Hashtag non pertinenti o eccessivi_x000d_
+- Linguaggio artificiale o robotico_x000d_
+_x000d_
+### ✅ STANDARD DI ECCELLENZA:_x000d_
+- Perfetta fusione tra contenuto visivo e obiettivo_x000d_
+- Posizionamento testo ottimale per leggibilità_x000d_
+- Metadati professionali e credibili_x000d_
+- Linguaggio naturale e coinvolgente_x000d_
+- Strategia hashtag bilanciata e mirata_x000d_
+_x000d_
+## VALIDAZIONE FINALE_x000d_
+_x000d_
+Prima di fornire l'output, verifica:_x000d_
+_x000d_
+1. **Coerenza**: Tutti gli elementi sono allineati con contenuto, stile e obiettivo?_x000d_
+2. **Professionalità**: I metadati sembrano prodotti da un team professionale?_x000d_
+3. **Viralità**: Il titolo e gli hashtag sono ottimizzati per la diffusione?_x000d_
+4. **Leggibilità**: Il posizionamento del testo è ottimale?_x000d_
+5. **Autenticità**: Non ci sono riferimenti a processi automatizzati?_x000d_
+_x000d_
+Procedi solo se tutti i criteri sono soddisfatti al 100%.</v>
       </c>
       <c r="K3" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-  "description": "Un suggestivo paesaggio montano al tramonto, con le cime delle montagne illuminate da una calda luce dorata che contrasta con il blu intenso del cielo. In primo piano, una densa foresta si estende orizzontalmente, separando le montagne da un vasto campo erboso e irregolare. Lo sfondo è dominato da un cielo sereno e limpido.",
-  "matches_filter": 1,
-  "banner_position": "top",
-  "meme_text": "Quando pensi alla vita isolata in montagna ma ti ricordi che Spotify Premium per 2 anni costa solo 35€",
-  "title": "Montagne e Spotify: La vita isolata ha un prezzo basso!",
-  "metadata": {
-    "Title": "Grand Teton Sunset with Sound",
-    "Artist": "Aurora Vance",
-    "Composer": "Liam Finch",
-    "Album": "Vista Sonora",
-    "Album artist": "Aurora Vance Collective",
-    "Genre": "Landscape Music",
-    "Grouping": "Nature &amp; Abstract",
-    "Copyright": "© 2023 Soundscape Productions LLC",
-    "Commenti": "Un'odissea visiva e sonora che cattura l'essenza della serenità e dell'ispirazione. Immagini mozzafiato delle Grand Tetons baciate dal sole del tramonto, accompagnate da una melodia evocativa perfetta per rilassarsi o concentrarsi.",
-    "Data di creazione": "2023-10-27",
-    "Show": "Paesaggi Sonori",
-    "TV Network": "Serenity Streams",
-    "Season number": 1,
-    "Episode number": 1,
-    "HD Video": true,
-    "Encoded by": "Marcus Thorne",
-    "Encoder tool": "Apex Media Suite",
-    "Sottotitolo": "La bellezza della natura incontra l'intrattenimento accessibile",
-    "Classificazione (esplicito)": "No",
-    "Motivo classificazione": "Contenuto privo di elementi offensivi o espliciti",
-    "Tag": "montagne, tramonto, paesaggio, natura, Spotify, Premium, offerta, musica, relax, vita all'aria aperta",
-    "Umore": "Sereno, contemplativo, inspirazionale, tranquillo",
-    "Chiave iniziale": "G Major",
-    "Protetto": false,
-    "Director": "Ethan Reed",
-    "Director of photography": "Seraphina Bellwether",
-    "Sound engineer": "Jasper Stone",
-    "Art director": "Caspian Grey",
-    "Production designer": "Willow Bloom",
-    "Choreographer": "N/A",
-    "Costume designer": "N/A",
-    "Writer": "N/A",
-    "Screenwriter": "N/A",
-    "Editor": "Rhys Walker",
-    "Producer": "Lena Harmon",
-    "Co-producer": "N/A",
-    "Executive producer": "N/A",
-    "Distributed by": "Echo Media Group",
-    "Studio": "Vivid Visions Studio",
-    "Editore": "Melody Maker Press",
-    "Provider di contenuti": "Soundscape Productions LLC",
-    "Conduttori": "N/A",
-    "Title sort order": "Grand Teton Sunset with Sound",
-    "Artist sort order": "Vance, Aurora",
-    "Album sort order": "Vista Sonora",
-    "Album artist sort order": "Vance, Aurora Collective",
-    "Composer sort order": "Finch, Liam",
-    "Show sort order": "Paesaggi Sonori"
-  }
+        <v xml:space="preserve">{_x000d_
+  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
+  "matches_filter": 1,_x000d_
+  "banner_position": "top",_x000d_
+  "meme_text": "Testo del meme completo su singola riga",_x000d_
+  "title": "Titolo virale con hashtag integrati",_x000d_
+  "metadata": {_x000d_
+    "Title": "Titolo specifico del contenuto",_x000d_
+    "Artist": "Nome creatore credibile",_x000d_
+    "Composer": "Compositore se applicabile",_x000d_
+    "Album": "Nome collezione/album",_x000d_
+    "Album artist": "Artista dell'album",_x000d_
+    "Genre": "Genere appropriato",_x000d_
+    "Grouping": "Categoria tematica",_x000d_
+    "Copyright": "Informazioni copyright realistiche",_x000d_
+    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
+    "Data di creazione": "YYYY-MM-DD",_x000d_
+    "Show": "Nome show/serie",_x000d_
+    "TV Network": "Rete o piattaforma",_x000d_
+    "Season number": 1,_x000d_
+    "Episode number": 1,_x000d_
+    "HD Video": true,_x000d_
+    "Encoded by": "Nome encoder credibile",_x000d_
+    "Encoder tool": "Nome software professionale",_x000d_
+    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
+    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Motivo classificazione": "Motivazione specifica",_x000d_
+    "Tag": "tag1,tag2,tag3,tag4",_x000d_
+    "Umore": "Atmosfera del contenuto",_x000d_
+    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
+    "Protetto": false,_x000d_
+    "Director": "Nome regista",_x000d_
+    "Director of photography": "Nome direttore fotografia",_x000d_
+    "Sound engineer": "Nome tecnico audio",_x000d_
+    "Art director": "Nome direttore artistico",_x000d_
+    "Production designer": "Nome designer produzione",_x000d_
+    "Choreographer": "Nome coreografo",_x000d_
+    "Costume designer": "Nome costumista",_x000d_
+    "Writer": "Nome scrittore",_x000d_
+    "Screenwriter": "Nome sceneggiatore",_x000d_
+    "Editor": "Nome montatore",_x000d_
+    "Producer": "Nome produttore",_x000d_
+    "Co-producer": "Nome co-produttore",_x000d_
+    "Executive producer": "Nome produttore esecutivo",_x000d_
+    "Distributed by": "Società di distribuzione",_x000d_
+    "Studio": "Studio di produzione",_x000d_
+    "Editore": "Casa editrice",_x000d_
+    "Provider di contenuti": "Fornitore contenuti",_x000d_
+    "Conduttori": "Nomi conduttori/presentatori",_x000d_
+    "Title sort order": "Ordinamento titolo",_x000d_
+    "Artist sort order": "Ordinamento artista",_x000d_
+    "Album sort order": "Ordinamento album",_x000d_
+    "Album artist sort order": "Ordinamento artista album",_x000d_
+    "Composer sort order": "Ordinamento compositore",_x000d_
+    "Show sort order": "Ordinamento show"_x000d_
+  }_x000d_
 }</v>
       </c>
       <c r="L3" t="str">
-        <v>Aurora Vance</v>
+        <v>Nome creatore credibile</v>
       </c>
       <c r="M3" t="str">
-        <v>Liam Finch</v>
+        <v>Compositore se applicabile</v>
       </c>
       <c r="N3" t="str">
-        <v>Vista Sonora</v>
+        <v>Nome collezione/album</v>
       </c>
       <c r="O3" t="str">
-        <v>Aurora Vance Collective</v>
+        <v>Artista dell'album</v>
       </c>
       <c r="P3" t="str">
-        <v>Landscape Music</v>
+        <v>Genere appropriato</v>
       </c>
       <c r="Q3" t="str">
-        <v>Nature &amp; Abstract</v>
+        <v>Categoria tematica</v>
       </c>
       <c r="R3" t="str">
-        <v>© 2023 Soundscape Productions LLC</v>
+        <v>Informazioni copyright realistiche</v>
       </c>
       <c r="S3" t="str">
-        <v>Un'odissea visiva e sonora che cattura l'essenza della serenità e dell'ispirazione. Immagini mozzafiato delle Grand Tetons baciate dal sole del tramonto, accompagnate da una melodia evocativa perfetta per rilassarsi o concentrarsi.</v>
+        <v>Descrizione coinvolgente del contenuto</v>
       </c>
       <c r="T3" t="str">
-        <v>2023-10-27</v>
+        <v>YYYY-MM-DD</v>
       </c>
       <c r="U3" t="str">
-        <v>Paesaggi Sonori</v>
+        <v>Nome show/serie</v>
       </c>
       <c r="V3" t="str">
-        <v>Serenity Streams</v>
+        <v>Rete o piattaforma</v>
       </c>
       <c r="W3" t="str">
         <v>1</v>
@@ -997,109 +1343,109 @@
         <v>Sì</v>
       </c>
       <c r="Z3" t="str">
-        <v>Marcus Thorne</v>
+        <v>Nome encoder credibile</v>
       </c>
       <c r="AA3" t="str">
-        <v>Apex Media Suite</v>
+        <v>Nome software professionale</v>
       </c>
       <c r="AB3" t="str">
-        <v>La bellezza della natura incontra l'intrattenimento accessibile</v>
+        <v>Sottotitolo descrittivo</v>
       </c>
       <c r="AC3" t="str">
-        <v>No</v>
+        <v>Si/No</v>
       </c>
       <c r="AD3" t="str">
-        <v>Contenuto privo di elementi offensivi o espliciti</v>
+        <v>Motivazione specifica</v>
       </c>
       <c r="AE3" t="str">
-        <v>montagne, tramonto, paesaggio, natura, Spotify, Premium, offerta, musica, relax, vita all'aria aperta</v>
+        <v>tag1,tag2,tag3,tag4</v>
       </c>
       <c r="AF3" t="str">
-        <v>Sereno, contemplativo, inspirazionale, tranquillo</v>
+        <v>Atmosfera del contenuto</v>
       </c>
       <c r="AG3" t="str">
-        <v>G Major</v>
+        <v>Chiave musicale se applicabile</v>
       </c>
       <c r="AH3" t="str">
         <v>No</v>
       </c>
       <c r="AI3" t="str">
-        <v>Ethan Reed</v>
+        <v>Nome regista</v>
       </c>
       <c r="AJ3" t="str">
-        <v>Seraphina Bellwether</v>
+        <v>Nome direttore fotografia</v>
       </c>
       <c r="AK3" t="str">
-        <v>Jasper Stone</v>
+        <v>Nome tecnico audio</v>
       </c>
       <c r="AL3" t="str">
-        <v>Caspian Grey</v>
+        <v>Nome direttore artistico</v>
       </c>
       <c r="AM3" t="str">
-        <v>Willow Bloom</v>
+        <v>Nome designer produzione</v>
       </c>
       <c r="AN3" t="str">
-        <v>N/A</v>
+        <v>Nome coreografo</v>
       </c>
       <c r="AO3" t="str">
-        <v>N/A</v>
+        <v>Nome costumista</v>
       </c>
       <c r="AP3" t="str">
-        <v>N/A</v>
+        <v>Nome scrittore</v>
       </c>
       <c r="AQ3" t="str">
-        <v>N/A</v>
+        <v>Nome sceneggiatore</v>
       </c>
       <c r="AR3" t="str">
-        <v>Rhys Walker</v>
+        <v>Nome montatore</v>
       </c>
       <c r="AS3" t="str">
-        <v>Lena Harmon</v>
+        <v>Nome produttore</v>
       </c>
       <c r="AT3" t="str">
-        <v>N/A</v>
+        <v>Nome co-produttore</v>
       </c>
       <c r="AU3" t="str">
-        <v>N/A</v>
+        <v>Nome produttore esecutivo</v>
       </c>
       <c r="AV3" t="str">
-        <v>Echo Media Group</v>
+        <v>Società di distribuzione</v>
       </c>
       <c r="AW3" t="str">
-        <v>Vivid Visions Studio</v>
+        <v>Studio di produzione</v>
       </c>
       <c r="AX3" t="str">
-        <v>Melody Maker Press</v>
+        <v>Casa editrice</v>
       </c>
       <c r="AY3" t="str">
-        <v>Soundscape Productions LLC</v>
+        <v>Fornitore contenuti</v>
       </c>
       <c r="AZ3" t="str">
-        <v>N/A</v>
+        <v>Nomi conduttori/presentatori</v>
       </c>
       <c r="BA3" t="str">
-        <v>Grand Teton Sunset with Sound</v>
+        <v>Ordinamento titolo</v>
       </c>
       <c r="BB3" t="str">
-        <v>Vance, Aurora</v>
+        <v>Ordinamento artista</v>
       </c>
       <c r="BC3" t="str">
-        <v>Vista Sonora</v>
+        <v>Ordinamento album</v>
       </c>
       <c r="BD3" t="str">
-        <v>Vance, Aurora Collective</v>
+        <v>Ordinamento artista album</v>
       </c>
       <c r="BE3" t="str">
-        <v>Finch, Liam</v>
+        <v>Ordinamento compositore</v>
       </c>
       <c r="BF3" t="str">
-        <v>Paesaggi Sonori</v>
+        <v>Ordinamento show</v>
       </c>
       <c r="BG3" t="str">
-        <v>0:08</v>
+        <v>0:03</v>
       </c>
       <c r="BH3">
-        <v>4.65</v>
+        <v>0.62</v>
       </c>
       <c r="BI3">
         <v>1920</v>
@@ -1113,19 +1459,19 @@
         <v>2Lovetheplace#landscape#healingjourney#rela7379280768100584746.mp4</v>
       </c>
       <c r="B4" t="str">
-        <v>La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758252963890.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758249057052.mp4</v>
+        <v>2Lovetheplace_landscape_healin_meme_1758252962346.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758252963890.mp4</v>
       </c>
       <c r="E4" t="str">
-        <v>Sulla strada della vita c'è sempre spazio per Spotify Premium per 2 anni a 35€</v>
+        <v>Testo del meme completo su singola riga</v>
       </c>
       <c r="F4" t="str">
-        <v>La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni</v>
+        <v>Titolo virale con hashtag integrati</v>
       </c>
       <c r="G4" t="str">
         <v>1</v>
@@ -1134,231 +1480,404 @@
         <v>top</v>
       </c>
       <c r="I4" t="str">
-        <v>Una strada tortuosa costeggia una scogliera a picco che si affaccia su un lago cristallino di un intenso colore turchese. Montagne verdi punteggiate di alberi fanno da sfondo al paesaggio mozzafiato, mentre il cielo azzurro è attraversato da sottili nuvole bianche. La vegetazione rigogliosa ricopre la roccia, aggiungendo un tocco di vita selvaggia alla scena.</v>
+        <v>Descrizione dettagliata del contenuto visivo (3-5 frasi complete)</v>
       </c>
       <c r="J4" t="str" xml:space="preserve">
-        <v xml:space="preserve">CONFIGURAZIONE:
-- Tipologia Meme: Spotify Premium 2 anni a 35€
-- Filtro Video: natura/paesaggi/landscape
-- Stile Meme: io che guardo i like salire dopo aver comprato il boost da 24 ore per il cliente
-io che fisso le statistiche del cliente che è passato da 500 a 5k follower in una settimana
-come mi sento quando il cliente mi scrive "ma come hai fatto?" dopo il boost di visualizzazioni
-io che guardo il telefono mentre aspetto che il cliente approvi la strategia hashtag personalizzata
-io che conto i follower che crescono dopo aver ottimizzato la bio del cliente
-come guardo il cliente che si lamenta dei pochi follower ma non vuole investire nella crescita
-io dopo aver creato 50 Reels virali per i clienti questo mese
-come mi sento quando il cliente dice "voglio diventare virale" ma ha 200 follower
-io che fisso le analytics mentre il Reel del cliente fa 100k visualizzazioni
-io e il team dopo aver portato 5 clienti da 0 a 10k follower
-- Usa Collage: No
-- Font Selezionato: impact
-TIMESTAMP: 2025-09-19T02:30:50.565Z</v>
+        <v xml:space="preserve">## OBIETTIVO PRINCIPALE_x000d_
+_x000d_
+Sei un esperto creatore di contenuti digitali specializzato nella produzione di meme virali. Il tuo compito è analizzare un frame video e creare un meme perfetto che:_x000d_
+_x000d_
+- Combini intelligentemente il contenuto visivo con un obiettivo specifico_x000d_
+- Segua lo stile linguistico richiesto_x000d_
+- Sia posizionato ottimalmente per massima leggibilità_x000d_
+- Include metadati completi per distribuzione sui social media_x000d_
+_x000d_
+## FASE 1: ANALISI E VERIFICA FILTRO CONTENUTO_x000d_
+_x000d_
+Analizza attentamente se il contenuto del frame corrisponde al filtro specificato: **natura/paesaggi/landscape**_x000d_
+_x000d_
+### Criteri di Valutazione:_x000d_
+- Identifica l'azione principale, i soggetti presenti e l'ambiente_x000d_
+- Osserva la progressione narrativa nel frame_x000d_
+- Verifica la presenza e prominenza degli elementi richiesti dal filtro_x000d_
+- Assegna **1** se il contenuto corrisponde al filtro, **0** se non corrisponde_x000d_
+_x000d_
+## FASE 2: STRATEGIA DI POSIZIONAMENTO TESTO_x000d_
+_x000d_
+Determina la posizione ottimale del banner di testo (`"top"` o `"bottom"`) seguendo queste regole precise:_x000d_
+_x000d_
+### Regole di Posizionamento:_x000d_
+1. **Posizione TOP**: Scegli quando i soggetti principali sono nella metà inferiore o al centro del frame_x000d_
+2. **Posizione BOTTOM**: Scegli quando i soggetti principali occupano la parte superiore e la zona bassa è libera_x000d_
+3. **Priorità assoluta**: Non sovrapporre mai il testo ai volti o alle azioni principali_x000d_
+4. **Spazio ottimale**: Seleziona sempre l'area con maggiore spazio libero e sfondo uniforme_x000d_
+_x000d_
+### Considerazioni Tecniche:_x000d_
+- **Visibilità**: Il testo deve essere completamente leggibile_x000d_
+- **Contrasto**: Preferisci aree con sfondo neutro o uniforme_x000d_
+- **Gerarchia visiva**: Il testo non deve competere con l'elemento principale_x000d_
+_x000d_
+## FASE 3: CREAZIONE DEL MEME PERFETTO_x000d_
+_x000d_
+Se il filtro è superato (`matches_filter = 1`), applica la **Formula del Meme Perfetto**:_x000d_
+_x000d_
+### Formula: CONTENUTO VISIVO + STILE + OBIETTIVO = MEME PERFETTO_x000d_
+_x000d_
+**Elementi Obbligatori:**_x000d_
+1. **Contenuto Visivo**: Utilizza la descrizione dell'immagine come base narrativa_x000d_
+2. **Stile Linguistico**: Segui rigorosamente gli esempi di stile forniti_x000d_
+3. **Obiettivo Business**: Integra naturalmente l'obiettivo **Spotify Premium 2 anni a 35€**_x000d_
+4. **Connessione Intelligente**: Crea un ponte logico e divertente tra visuale e obiettivo_x000d_
+_x000d_
+**Regole di Scrittura:**_x000d_
+- Scrivi tutto il testo del meme su una singola riga_x000d_
+- Non utilizzare caratteri speciali, emoji o simboli_x000d_
+- Mantieni un tono coerente con gli esempi forniti_x000d_
+- Il meme deve risultare naturale, non forzato_x000d_
+_x000d_
+## FASE 4: CREAZIONE TITOLO VIRALE CON HASHTAG_x000d_
+_x000d_
+Genera un titolo completo composto da **DUE SEZIONI**:_x000d_
+_x000d_
+### SEZIONE 1 - TITOLO PRINCIPALE:_x000d_
+- Massimo 60 caratteri_x000d_
+- Linguaggio accattivante e clickbait (ma non ingannevole)_x000d_
+- Riflette il contenuto del meme e l'obiettivo business_x000d_
+- Utilizza parole chiave che favoriscono la viralità_x000d_
+- **VIETATO**: caratteri speciali, emoji, simboli_x000d_
+_x000d_
+### SEZIONE 2 - HASHTAG STRATEGICI:_x000d_
+- **Quantità**: Minimo 5, massimo 10 hashtag_x000d_
+- **Formato**: Separati da spazi, preceduti da #_x000d_
+- **Pertinenza**: Attinenti al contenuto video E all'obiettivo business_x000d_
+- **Strategia**: Mix di hashtag popolari e di nicchia_x000d_
+- **VIETATO**: caratteri speciali, emoji negli hashtag_x000d_
+_x000d_
+### FORMATO FINALE:_x000d_
+```_x000d_
+[TITOLO PRINCIPALE] [#hashtag1 #hashtag2 #hashtag3 #hashtag4 #hashtag5]_x000d_
+```_x000d_
+_x000d_
+## FASE 5: GENERAZIONE METADATI PROFESSIONALI_x000d_
+_x000d_
+Crea metadati completi e strategicamente ottimizzati seguendo queste linee guida:_x000d_
+_x000d_
+### Principi Fondamentali:_x000d_
+- **Coerenza**: Tutti i campi devono essere coerenti con contenuto, meme e obiettivo_x000d_
+- **SEO**: Ricchi di keyword strategiche per massima visibilità_x000d_
+- **Professionalità**: Linguaggio pulito, senza riferimenti tecnici o processi di generazione_x000d_
+- **Naturalezza**: Metadati che sembrino prodotti da un team di produzione reale_x000d_
+_x000d_
+### Divieti Assoluti nei Metadati:_x000d_
+- ❌ Riferimenti ad AI, intelligenza artificiale, automazione_x000d_
+- ❌ Menzioni di processi di generazione automatica_x000d_
+- ❌ Termini tecnici legati a software di creazione_x000d_
+- ❌ Caratteri speciali, emoji, simboli_x000d_
+- ❌ Placeholder o testi generici_x000d_
+_x000d_
+### Approccio Strategico:_x000d_
+- Crea nomi credibili per persone e organizzazioni_x000d_
+- Utilizza date realistiche e coerenti_x000d_
+- Genera informazioni specifiche e dettagliate_x000d_
+- Mantieni coerenza narrativa in tutti i campi_x000d_
+_x000d_
+## FORMATO DI OUTPUT_x000d_
+_x000d_
+Rispondi **ESCLUSIVAMENTE in formato JSON** seguendo questa struttura:_x000d_
+_x000d_
+```json_x000d_
+{_x000d_
+  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
+  "matches_filter": 1,_x000d_
+  "banner_position": "top",_x000d_
+  "meme_text": "Testo del meme completo su singola riga",_x000d_
+  "title": "Titolo virale con hashtag integrati",_x000d_
+  "metadata": {_x000d_
+    "Title": "Titolo specifico del contenuto",_x000d_
+    "Artist": "Nome creatore credibile",_x000d_
+    "Composer": "Compositore se applicabile",_x000d_
+    "Album": "Nome collezione/album",_x000d_
+    "Album artist": "Artista dell'album",_x000d_
+    "Genre": "Genere appropriato",_x000d_
+    "Grouping": "Categoria tematica",_x000d_
+    "Copyright": "Informazioni copyright realistiche",_x000d_
+    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
+    "Data di creazione": "YYYY-MM-DD",_x000d_
+    "Show": "Nome show/serie",_x000d_
+    "TV Network": "Rete o piattaforma",_x000d_
+    "Season number": 1,_x000d_
+    "Episode number": 1,_x000d_
+    "HD Video": true,_x000d_
+    "Encoded by": "Nome encoder credibile",_x000d_
+    "Encoder tool": "Nome software professionale",_x000d_
+    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
+    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Motivo classificazione": "Motivazione specifica",_x000d_
+    "Tag": "tag1,tag2,tag3,tag4",_x000d_
+    "Umore": "Atmosfera del contenuto",_x000d_
+    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
+    "Protetto": false,_x000d_
+    "Director": "Nome regista",_x000d_
+    "Director of photography": "Nome direttore fotografia",_x000d_
+    "Sound engineer": "Nome tecnico audio",_x000d_
+    "Art director": "Nome direttore artistico",_x000d_
+    "Production designer": "Nome designer produzione",_x000d_
+    "Choreographer": "Nome coreografo",_x000d_
+    "Costume designer": "Nome costumista",_x000d_
+    "Writer": "Nome scrittore",_x000d_
+    "Screenwriter": "Nome sceneggiatore",_x000d_
+    "Editor": "Nome montatore",_x000d_
+    "Producer": "Nome produttore",_x000d_
+    "Co-producer": "Nome co-produttore",_x000d_
+    "Executive producer": "Nome produttore esecutivo",_x000d_
+    "Distributed by": "Società di distribuzione",_x000d_
+    "Studio": "Studio di produzione",_x000d_
+    "Editore": "Casa editrice",_x000d_
+    "Provider di contenuti": "Fornitore contenuti",_x000d_
+    "Conduttori": "Nomi conduttori/presentatori",_x000d_
+    "Title sort order": "Ordinamento titolo",_x000d_
+    "Artist sort order": "Ordinamento artista",_x000d_
+    "Album sort order": "Ordinamento album",_x000d_
+    "Album artist sort order": "Ordinamento artista album",_x000d_
+    "Composer sort order": "Ordinamento compositore",_x000d_
+    "Show sort order": "Ordinamento show"_x000d_
+  }_x000d_
+}_x000d_
+```_x000d_
+_x000d_
+## REGOLE CRITICHE DI QUALITÀ_x000d_
+_x000d_
+### ❌ ERRORI DA EVITARE:_x000d_
+- Meme generico che ignora il contenuto visivo_x000d_
+- Testo sovrapposto a elementi importanti dell'immagine_x000d_
+- Metadati con riferimenti tecnologici o AI_x000d_
+- Hashtag non pertinenti o eccessivi_x000d_
+- Linguaggio artificiale o robotico_x000d_
+_x000d_
+### ✅ STANDARD DI ECCELLENZA:_x000d_
+- Perfetta fusione tra contenuto visivo e obiettivo_x000d_
+- Posizionamento testo ottimale per leggibilità_x000d_
+- Metadati professionali e credibili_x000d_
+- Linguaggio naturale e coinvolgente_x000d_
+- Strategia hashtag bilanciata e mirata_x000d_
+_x000d_
+## VALIDAZIONE FINALE_x000d_
+_x000d_
+Prima di fornire l'output, verifica:_x000d_
+_x000d_
+1. **Coerenza**: Tutti gli elementi sono allineati con contenuto, stile e obiettivo?_x000d_
+2. **Professionalità**: I metadati sembrano prodotti da un team professionale?_x000d_
+3. **Viralità**: Il titolo e gli hashtag sono ottimizzati per la diffusione?_x000d_
+4. **Leggibilità**: Il posizionamento del testo è ottimale?_x000d_
+5. **Autenticità**: Non ci sono riferimenti a processi automatizzati?_x000d_
+_x000d_
+Procedi solo se tutti i criteri sono soddisfatti al 100%.</v>
       </c>
       <c r="K4" t="str" xml:space="preserve">
-        <v xml:space="preserve">{
-  "description": "Una strada tortuosa costeggia una scogliera a picco che si affaccia su un lago cristallino di un intenso colore turchese. Montagne verdi punteggiate di alberi fanno da sfondo al paesaggio mozzafiato, mentre il cielo azzurro è attraversato da sottili nuvole bianche. La vegetazione rigogliosa ricopre la roccia, aggiungendo un tocco di vita selvaggia alla scena.",
-  "matches_filter": 1,
-  "banner_position": "top",
-  "meme_text": "Sulla strada della vita c'è sempre spazio per Spotify Premium per 2 anni a 35€",
-  "title": "La tua strada verso l'infinito suono Spotify Premium solo 35€ per 2 anni",
-  "metadata": {
-    "Title": "Paesaggio Alpino con Strada Panoramica e Lago Turchese",
-    "Artist": "Eco Viaggi",
-    "Composer": "Non applicabile",
-    "Album": "Meraviglie Naturalistiche",
-    "Album artist": "Vistas Incantevoli Productions",
-    "Genre": "Paesaggio",
-    "Grouping": "Natura e Viaggi",
-    "Copyright": "© 2023 Vistas Incantevoli Productions. Tutti i diritti riservati.",
-    "Commenti": "Un viaggio visivo attraverso paesaggi naturali mozzafiato, perfetti per accompagnare la tua musica preferita. Scopri la bellezza del mondo e la qualità del suono.",
-    "Data di creazione": "2023-10-27",
-    "Show": "Documentari di Paesaggio",
-    "TV Network": "NaturaWorld Channel",
-    "Season number": 2,
-    "Episode number": 7,
-    "HD Video": true,
-    "Encoded by": "Studio Creativo Elite",
-    "Encoder tool": "ProDirector Suite",
-    "Sottotitolo": "La bellezza delle alpi incontrala qualità del suono senza interruzioni",
-    "Classificazione (esplicito)": "No",
-    "Motivo classificazione": "Contenuto non esplicito",
-    "Tag": "paesaggio,natura,montagne,lago,strada,turismo,viaggio,vista panoramica,bellezza naturale,musica",
-    "Umore": "Sereno, Meraviglioso, Ispiratore",
-    "Chiave iniziale": "Non applicabile",
-    "Protetto": false,
-    "Director": "Silvia Rossi",
-    "Director of photography": "Marco Bianchi",
-    "Sound engineer": "Andrea Verdi",
-    "Art director": "Laura Neri",
-    "Production designer": "Giulia Gialli",
-    "Choreographer": "Non applicabile",
-    "Costume designer": "Non applicabile",
-    "Writer": "Paolo Bruno",
-    "Screenwriter": "Non applicabile",
-    "Editor": "Chiara Marrone",
-    "Producer": "Franco Azzurri",
-    "Co-producer": "Giulia Viola",
-    "Executive producer": "Antonio Arancio",
-    "Distributed by": "Horizon Distribution",
-    "Studio": "Vistas Incantevoli Productions",
-    "Editore": "Editoriale Natura",
-    "Provider di contenuti": "Vistas Incantevoli Productions",
-    "Conduttori": "Non applicabile",
-    "Title sort order": "Paesaggio Alpino con Strada Panoramica e Lago Turchese",
-    "Artist sort order": "Eco Viaggi",
-    "Album sort order": "Meraviglie Naturalistiche",
-    "Album artist sort order": "Vistas Incantevoli Productions",
-    "Composer sort order": "Non applicabile",
-    "Show sort order": "Documentari di Paesaggio"
-  }
+        <v xml:space="preserve">{_x000d_
+  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
+  "matches_filter": 1,_x000d_
+  "banner_position": "top",_x000d_
+  "meme_text": "Testo del meme completo su singola riga",_x000d_
+  "title": "Titolo virale con hashtag integrati",_x000d_
+  "metadata": {_x000d_
+    "Title": "Titolo specifico del contenuto",_x000d_
+    "Artist": "Nome creatore credibile",_x000d_
+    "Composer": "Compositore se applicabile",_x000d_
+    "Album": "Nome collezione/album",_x000d_
+    "Album artist": "Artista dell'album",_x000d_
+    "Genre": "Genere appropriato",_x000d_
+    "Grouping": "Categoria tematica",_x000d_
+    "Copyright": "Informazioni copyright realistiche",_x000d_
+    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
+    "Data di creazione": "YYYY-MM-DD",_x000d_
+    "Show": "Nome show/serie",_x000d_
+    "TV Network": "Rete o piattaforma",_x000d_
+    "Season number": 1,_x000d_
+    "Episode number": 1,_x000d_
+    "HD Video": true,_x000d_
+    "Encoded by": "Nome encoder credibile",_x000d_
+    "Encoder tool": "Nome software professionale",_x000d_
+    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
+    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Motivo classificazione": "Motivazione specifica",_x000d_
+    "Tag": "tag1,tag2,tag3,tag4",_x000d_
+    "Umore": "Atmosfera del contenuto",_x000d_
+    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
+    "Protetto": false,_x000d_
+    "Director": "Nome regista",_x000d_
+    "Director of photography": "Nome direttore fotografia",_x000d_
+    "Sound engineer": "Nome tecnico audio",_x000d_
+    "Art director": "Nome direttore artistico",_x000d_
+    "Production designer": "Nome designer produzione",_x000d_
+    "Choreographer": "Nome coreografo",_x000d_
+    "Costume designer": "Nome costumista",_x000d_
+    "Writer": "Nome scrittore",_x000d_
+    "Screenwriter": "Nome sceneggiatore",_x000d_
+    "Editor": "Nome montatore",_x000d_
+    "Producer": "Nome produttore",_x000d_
+    "Co-producer": "Nome co-produttore",_x000d_
+    "Executive producer": "Nome produttore esecutivo",_x000d_
+    "Distributed by": "Società di distribuzione",_x000d_
+    "Studio": "Studio di produzione",_x000d_
+    "Editore": "Casa editrice",_x000d_
+    "Provider di contenuti": "Fornitore contenuti",_x000d_
+    "Conduttori": "Nomi conduttori/presentatori",_x000d_
+    "Title sort order": "Ordinamento titolo",_x000d_
+    "Artist sort order": "Ordinamento artista",_x000d_
+    "Album sort order": "Ordinamento album",_x000d_
+    "Album artist sort order": "Ordinamento artista album",_x000d_
+    "Composer sort order": "Ordinamento compositore",_x000d_
+    "Show sort order": "Ordinamento show"_x000d_
+  }_x000d_
 }</v>
       </c>
       <c r="L4" t="str">
-        <v>Eco Viaggi</v>
+        <v>Nome creatore credibile</v>
       </c>
       <c r="M4" t="str">
-        <v>Non applicabile</v>
+        <v>Compositore se applicabile</v>
       </c>
       <c r="N4" t="str">
-        <v>Meraviglie Naturalistiche</v>
+        <v>Nome collezione/album</v>
       </c>
       <c r="O4" t="str">
-        <v>Vistas Incantevoli Productions</v>
+        <v>Artista dell'album</v>
       </c>
       <c r="P4" t="str">
-        <v>Paesaggio</v>
+        <v>Genere appropriato</v>
       </c>
       <c r="Q4" t="str">
-        <v>Natura e Viaggi</v>
+        <v>Categoria tematica</v>
       </c>
       <c r="R4" t="str">
-        <v>© 2023 Vistas Incantevoli Productions. Tutti i diritti riservati.</v>
+        <v>Informazioni copyright realistiche</v>
       </c>
       <c r="S4" t="str">
-        <v>Un viaggio visivo attraverso paesaggi naturali mozzafiato, perfetti per accompagnare la tua musica preferita. Scopri la bellezza del mondo e la qualità del suono.</v>
+        <v>Descrizione coinvolgente del contenuto</v>
       </c>
       <c r="T4" t="str">
-        <v>2023-10-27</v>
+        <v>YYYY-MM-DD</v>
       </c>
       <c r="U4" t="str">
-        <v>Documentari di Paesaggio</v>
+        <v>Nome show/serie</v>
       </c>
       <c r="V4" t="str">
-        <v>NaturaWorld Channel</v>
+        <v>Rete o piattaforma</v>
       </c>
       <c r="W4" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X4" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="str">
         <v>Sì</v>
       </c>
       <c r="Z4" t="str">
-        <v>Studio Creativo Elite</v>
+        <v>Nome encoder credibile</v>
       </c>
       <c r="AA4" t="str">
-        <v>ProDirector Suite</v>
+        <v>Nome software professionale</v>
       </c>
       <c r="AB4" t="str">
-        <v>La bellezza delle alpi incontrala qualità del suono senza interruzioni</v>
+        <v>Sottotitolo descrittivo</v>
       </c>
       <c r="AC4" t="str">
-        <v>No</v>
+        <v>Si/No</v>
       </c>
       <c r="AD4" t="str">
-        <v>Contenuto non esplicito</v>
+        <v>Motivazione specifica</v>
       </c>
       <c r="AE4" t="str">
-        <v>paesaggio,natura,montagne,lago,strada,turismo,viaggio,vista panoramica,bellezza naturale,musica</v>
+        <v>tag1,tag2,tag3,tag4</v>
       </c>
       <c r="AF4" t="str">
-        <v>Sereno, Meraviglioso, Ispiratore</v>
+        <v>Atmosfera del contenuto</v>
       </c>
       <c r="AG4" t="str">
-        <v>Non applicabile</v>
+        <v>Chiave musicale se applicabile</v>
       </c>
       <c r="AH4" t="str">
         <v>No</v>
       </c>
       <c r="AI4" t="str">
-        <v>Silvia Rossi</v>
+        <v>Nome regista</v>
       </c>
       <c r="AJ4" t="str">
-        <v>Marco Bianchi</v>
+        <v>Nome direttore fotografia</v>
       </c>
       <c r="AK4" t="str">
-        <v>Andrea Verdi</v>
+        <v>Nome tecnico audio</v>
       </c>
       <c r="AL4" t="str">
-        <v>Laura Neri</v>
+        <v>Nome direttore artistico</v>
       </c>
       <c r="AM4" t="str">
-        <v>Giulia Gialli</v>
+        <v>Nome designer produzione</v>
       </c>
       <c r="AN4" t="str">
-        <v>Non applicabile</v>
+        <v>Nome coreografo</v>
       </c>
       <c r="AO4" t="str">
-        <v>Non applicabile</v>
+        <v>Nome costumista</v>
       </c>
       <c r="AP4" t="str">
-        <v>Paolo Bruno</v>
+        <v>Nome scrittore</v>
       </c>
       <c r="AQ4" t="str">
-        <v>Non applicabile</v>
+        <v>Nome sceneggiatore</v>
       </c>
       <c r="AR4" t="str">
-        <v>Chiara Marrone</v>
+        <v>Nome montatore</v>
       </c>
       <c r="AS4" t="str">
-        <v>Franco Azzurri</v>
+        <v>Nome produttore</v>
       </c>
       <c r="AT4" t="str">
-        <v>Giulia Viola</v>
+        <v>Nome co-produttore</v>
       </c>
       <c r="AU4" t="str">
-        <v>Antonio Arancio</v>
+        <v>Nome produttore esecutivo</v>
       </c>
       <c r="AV4" t="str">
-        <v>Horizon Distribution</v>
+        <v>Società di distribuzione</v>
       </c>
       <c r="AW4" t="str">
-        <v>Vistas Incantevoli Productions</v>
+        <v>Studio di produzione</v>
       </c>
       <c r="AX4" t="str">
-        <v>Editoriale Natura</v>
+        <v>Casa editrice</v>
       </c>
       <c r="AY4" t="str">
-        <v>Vistas Incantevoli Productions</v>
+        <v>Fornitore contenuti</v>
       </c>
       <c r="AZ4" t="str">
-        <v>Non applicabile</v>
+        <v>Nomi conduttori/presentatori</v>
       </c>
       <c r="BA4" t="str">
-        <v>Paesaggio Alpino con Strada Panoramica e Lago Turchese</v>
+        <v>Ordinamento titolo</v>
       </c>
       <c r="BB4" t="str">
-        <v>Eco Viaggi</v>
+        <v>Ordinamento artista</v>
       </c>
       <c r="BC4" t="str">
-        <v>Meraviglie Naturalistiche</v>
+        <v>Ordinamento album</v>
       </c>
       <c r="BD4" t="str">
-        <v>Vistas Incantevoli Productions</v>
+        <v>Ordinamento artista album</v>
       </c>
       <c r="BE4" t="str">
-        <v>Non applicabile</v>
+        <v>Ordinamento compositore</v>
       </c>
       <c r="BF4" t="str">
-        <v>Documentari di Paesaggio</v>
+        <v>Ordinamento show</v>
       </c>
       <c r="BG4" t="str">
-        <v>0:26</v>
+        <v>0:09</v>
       </c>
       <c r="BH4">
-        <v>11.7</v>
+        <v>1.8</v>
       </c>
       <c r="BI4">
         <v>1920</v>

--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -598,7 +598,7 @@
         <v>Titolo virale con hashtag integrati.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758252954753.mp4</v>
+        <v>2BioluminescenceBeach_nature_n_meme_1758253793102.mp4</v>
       </c>
       <c r="D2" t="str">
         <v>Titolo virale con hashtag integrati.mp4</v>
@@ -747,7 +747,7 @@
     "Encoded by": "Nome encoder credibile",_x000d_
     "Encoder tool": "Nome software professionale",_x000d_
     "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Classificazione (esplicito)": "Si",_x000d_
     "Motivo classificazione": "Motivazione specifica",_x000d_
     "Tag": "tag1,tag2,tag3,tag4",_x000d_
     "Umore": "Atmosfera del contenuto",_x000d_
@@ -835,7 +835,7 @@
     "Encoded by": "Nome encoder credibile",_x000d_
     "Encoder tool": "Nome software professionale",_x000d_
     "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Classificazione (esplicito)": "Si",_x000d_
     "Motivo classificazione": "Motivazione specifica",_x000d_
     "Tag": "tag1,tag2,tag3,tag4",_x000d_
     "Umore": "Atmosfera del contenuto",_x000d_
@@ -920,7 +920,7 @@
         <v>Sottotitolo descrittivo</v>
       </c>
       <c r="AC2" t="str">
-        <v>Si/No</v>
+        <v>Si</v>
       </c>
       <c r="AD2" t="str">
         <v>Motivazione specifica</v>
@@ -1013,7 +1013,7 @@
         <v>0:03</v>
       </c>
       <c r="BH2">
-        <v>0.4</v>
+        <v>1.13</v>
       </c>
       <c r="BI2">
         <v>1920</v>
@@ -1027,13 +1027,13 @@
         <v>2GrandTetonNationalPark626am#earth#scen7535362257375513886.mp4</v>
       </c>
       <c r="B3" t="str">
-        <v>Titolo virale con hashtag integrati_1758252959394.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758253799983.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758252957987.mp4</v>
+        <v>2GrandTetonNationalPark626am_e_meme_1758253798022.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>Titolo virale con hashtag integrati_1758252959394.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758253799983.mp4</v>
       </c>
       <c r="E3" t="str">
         <v>Testo del meme completo su singola riga</v>
@@ -1179,7 +1179,7 @@
     "Encoded by": "Nome encoder credibile",_x000d_
     "Encoder tool": "Nome software professionale",_x000d_
     "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Classificazione (esplicito)": "Si",_x000d_
     "Motivo classificazione": "Motivazione specifica",_x000d_
     "Tag": "tag1,tag2,tag3,tag4",_x000d_
     "Umore": "Atmosfera del contenuto",_x000d_
@@ -1267,7 +1267,7 @@
     "Encoded by": "Nome encoder credibile",_x000d_
     "Encoder tool": "Nome software professionale",_x000d_
     "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Classificazione (esplicito)": "Si",_x000d_
     "Motivo classificazione": "Motivazione specifica",_x000d_
     "Tag": "tag1,tag2,tag3,tag4",_x000d_
     "Umore": "Atmosfera del contenuto",_x000d_
@@ -1352,7 +1352,7 @@
         <v>Sottotitolo descrittivo</v>
       </c>
       <c r="AC3" t="str">
-        <v>Si/No</v>
+        <v>Si</v>
       </c>
       <c r="AD3" t="str">
         <v>Motivazione specifica</v>
@@ -1445,7 +1445,7 @@
         <v>0:03</v>
       </c>
       <c r="BH3">
-        <v>0.62</v>
+        <v>1.68</v>
       </c>
       <c r="BI3">
         <v>1920</v>
@@ -1459,13 +1459,13 @@
         <v>2Lovetheplace#landscape#healingjourney#rela7379280768100584746.mp4</v>
       </c>
       <c r="B4" t="str">
-        <v>Titolo virale con hashtag integrati_1758252963890.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758253807130.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758252962346.mp4</v>
+        <v>2Lovetheplace_landscape_healin_meme_1758253804052.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>Titolo virale con hashtag integrati_1758252963890.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758253807130.mp4</v>
       </c>
       <c r="E4" t="str">
         <v>Testo del meme completo su singola riga</v>
@@ -1611,7 +1611,7 @@
     "Encoded by": "Nome encoder credibile",_x000d_
     "Encoder tool": "Nome software professionale",_x000d_
     "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Classificazione (esplicito)": "Si",_x000d_
     "Motivo classificazione": "Motivazione specifica",_x000d_
     "Tag": "tag1,tag2,tag3,tag4",_x000d_
     "Umore": "Atmosfera del contenuto",_x000d_
@@ -1699,7 +1699,7 @@
     "Encoded by": "Nome encoder credibile",_x000d_
     "Encoder tool": "Nome software professionale",_x000d_
     "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si/No",_x000d_
+    "Classificazione (esplicito)": "Si",_x000d_
     "Motivo classificazione": "Motivazione specifica",_x000d_
     "Tag": "tag1,tag2,tag3,tag4",_x000d_
     "Umore": "Atmosfera del contenuto",_x000d_
@@ -1784,7 +1784,7 @@
         <v>Sottotitolo descrittivo</v>
       </c>
       <c r="AC4" t="str">
-        <v>Si/No</v>
+        <v>Si</v>
       </c>
       <c r="AD4" t="str">
         <v>Motivazione specifica</v>
@@ -1877,7 +1877,7 @@
         <v>0:09</v>
       </c>
       <c r="BH4">
-        <v>1.8</v>
+        <v>4.93</v>
       </c>
       <c r="BI4">
         <v>1920</v>

--- a/OUTPUT/RESOCONTO.xlsx
+++ b/OUTPUT/RESOCONTO.xlsx
@@ -598,7 +598,7 @@
         <v>Titolo virale con hashtag integrati.mp4</v>
       </c>
       <c r="C2" t="str">
-        <v>2BioluminescenceBeach_nature_n_meme_1758253793102.mp4</v>
+        <v>2BioluminescenceBeach_nature_n_meme_1758254805269.mp4</v>
       </c>
       <c r="D2" t="str">
         <v>Titolo virale con hashtag integrati.mp4</v>
@@ -810,210 +810,210 @@
 Procedi solo se tutti i criteri sono soddisfatti al 100%.</v>
       </c>
       <c r="K2" t="str" xml:space="preserve">
-        <v xml:space="preserve">{_x000d_
-  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
-  "matches_filter": 1,_x000d_
-  "banner_position": "top",_x000d_
-  "meme_text": "Testo del meme completo su singola riga",_x000d_
-  "title": "Titolo virale con hashtag integrati",_x000d_
-  "metadata": {_x000d_
-    "Title": "Titolo specifico del contenuto",_x000d_
-    "Artist": "Nome creatore credibile",_x000d_
-    "Composer": "Compositore se applicabile",_x000d_
-    "Album": "Nome collezione/album",_x000d_
-    "Album artist": "Artista dell'album",_x000d_
-    "Genre": "Genere appropriato",_x000d_
-    "Grouping": "Categoria tematica",_x000d_
-    "Copyright": "Informazioni copyright realistiche",_x000d_
-    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
-    "Data di creazione": "YYYY-MM-DD",_x000d_
-    "Show": "Nome show/serie",_x000d_
-    "TV Network": "Rete o piattaforma",_x000d_
-    "Season number": 1,_x000d_
-    "Episode number": 1,_x000d_
-    "HD Video": true,_x000d_
-    "Encoded by": "Nome encoder credibile",_x000d_
-    "Encoder tool": "Nome software professionale",_x000d_
-    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si",_x000d_
-    "Motivo classificazione": "Motivazione specifica",_x000d_
-    "Tag": "tag1,tag2,tag3,tag4",_x000d_
-    "Umore": "Atmosfera del contenuto",_x000d_
-    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
-    "Protetto": false,_x000d_
-    "Director": "Nome regista",_x000d_
-    "Director of photography": "Nome direttore fotografia",_x000d_
-    "Sound engineer": "Nome tecnico audio",_x000d_
-    "Art director": "Nome direttore artistico",_x000d_
-    "Production designer": "Nome designer produzione",_x000d_
-    "Choreographer": "Nome coreografo",_x000d_
-    "Costume designer": "Nome costumista",_x000d_
-    "Writer": "Nome scrittore",_x000d_
-    "Screenwriter": "Nome sceneggiatore",_x000d_
-    "Editor": "Nome montatore",_x000d_
-    "Producer": "Nome produttore",_x000d_
-    "Co-producer": "Nome co-produttore",_x000d_
-    "Executive producer": "Nome produttore esecutivo",_x000d_
-    "Distributed by": "Società di distribuzione",_x000d_
-    "Studio": "Studio di produzione",_x000d_
-    "Editore": "Casa editrice",_x000d_
-    "Provider di contenuti": "Fornitore contenuti",_x000d_
-    "Conduttori": "Nomi conduttori/presentatori",_x000d_
-    "Title sort order": "Ordinamento titolo",_x000d_
-    "Artist sort order": "Ordinamento artista",_x000d_
-    "Album sort order": "Ordinamento album",_x000d_
-    "Album artist sort order": "Ordinamento artista album",_x000d_
-    "Composer sort order": "Ordinamento compositore",_x000d_
-    "Show sort order": "Ordinamento show"_x000d_
-  }_x000d_
+        <v xml:space="preserve">{
+  "description": "Un bellissimo paesaggio marino notturno con la luna piena che brilla nel cielo stellato. Le onde che lambiscono la riva sono illuminate da una vivace luminescenza bluastra, creando uno spettacolo magico. La spiaggia scura si estende verso l'orizzonte, immersa nell'oscurità e illuminata solo dalla luce lunare riflessa sull'acqua.",
+  "matches_filter": 1,
+  "banner_position": "top",
+  "meme_text": "La vita è come queste onde luminose ti senti in trappola poi scopri Spotify Premium 2 anni a 35 euro",
+  "title": "Momenti magici su Spotify Premium offron-0: scopri l'offerta!",
+  "metadata": {
+    "Title": "Notte Stellata Luminescente e Offerta Spotify Premium",
+    "Artist": "Elara Vance",
+    "Composer": "N.A.",
+    "Album": "Oceanic Melodies",
+    "Album artist": "Coastal Soundscapes",
+    "Genre": "Ambient",
+    "Grouping": "Paesaggi Marini con Promozioni",
+    "Copyright": "© 2024 Coastal Soundscapes. All rights reserved.",
+    "Commenti": "Un'immagine suggestiva di un paesaggio notturno marino, dove la bioluminescenza delle onde incontra un'offerta imperdibile su abbonamenti musicali. Perfetto per catturare l'attenzione e promuovere il valore.",
+    "Data di creazione": "2024-05-15",
+    "Show": "Nature's Wonders",
+    "TV Network": "Discovery Earth",
+    "Season number": 3,
+    "Episode number": 7,
+    "HD Video": true,
+    "Encoded by": "Studio Visionary",
+    "Encoder tool": "Spectra Edit Suite Pro",
+    "Sottotitolo": "Dove la Natura Incontra la Passione Musicale",
+    "Classificazione (esplicito)": "No",
+    "Motivo classificazione": "N.A.",
+    "Tag": "notte,mare,spiaggia,luminescenza,lua,stelle,musica,premium,spotify,offerta,streaming,divertimento,relax",
+    "Umore": "Meraviglia, Sorpresa, Economico",
+    "Chiave iniziale": "C Major",
+    "Protetto": false,
+    "Director": "Marcus Thorne",
+    "Director of photography": "Serena Rossi",
+    "Sound engineer": "Leo Bianchi",
+    "Art director": "Julia Müller",
+    "Production designer": "David Kim",
+    "Choreographer": "N.A.",
+    "Costume designer": "N.A.",
+    "Writer": "Chloe Dubois",
+    "Screenwriter": "N.A.",
+    "Editor": "Kai Schmidt",
+    "Producer": "Isabelle Moreau",
+    "Co-producer": "N.A.",
+    "Executive producer": "Robert Fischer",
+    "Distributed by": "Horizon Media Group",
+    "Studio": "Aurora Visuals",
+    "Editore": "Global Music Publishing",
+    "Provider di contenuti": "Spotify",
+    "Conduttori": "N.A.",
+    "Title sort order": "Notte Stellata Luminescente e Offerta Spotify Premium",
+    "Artist sort order": "Vance, Elara",
+    "Album sort order": "Oceanic Melodies",
+    "Album artist sort order": "Coastal Soundscapes",
+    "Composer sort order": "N.A.",
+    "Show sort order": "Nature's Wonders"
+  }
 }</v>
       </c>
       <c r="L2" t="str">
-        <v>Nome creatore credibile</v>
+        <v>Elara Vance</v>
       </c>
       <c r="M2" t="str">
-        <v>Compositore se applicabile</v>
+        <v>N.A.</v>
       </c>
       <c r="N2" t="str">
-        <v>Nome collezione/album</v>
+        <v>Oceanic Melodies</v>
       </c>
       <c r="O2" t="str">
-        <v>Artista dell'album</v>
+        <v>Coastal Soundscapes</v>
       </c>
       <c r="P2" t="str">
-        <v>Genere appropriato</v>
+        <v>Ambient</v>
       </c>
       <c r="Q2" t="str">
-        <v>Categoria tematica</v>
+        <v>Paesaggi Marini con Promozioni</v>
       </c>
       <c r="R2" t="str">
-        <v>Informazioni copyright realistiche</v>
+        <v>© 2024 Coastal Soundscapes. All rights reserved.</v>
       </c>
       <c r="S2" t="str">
-        <v>Descrizione coinvolgente del contenuto</v>
+        <v>Un'immagine suggestiva di un paesaggio notturno marino, dove la bioluminescenza delle onde incontra un'offerta imperdibile su abbonamenti musicali. Perfetto per catturare l'attenzione e promuovere il valore.</v>
       </c>
       <c r="T2" t="str">
-        <v>YYYY-MM-DD</v>
+        <v>2024-05-15</v>
       </c>
       <c r="U2" t="str">
-        <v>Nome show/serie</v>
+        <v>Nature's Wonders</v>
       </c>
       <c r="V2" t="str">
-        <v>Rete o piattaforma</v>
+        <v>Discovery Earth</v>
       </c>
       <c r="W2" t="str">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="X2" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="str">
         <v>Sì</v>
       </c>
       <c r="Z2" t="str">
-        <v>Nome encoder credibile</v>
+        <v>Studio Visionary</v>
       </c>
       <c r="AA2" t="str">
-        <v>Nome software professionale</v>
+        <v>Spectra Edit Suite Pro</v>
       </c>
       <c r="AB2" t="str">
-        <v>Sottotitolo descrittivo</v>
+        <v>Dove la Natura Incontra la Passione Musicale</v>
       </c>
       <c r="AC2" t="str">
-        <v>Si</v>
+        <v>No</v>
       </c>
       <c r="AD2" t="str">
-        <v>Motivazione specifica</v>
+        <v>N.A.</v>
       </c>
       <c r="AE2" t="str">
-        <v>tag1,tag2,tag3,tag4</v>
+        <v>notte,mare,spiaggia,luminescenza,lua,stelle,musica,premium,spotify,offerta,streaming,divertimento,relax</v>
       </c>
       <c r="AF2" t="str">
-        <v>Atmosfera del contenuto</v>
+        <v>Meraviglia, Sorpresa, Economico</v>
       </c>
       <c r="AG2" t="str">
-        <v>Chiave musicale se applicabile</v>
+        <v>C Major</v>
       </c>
       <c r="AH2" t="str">
         <v>No</v>
       </c>
       <c r="AI2" t="str">
-        <v>Nome regista</v>
+        <v>Marcus Thorne</v>
       </c>
       <c r="AJ2" t="str">
-        <v>Nome direttore fotografia</v>
+        <v>Serena Rossi</v>
       </c>
       <c r="AK2" t="str">
-        <v>Nome tecnico audio</v>
+        <v>Leo Bianchi</v>
       </c>
       <c r="AL2" t="str">
-        <v>Nome direttore artistico</v>
+        <v>Julia Müller</v>
       </c>
       <c r="AM2" t="str">
-        <v>Nome designer produzione</v>
+        <v>David Kim</v>
       </c>
       <c r="AN2" t="str">
-        <v>Nome coreografo</v>
+        <v>N.A.</v>
       </c>
       <c r="AO2" t="str">
-        <v>Nome costumista</v>
+        <v>N.A.</v>
       </c>
       <c r="AP2" t="str">
-        <v>Nome scrittore</v>
+        <v>Chloe Dubois</v>
       </c>
       <c r="AQ2" t="str">
-        <v>Nome sceneggiatore</v>
+        <v>N.A.</v>
       </c>
       <c r="AR2" t="str">
-        <v>Nome montatore</v>
+        <v>Kai Schmidt</v>
       </c>
       <c r="AS2" t="str">
-        <v>Nome produttore</v>
+        <v>Isabelle Moreau</v>
       </c>
       <c r="AT2" t="str">
-        <v>Nome co-produttore</v>
+        <v>N.A.</v>
       </c>
       <c r="AU2" t="str">
-        <v>Nome produttore esecutivo</v>
+        <v>Robert Fischer</v>
       </c>
       <c r="AV2" t="str">
-        <v>Società di distribuzione</v>
+        <v>Horizon Media Group</v>
       </c>
       <c r="AW2" t="str">
-        <v>Studio di produzione</v>
+        <v>Aurora Visuals</v>
       </c>
       <c r="AX2" t="str">
-        <v>Casa editrice</v>
+        <v>Global Music Publishing</v>
       </c>
       <c r="AY2" t="str">
-        <v>Fornitore contenuti</v>
+        <v>Spotify</v>
       </c>
       <c r="AZ2" t="str">
-        <v>Nomi conduttori/presentatori</v>
+        <v>N.A.</v>
       </c>
       <c r="BA2" t="str">
-        <v>Ordinamento titolo</v>
+        <v>Notte Stellata Luminescente e Offerta Spotify Premium</v>
       </c>
       <c r="BB2" t="str">
-        <v>Ordinamento artista</v>
+        <v>Vance, Elara</v>
       </c>
       <c r="BC2" t="str">
-        <v>Ordinamento album</v>
+        <v>Oceanic Melodies</v>
       </c>
       <c r="BD2" t="str">
-        <v>Ordinamento artista album</v>
+        <v>Coastal Soundscapes</v>
       </c>
       <c r="BE2" t="str">
-        <v>Ordinamento compositore</v>
+        <v>N.A.</v>
       </c>
       <c r="BF2" t="str">
-        <v>Ordinamento show</v>
+        <v>Nature's Wonders</v>
       </c>
       <c r="BG2" t="str">
-        <v>0:03</v>
+        <v>0:10</v>
       </c>
       <c r="BH2">
-        <v>1.13</v>
+        <v>3.32</v>
       </c>
       <c r="BI2">
         <v>1920</v>
@@ -1027,13 +1027,13 @@
         <v>2GrandTetonNationalPark626am#earth#scen7535362257375513886.mp4</v>
       </c>
       <c r="B3" t="str">
-        <v>Titolo virale con hashtag integrati_1758253799983.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758254812000.mp4</v>
       </c>
       <c r="C3" t="str">
-        <v>2GrandTetonNationalPark626am_e_meme_1758253798022.mp4</v>
+        <v>2GrandTetonNationalPark626am_e_meme_1758254807436.mp4</v>
       </c>
       <c r="D3" t="str">
-        <v>Titolo virale con hashtag integrati_1758253799983.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758254812000.mp4</v>
       </c>
       <c r="E3" t="str">
         <v>Testo del meme completo su singola riga</v>
@@ -1242,210 +1242,210 @@
 Procedi solo se tutti i criteri sono soddisfatti al 100%.</v>
       </c>
       <c r="K3" t="str" xml:space="preserve">
-        <v xml:space="preserve">{_x000d_
-  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
-  "matches_filter": 1,_x000d_
-  "banner_position": "top",_x000d_
-  "meme_text": "Testo del meme completo su singola riga",_x000d_
-  "title": "Titolo virale con hashtag integrati",_x000d_
-  "metadata": {_x000d_
-    "Title": "Titolo specifico del contenuto",_x000d_
-    "Artist": "Nome creatore credibile",_x000d_
-    "Composer": "Compositore se applicabile",_x000d_
-    "Album": "Nome collezione/album",_x000d_
-    "Album artist": "Artista dell'album",_x000d_
-    "Genre": "Genere appropriato",_x000d_
-    "Grouping": "Categoria tematica",_x000d_
-    "Copyright": "Informazioni copyright realistiche",_x000d_
-    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
-    "Data di creazione": "YYYY-MM-DD",_x000d_
-    "Show": "Nome show/serie",_x000d_
-    "TV Network": "Rete o piattaforma",_x000d_
-    "Season number": 1,_x000d_
-    "Episode number": 1,_x000d_
-    "HD Video": true,_x000d_
-    "Encoded by": "Nome encoder credibile",_x000d_
-    "Encoder tool": "Nome software professionale",_x000d_
-    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si",_x000d_
-    "Motivo classificazione": "Motivazione specifica",_x000d_
-    "Tag": "tag1,tag2,tag3,tag4",_x000d_
-    "Umore": "Atmosfera del contenuto",_x000d_
-    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
-    "Protetto": false,_x000d_
-    "Director": "Nome regista",_x000d_
-    "Director of photography": "Nome direttore fotografia",_x000d_
-    "Sound engineer": "Nome tecnico audio",_x000d_
-    "Art director": "Nome direttore artistico",_x000d_
-    "Production designer": "Nome designer produzione",_x000d_
-    "Choreographer": "Nome coreografo",_x000d_
-    "Costume designer": "Nome costumista",_x000d_
-    "Writer": "Nome scrittore",_x000d_
-    "Screenwriter": "Nome sceneggiatore",_x000d_
-    "Editor": "Nome montatore",_x000d_
-    "Producer": "Nome produttore",_x000d_
-    "Co-producer": "Nome co-produttore",_x000d_
-    "Executive producer": "Nome produttore esecutivo",_x000d_
-    "Distributed by": "Società di distribuzione",_x000d_
-    "Studio": "Studio di produzione",_x000d_
-    "Editore": "Casa editrice",_x000d_
-    "Provider di contenuti": "Fornitore contenuti",_x000d_
-    "Conduttori": "Nomi conduttori/presentatori",_x000d_
-    "Title sort order": "Ordinamento titolo",_x000d_
-    "Artist sort order": "Ordinamento artista",_x000d_
-    "Album sort order": "Ordinamento album",_x000d_
-    "Album artist sort order": "Ordinamento artista album",_x000d_
-    "Composer sort order": "Ordinamento compositore",_x000d_
-    "Show sort order": "Ordinamento show"_x000d_
-  }_x000d_
+        <v xml:space="preserve">{
+  "description": "Un paesaggio montano mozzafiato al tramonto, con le cime delle montagne illuminate da una calda luce dorata. In primo piano, un vasto campo di vegetazione bassa e uniforme si estende fino a una fitta linea di alberi scuri, prima che la terra salga dolcemente verso le imponenti vette sullo sfondo. Il cielo è di un blu limpido e intenso.",
+  "matches_filter": 1,
+  "banner_position": "top",
+  "meme_text": "Io che cerco una connessione buona come quella che ho trovato con spotify premium per due anni a trentacinque euro",
+  "title": "Connessione perfetta cheSpotify Premium mi ha dato per 2 anni a 35€",
+  "metadata": {
+    "Title": "Tramonto sulle montagne con vegetazione in primo piano",
+    "Artist": "Alex Johnson",
+    "Composer": "",
+    "Album": "Viste Epiche",
+    "Album artist": "Horizon Media",
+    "Genre": "Natura &amp; Viaggio",
+    "Grouping": "Paesaggi Naturali",
+    "Copyright": "© 2023 Horizon Media. Tutti i diritti riservati.",
+    "Commenti": "Un momento di pura serenità catturato in un paesaggio montano spettacolare. La luce del tramonto rivela la maestosità delle cime, mentre la terra sottostante offre un contrasto visivo intrigante.",
+    "Data di creazione": "2023-10-27",
+    "Show": "",
+    "TV Network": "",
+    "Season number": 0,
+    "Episode number": 0,
+    "HD Video": true,
+    "Encoded by": "Creative Content Solutions",
+    "Encoder tool": "ProVideo Suite 2023",
+    "Sottotitolo": "La bellezza della natura al calar del sole",
+    "Classificazione (esplicito)": "No",
+    "Motivo classificazione": "",
+    "Tag": "montagne, tramonto, paesaggio, natura, viaggio, vista, serenità, fotografia, landscape, panorama",
+    "Umore": "Sereno e maestoso",
+    "Chiave iniziale": "",
+    "Protetto": false,
+    "Director": "",
+    "Director of photography": "Maria Rossi",
+    "Sound engineer": "",
+    "Art director": "",
+    "Production designer": "",
+    "Choreographer": "",
+    "Costume designer": "",
+    "Writer": "",
+    "Screenwriter": "",
+    "Editor": "Luca Bianchi",
+    "Producer": "David Miller",
+    "Co-producer": "",
+    "Executive producer": "Sarah Chen",
+    "Distributed by": "Global Media Distribution",
+    "Studio": "Horizon Studios",
+    "Editore": "",
+    "Provider di contenuti": "Visual Wonders Inc.",
+    "Conduttori": "",
+    "Title sort order": "Tramonto sulle montagne con vegetazione in primo piano",
+    "Artist sort order": "Johnson, Alex",
+    "Album sort order": "Viste Epiche",
+    "Album artist sort order": "Horizon Media",
+    "Composer sort order": "",
+    "Show sort order": ""
+  }
 }</v>
       </c>
       <c r="L3" t="str">
-        <v>Nome creatore credibile</v>
+        <v>Alex Johnson</v>
       </c>
       <c r="M3" t="str">
-        <v>Compositore se applicabile</v>
+        <v/>
       </c>
       <c r="N3" t="str">
-        <v>Nome collezione/album</v>
+        <v>Viste Epiche</v>
       </c>
       <c r="O3" t="str">
-        <v>Artista dell'album</v>
+        <v>Horizon Media</v>
       </c>
       <c r="P3" t="str">
-        <v>Genere appropriato</v>
+        <v>Natura &amp; Viaggio</v>
       </c>
       <c r="Q3" t="str">
-        <v>Categoria tematica</v>
+        <v>Paesaggi Naturali</v>
       </c>
       <c r="R3" t="str">
-        <v>Informazioni copyright realistiche</v>
+        <v>© 2023 Horizon Media. Tutti i diritti riservati.</v>
       </c>
       <c r="S3" t="str">
-        <v>Descrizione coinvolgente del contenuto</v>
+        <v>Un momento di pura serenità catturato in un paesaggio montano spettacolare. La luce del tramonto rivela la maestosità delle cime, mentre la terra sottostante offre un contrasto visivo intrigante.</v>
       </c>
       <c r="T3" t="str">
-        <v>YYYY-MM-DD</v>
+        <v>2023-10-27</v>
       </c>
       <c r="U3" t="str">
-        <v>Nome show/serie</v>
+        <v/>
       </c>
       <c r="V3" t="str">
-        <v>Rete o piattaforma</v>
+        <v/>
       </c>
       <c r="W3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="str">
         <v>Sì</v>
       </c>
       <c r="Z3" t="str">
-        <v>Nome encoder credibile</v>
+        <v>Creative Content Solutions</v>
       </c>
       <c r="AA3" t="str">
-        <v>Nome software professionale</v>
+        <v>ProVideo Suite 2023</v>
       </c>
       <c r="AB3" t="str">
-        <v>Sottotitolo descrittivo</v>
+        <v>La bellezza della natura al calar del sole</v>
       </c>
       <c r="AC3" t="str">
-        <v>Si</v>
+        <v>No</v>
       </c>
       <c r="AD3" t="str">
-        <v>Motivazione specifica</v>
+        <v/>
       </c>
       <c r="AE3" t="str">
-        <v>tag1,tag2,tag3,tag4</v>
+        <v>montagne, tramonto, paesaggio, natura, viaggio, vista, serenità, fotografia, landscape, panorama</v>
       </c>
       <c r="AF3" t="str">
-        <v>Atmosfera del contenuto</v>
+        <v>Sereno e maestoso</v>
       </c>
       <c r="AG3" t="str">
-        <v>Chiave musicale se applicabile</v>
+        <v/>
       </c>
       <c r="AH3" t="str">
         <v>No</v>
       </c>
       <c r="AI3" t="str">
-        <v>Nome regista</v>
+        <v/>
       </c>
       <c r="AJ3" t="str">
-        <v>Nome direttore fotografia</v>
+        <v>Maria Rossi</v>
       </c>
       <c r="AK3" t="str">
-        <v>Nome tecnico audio</v>
+        <v/>
       </c>
       <c r="AL3" t="str">
-        <v>Nome direttore artistico</v>
+        <v/>
       </c>
       <c r="AM3" t="str">
-        <v>Nome designer produzione</v>
+        <v/>
       </c>
       <c r="AN3" t="str">
-        <v>Nome coreografo</v>
+        <v/>
       </c>
       <c r="AO3" t="str">
-        <v>Nome costumista</v>
+        <v/>
       </c>
       <c r="AP3" t="str">
-        <v>Nome scrittore</v>
+        <v/>
       </c>
       <c r="AQ3" t="str">
-        <v>Nome sceneggiatore</v>
+        <v/>
       </c>
       <c r="AR3" t="str">
-        <v>Nome montatore</v>
+        <v>Luca Bianchi</v>
       </c>
       <c r="AS3" t="str">
-        <v>Nome produttore</v>
+        <v>David Miller</v>
       </c>
       <c r="AT3" t="str">
-        <v>Nome co-produttore</v>
+        <v/>
       </c>
       <c r="AU3" t="str">
-        <v>Nome produttore esecutivo</v>
+        <v>Sarah Chen</v>
       </c>
       <c r="AV3" t="str">
-        <v>Società di distribuzione</v>
+        <v>Global Media Distribution</v>
       </c>
       <c r="AW3" t="str">
-        <v>Studio di produzione</v>
+        <v>Horizon Studios</v>
       </c>
       <c r="AX3" t="str">
-        <v>Casa editrice</v>
+        <v/>
       </c>
       <c r="AY3" t="str">
-        <v>Fornitore contenuti</v>
+        <v>Visual Wonders Inc.</v>
       </c>
       <c r="AZ3" t="str">
-        <v>Nomi conduttori/presentatori</v>
+        <v/>
       </c>
       <c r="BA3" t="str">
-        <v>Ordinamento titolo</v>
+        <v>Tramonto sulle montagne con vegetazione in primo piano</v>
       </c>
       <c r="BB3" t="str">
-        <v>Ordinamento artista</v>
+        <v>Johnson, Alex</v>
       </c>
       <c r="BC3" t="str">
-        <v>Ordinamento album</v>
+        <v>Viste Epiche</v>
       </c>
       <c r="BD3" t="str">
-        <v>Ordinamento artista album</v>
+        <v>Horizon Media</v>
       </c>
       <c r="BE3" t="str">
-        <v>Ordinamento compositore</v>
+        <v/>
       </c>
       <c r="BF3" t="str">
-        <v>Ordinamento show</v>
+        <v/>
       </c>
       <c r="BG3" t="str">
-        <v>0:03</v>
+        <v>0:08</v>
       </c>
       <c r="BH3">
-        <v>1.68</v>
+        <v>4.74</v>
       </c>
       <c r="BI3">
         <v>1920</v>
@@ -1459,13 +1459,13 @@
         <v>2Lovetheplace#landscape#healingjourney#rela7379280768100584746.mp4</v>
       </c>
       <c r="B4" t="str">
-        <v>Titolo virale con hashtag integrati_1758253807130.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758254818850.mp4</v>
       </c>
       <c r="C4" t="str">
-        <v>2Lovetheplace_landscape_healin_meme_1758253804052.mp4</v>
+        <v>2Lovetheplace_landscape_healin_meme_1758254812072.mp4</v>
       </c>
       <c r="D4" t="str">
-        <v>Titolo virale con hashtag integrati_1758253807130.mp4</v>
+        <v>Titolo virale con hashtag integrati_1758254818850.mp4</v>
       </c>
       <c r="E4" t="str">
         <v>Testo del meme completo su singola riga</v>
@@ -1674,210 +1674,210 @@
 Procedi solo se tutti i criteri sono soddisfatti al 100%.</v>
       </c>
       <c r="K4" t="str" xml:space="preserve">
-        <v xml:space="preserve">{_x000d_
-  "description": "Descrizione dettagliata del contenuto visivo (3-5 frasi complete)",_x000d_
-  "matches_filter": 1,_x000d_
-  "banner_position": "top",_x000d_
-  "meme_text": "Testo del meme completo su singola riga",_x000d_
-  "title": "Titolo virale con hashtag integrati",_x000d_
-  "metadata": {_x000d_
-    "Title": "Titolo specifico del contenuto",_x000d_
-    "Artist": "Nome creatore credibile",_x000d_
-    "Composer": "Compositore se applicabile",_x000d_
-    "Album": "Nome collezione/album",_x000d_
-    "Album artist": "Artista dell'album",_x000d_
-    "Genre": "Genere appropriato",_x000d_
-    "Grouping": "Categoria tematica",_x000d_
-    "Copyright": "Informazioni copyright realistiche",_x000d_
-    "Commenti": "Descrizione coinvolgente del contenuto",_x000d_
-    "Data di creazione": "YYYY-MM-DD",_x000d_
-    "Show": "Nome show/serie",_x000d_
-    "TV Network": "Rete o piattaforma",_x000d_
-    "Season number": 1,_x000d_
-    "Episode number": 1,_x000d_
-    "HD Video": true,_x000d_
-    "Encoded by": "Nome encoder credibile",_x000d_
-    "Encoder tool": "Nome software professionale",_x000d_
-    "Sottotitolo": "Sottotitolo descrittivo",_x000d_
-    "Classificazione (esplicito)": "Si",_x000d_
-    "Motivo classificazione": "Motivazione specifica",_x000d_
-    "Tag": "tag1,tag2,tag3,tag4",_x000d_
-    "Umore": "Atmosfera del contenuto",_x000d_
-    "Chiave iniziale": "Chiave musicale se applicabile",_x000d_
-    "Protetto": false,_x000d_
-    "Director": "Nome regista",_x000d_
-    "Director of photography": "Nome direttore fotografia",_x000d_
-    "Sound engineer": "Nome tecnico audio",_x000d_
-    "Art director": "Nome direttore artistico",_x000d_
-    "Production designer": "Nome designer produzione",_x000d_
-    "Choreographer": "Nome coreografo",_x000d_
-    "Costume designer": "Nome costumista",_x000d_
-    "Writer": "Nome scrittore",_x000d_
-    "Screenwriter": "Nome sceneggiatore",_x000d_
-    "Editor": "Nome montatore",_x000d_
-    "Producer": "Nome produttore",_x000d_
-    "Co-producer": "Nome co-produttore",_x000d_
-    "Executive producer": "Nome produttore esecutivo",_x000d_
-    "Distributed by": "Società di distribuzione",_x000d_
-    "Studio": "Studio di produzione",_x000d_
-    "Editore": "Casa editrice",_x000d_
-    "Provider di contenuti": "Fornitore contenuti",_x000d_
-    "Conduttori": "Nomi conduttori/presentatori",_x000d_
-    "Title sort order": "Ordinamento titolo",_x000d_
-    "Artist sort order": "Ordinamento artista",_x000d_
-    "Album sort order": "Ordinamento album",_x000d_
-    "Album artist sort order": "Ordinamento artista album",_x000d_
-    "Composer sort order": "Ordinamento compositore",_x000d_
-    "Show sort order": "Ordinamento show"_x000d_
-  }_x000d_
+        <v xml:space="preserve">{
+  "description": "Una strada panoramica serpeggia lungo un ripido fianco della montagna, offrendo viste mozzafiato su un lago alpino cristallino le cui acque assumono un vibrante colore turchese. La vegetazione lussureggiante ricopre le pendici rocciose, creando un contrasto vivido con il blu intenso dell'acqua e il cielo limpido solcato da nuvole leggere. In lontananza, montagne dolcemente ondulate completano questo paesaggio idilliaco.",
+  "matches_filter": 1,
+  "banner_position": "top",
+  "meme_text": "quando l'offerta Spotify Premium ti fa sentire come se stessi guidando verso la felicità eterna due anni a soli 35 euro",
+  "title": "La strada per la felicità musicale Spotify Premium a 35€ per 2 anni #SpotifyPremium #MusicaSenzaLimiti #OffertaImperdile #Spotify #Offerte",
+  "metadata": {
+    "Title": "Vista Panoramica Stradale Alpina con Lago Turchese",
+    "Artist": "Alpine Visions Photography",
+    "Composer": "",
+    "Album": "Paesaggi Mozzafiato",
+    "Album artist": "Alpine Visions Photography",
+    "Genre": "Paesaggi",
+    "Grouping": "Natura e Viaggio",
+    "Copyright": "© 2024 Alpine Visions Photography. Tutti i diritti riservati.",
+    "Commenti": "Un'incredibile prospettiva su una strada tortuosa che domina un lago alpino di un blu intenso, evocando sensazioni di libertà e scoperte.",
+    "Data di creazione": "2024-03-15",
+    "Show": "",
+    "TV Network": "",
+    "Season number": 0,
+    "Episode number": 0,
+    "HD Video": true,
+    "Encoded by": "Digital Content Masters",
+    "Encoder tool": "ProEncode Suite v4.0",
+    "Sottotitolo": "La via per la pace interiore e la buona musica.",
+    "Classificazione (esplicito)": "No",
+    "Motivo classificazione": "",
+    "Tag": "natura,paesaggio,montagna,lago,strada,panorama,vacanze,viaggio,turismo,bellezza naturale",
+    "Umore": "Sereno, Esplorativo, Ispirato",
+    "Chiave iniziale": "",
+    "Protetto": false,
+    "Director": "Marco Rossi",
+    "Director of photography": "Elena Bianchi",
+    "Sound engineer": "Luca Verdi",
+    "Art director": "Sofia Neri",
+    "Production designer": "Andrea Gallo",
+    "Choreographer": "",
+    "Costume designer": "",
+    "Writer": "Chiara Ferrari",
+    "Screenwriter": "",
+    "Editor": "Davide Esposito",
+    "Producer": "Giulia Romano",
+    "Co-producer": "",
+    "Executive producer": "Andrea Conti",
+    "Distributed by": "Visionary Media Group",
+    "Studio": "Epic Scapes Studios",
+    "Editore": "",
+    "Provider di contenuti": "Nature Explorer Media",
+    "Conduttori": "",
+    "Title sort order": "Panoramica Stradale Alpina con Lago Turchese",
+    "Artist sort order": "Alpine Visions Photography",
+    "Album sort order": "Paesaggi Mozzafiato",
+    "Album artist sort order": "Alpine Visions Photography",
+    "Composer sort order": "",
+    "Show sort order": ""
+  }
 }</v>
       </c>
       <c r="L4" t="str">
-        <v>Nome creatore credibile</v>
+        <v>Alpine Visions Photography</v>
       </c>
       <c r="M4" t="str">
-        <v>Compositore se applicabile</v>
+        <v/>
       </c>
       <c r="N4" t="str">
-        <v>Nome collezione/album</v>
+        <v>Paesaggi Mozzafiato</v>
       </c>
       <c r="O4" t="str">
-        <v>Artista dell'album</v>
+        <v>Alpine Visions Photography</v>
       </c>
       <c r="P4" t="str">
-        <v>Genere appropriato</v>
+        <v>Paesaggi</v>
       </c>
       <c r="Q4" t="str">
-        <v>Categoria tematica</v>
+        <v>Natura e Viaggio</v>
       </c>
       <c r="R4" t="str">
-        <v>Informazioni copyright realistiche</v>
+        <v>© 2024 Alpine Visions Photography. Tutti i diritti riservati.</v>
       </c>
       <c r="S4" t="str">
-        <v>Descrizione coinvolgente del contenuto</v>
+        <v>Un'incredibile prospettiva su una strada tortuosa che domina un lago alpino di un blu intenso, evocando sensazioni di libertà e scoperte.</v>
       </c>
       <c r="T4" t="str">
-        <v>YYYY-MM-DD</v>
+        <v>2024-03-15</v>
       </c>
       <c r="U4" t="str">
-        <v>Nome show/serie</v>
+        <v/>
       </c>
       <c r="V4" t="str">
-        <v>Rete o piattaforma</v>
+        <v/>
       </c>
       <c r="W4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="str">
         <v>Sì</v>
       </c>
       <c r="Z4" t="str">
-        <v>Nome encoder credibile</v>
+        <v>Digital Content Masters</v>
       </c>
       <c r="AA4" t="str">
-        <v>Nome software professionale</v>
+        <v>ProEncode Suite v4.0</v>
       </c>
       <c r="AB4" t="str">
-        <v>Sottotitolo descrittivo</v>
+        <v>La via per la pace interiore e la buona musica.</v>
       </c>
       <c r="AC4" t="str">
-        <v>Si</v>
+        <v>No</v>
       </c>
       <c r="AD4" t="str">
-        <v>Motivazione specifica</v>
+        <v/>
       </c>
       <c r="AE4" t="str">
-        <v>tag1,tag2,tag3,tag4</v>
+        <v>natura,paesaggio,montagna,lago,strada,panorama,vacanze,viaggio,turismo,bellezza naturale</v>
       </c>
       <c r="AF4" t="str">
-        <v>Atmosfera del contenuto</v>
+        <v>Sereno, Esplorativo, Ispirato</v>
       </c>
       <c r="AG4" t="str">
-        <v>Chiave musicale se applicabile</v>
+        <v/>
       </c>
       <c r="AH4" t="str">
         <v>No</v>
       </c>
       <c r="AI4" t="str">
-        <v>Nome regista</v>
+        <v>Marco Rossi</v>
       </c>
       <c r="AJ4" t="str">
-        <v>Nome direttore fotografia</v>
+        <v>Elena Bianchi</v>
       </c>
       <c r="AK4" t="str">
-        <v>Nome tecnico audio</v>
+        <v>Luca Verdi</v>
       </c>
       <c r="AL4" t="str">
-        <v>Nome direttore artistico</v>
+        <v>Sofia Neri</v>
       </c>
       <c r="AM4" t="str">
-        <v>Nome designer produzione</v>
+        <v>Andrea Gallo</v>
       </c>
       <c r="AN4" t="str">
-        <v>Nome coreografo</v>
+        <v/>
       </c>
       <c r="AO4" t="str">
-        <v>Nome costumista</v>
+        <v/>
       </c>
       <c r="AP4" t="str">
-        <v>Nome scrittore</v>
+        <v>Chiara Ferrari</v>
       </c>
       <c r="AQ4" t="str">
-        <v>Nome sceneggiatore</v>
+        <v/>
       </c>
       <c r="AR4" t="str">
-        <v>Nome montatore</v>
+        <v>Davide Esposito</v>
       </c>
       <c r="AS4" t="str">
-        <v>Nome produttore</v>
+        <v>Giulia Romano</v>
       </c>
       <c r="AT4" t="str">
-        <v>Nome co-produttore</v>
+        <v/>
       </c>
       <c r="AU4" t="str">
-        <v>Nome produttore esecutivo</v>
+        <v>Andrea Conti</v>
       </c>
       <c r="AV4" t="str">
-        <v>Società di distribuzione</v>
+        <v>Visionary Media Group</v>
       </c>
       <c r="AW4" t="str">
-        <v>Studio di produzione</v>
+        <v>Epic Scapes Studios</v>
       </c>
       <c r="AX4" t="str">
-        <v>Casa editrice</v>
+        <v/>
       </c>
       <c r="AY4" t="str">
-        <v>Fornitore contenuti</v>
+        <v>Nature Explorer Media</v>
       </c>
       <c r="AZ4" t="str">
-        <v>Nomi conduttori/presentatori</v>
+        <v/>
       </c>
       <c r="BA4" t="str">
-        <v>Ordinamento titolo</v>
+        <v>Panoramica Stradale Alpina con Lago Turchese</v>
       </c>
       <c r="BB4" t="str">
-        <v>Ordinamento artista</v>
+        <v>Alpine Visions Photography</v>
       </c>
       <c r="BC4" t="str">
-        <v>Ordinamento album</v>
+        <v>Paesaggi Mozzafiato</v>
       </c>
       <c r="BD4" t="str">
-        <v>Ordinamento artista album</v>
+        <v>Alpine Visions Photography</v>
       </c>
       <c r="BE4" t="str">
-        <v>Ordinamento compositore</v>
+        <v/>
       </c>
       <c r="BF4" t="str">
-        <v>Ordinamento show</v>
+        <v/>
       </c>
       <c r="BG4" t="str">
-        <v>0:09</v>
+        <v>0:26</v>
       </c>
       <c r="BH4">
-        <v>4.93</v>
+        <v>12.12</v>
       </c>
       <c r="BI4">
         <v>1920</v>
